--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="246">
   <si>
     <t>id|行号</t>
   </si>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>大厅vip专享</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"xycj",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -769,14 +765,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_gift",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每日特惠礼包</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -790,14 +778,6 @@
   </si>
   <si>
     <t>新版新人红包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>43#40#26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","gift_cglb"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -872,32 +852,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7#68#</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>group_list|按钮组列表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>|说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊位置，放置奖池显示图标（对应两个场次）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -926,34 +885,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"by3d_act_jc","enter_hall"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -986,31 +917,220 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>3D捕鱼奖池-5号游戏场显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-显示说明界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_dui_huan",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>72#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>down2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by_bossts",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss来袭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>69#73#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_active_daily_task",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>3D捕鱼奖池-4号游戏场显示奖池图标</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼奖池-5号游戏场显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-显示说明界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D捕鱼开炮送红包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>64#71#</t>
+    <t>3D捕鱼开炮送红包-场次4大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次3大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次2大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center3</t>
+  </si>
+  <si>
+    <t>center4</t>
+  </si>
+  <si>
+    <t>center5</t>
+  </si>
+  <si>
+    <t>71#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>76#67</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>77#68</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","game"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次5大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-游戏内</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","3"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","4"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","5"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by_level","enter2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台升级按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼挑战任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_task",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_016_xyxcwk",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center_top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_top_qh",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼游戏上方区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>82#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#43#79#72</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>74#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_kllb"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_bybs"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_cglb"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1458,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G26" sqref="G26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1490,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1501,10 +1621,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1548,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1601,10 +1743,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1642,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1653,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1699,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1746,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1788,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1802,16 +1944,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
@@ -1822,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1833,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1844,10 +1986,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1855,17 +1997,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1875,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1894,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1905,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1916,13 +2078,64 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1933,13 +2146,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1957,13 +2170,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1974,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -1983,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1991,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -2008,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -2017,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2025,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -2034,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2042,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -2051,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2059,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -2068,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2076,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -2085,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2093,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -2102,7 +2315,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2110,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -2119,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2127,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -2136,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2144,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -2153,7 +2366,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2161,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -2170,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2178,16 +2391,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2195,16 +2408,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
         <v>14</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2212,16 +2425,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2229,7 +2442,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -2238,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2246,16 +2459,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
         <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2263,7 +2476,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -2272,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2280,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -2289,7 +2502,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2297,7 +2510,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2306,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2314,7 +2527,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2323,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2331,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2340,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2348,7 +2561,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -2357,7 +2570,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2365,7 +2578,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -2374,7 +2587,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2382,7 +2595,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -2391,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2399,7 +2612,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -2408,7 +2621,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2416,7 +2629,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -2425,7 +2638,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2433,7 +2646,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2442,7 +2655,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2450,7 +2663,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -2459,7 +2672,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2467,7 +2680,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -2476,7 +2689,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2484,7 +2697,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2493,7 +2706,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2501,7 +2714,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2510,7 +2723,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2518,7 +2731,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -2527,7 +2740,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2535,7 +2748,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -2544,7 +2757,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2552,7 +2765,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -2561,7 +2774,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2569,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -2578,7 +2791,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2586,7 +2799,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -2595,7 +2808,7 @@
         <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2603,7 +2816,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -2612,7 +2825,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2620,7 +2833,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -2629,7 +2842,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2637,7 +2850,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -2646,7 +2859,7 @@
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2654,7 +2867,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2663,7 +2876,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,7 +2884,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2680,7 +2893,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2688,7 +2901,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2697,7 +2910,7 @@
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2705,7 +2918,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2714,7 +2927,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2722,7 +2935,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2731,7 +2944,7 @@
         <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2739,7 +2952,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2748,7 +2961,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2756,7 +2969,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2765,7 +2978,7 @@
         <v>47</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2773,7 +2986,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2782,7 +2995,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2790,16 +3003,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2807,7 +3020,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2816,7 +3029,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2824,7 +3037,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2833,7 +3046,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2841,7 +3054,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2850,7 +3063,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2858,7 +3071,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -2867,7 +3080,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2875,7 +3088,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2884,7 +3097,7 @@
         <v>54</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2892,7 +3105,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2901,7 +3114,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2909,7 +3122,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2918,7 +3131,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2926,7 +3139,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2935,7 +3148,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,7 +3156,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2952,7 +3165,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2960,7 +3173,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2969,7 +3182,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2977,7 +3190,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2986,7 +3199,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2994,7 +3207,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3003,7 +3216,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3011,7 +3224,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3020,7 +3233,7 @@
         <v>62</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3028,7 +3241,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3037,7 +3250,7 @@
         <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3045,7 +3258,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3054,7 +3267,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3062,7 +3275,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3071,7 +3284,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3079,7 +3292,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3088,7 +3301,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3096,7 +3309,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3105,7 +3318,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3113,7 +3326,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3122,7 +3335,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3130,7 +3343,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3139,7 +3352,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3147,7 +3360,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3156,7 +3369,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3164,7 +3377,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3173,7 +3386,194 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -3226,10 +3626,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3237,10 +3637,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3248,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -3293,10 +3693,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3304,10 +3704,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3315,10 +3715,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3326,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -3371,10 +3771,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3386,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3421,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3429,9 +3829,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3469,10 +3880,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3483,13 +3894,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3497,10 +3908,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -3518,14 +3929,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3533,14 +3944,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -3549,16 +3960,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3566,16 +3977,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3585,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3595,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3604,7 +4015,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3614,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3622,7 +4033,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3630,7 +4041,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3638,7 +4049,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3646,7 +4057,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3654,7 +4065,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
@@ -3662,7 +4073,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
@@ -3670,7 +4081,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.2">
@@ -3678,7 +4089,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.2">
@@ -3686,7 +4097,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.2">
@@ -3694,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
@@ -3702,7 +4113,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.2">
@@ -3710,7 +4121,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
@@ -3718,7 +4129,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.2">
@@ -3726,7 +4137,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.2">
@@ -3734,7 +4145,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.2">
@@ -3742,7 +4153,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
@@ -3750,7 +4161,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.2">
@@ -3758,7 +4169,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.2">
@@ -3766,7 +4177,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.2">
@@ -3774,7 +4185,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.2">
@@ -3782,7 +4193,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
@@ -3790,7 +4201,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
@@ -3798,7 +4209,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
@@ -3806,7 +4217,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
@@ -3814,7 +4225,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
@@ -3822,7 +4233,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.2">
@@ -3830,7 +4241,7 @@
         <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.2">
@@ -3838,7 +4249,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.2">
@@ -3846,7 +4257,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.2">
@@ -3854,7 +4265,7 @@
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="4:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3862,7 +4273,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.2">
@@ -3870,7 +4281,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
@@ -3878,7 +4289,7 @@
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.2">
@@ -3886,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.2">
@@ -3894,7 +4305,7 @@
         <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.2">
@@ -3902,7 +4313,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.2">
@@ -3910,7 +4321,7 @@
         <v>47</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
@@ -3918,7 +4329,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
@@ -3926,7 +4337,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
@@ -3934,7 +4345,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
@@ -3942,7 +4353,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
@@ -3950,7 +4361,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
@@ -3958,7 +4369,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.2">
@@ -3966,7 +4377,7 @@
         <v>54</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.2">
@@ -3974,7 +4385,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.2">
@@ -3982,7 +4393,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
@@ -3990,7 +4401,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.2">
@@ -3998,7 +4409,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.2">
@@ -4006,7 +4417,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.2">
@@ -4014,7 +4425,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.2">
@@ -4022,7 +4433,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.2">
@@ -4030,7 +4441,7 @@
         <v>62</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.2">
@@ -4038,7 +4449,7 @@
         <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4079,10 +4490,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4116,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4127,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4144,7 +4555,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4173,10 +4584,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="253">
   <si>
     <t>id|行号</t>
   </si>
@@ -781,10 +781,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>26#36#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_by_pms",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -885,10 +881,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"by3d_act_jc","enter_hall"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"by3d_act_jc","enter_fish"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -917,23 +909,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼奖池-5号游戏场显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-显示说明界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>兑换按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_dui_huan",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -953,6 +929,207 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>69#73#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_active_daily_task",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-4号游戏场显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次4大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次3大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center3</t>
+  </si>
+  <si>
+    <t>center4</t>
+  </si>
+  <si>
+    <t>center5</t>
+  </si>
+  <si>
+    <t>71#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>76#67</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>77#68</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","game"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次5大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-游戏内</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","3"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","4"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","5"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by_level","enter2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_task",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center_top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_top_qh",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼游戏上方区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>82#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#43#79#72</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>74#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_kllb"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_bybs"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_cglb"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>师徒系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_stxt",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_022_qflb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全返礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>84#83#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","enter_hall"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-5号游戏场显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-显示说明界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次2大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_dui_huan",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"by_bossts",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -961,104 +1138,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>69#73#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_active_daily_task",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>活跃任务</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼奖池-4号游戏场显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-场次4大厅显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-场次3大厅显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-场次2大厅显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center3</t>
-  </si>
-  <si>
-    <t>center4</t>
-  </si>
-  <si>
-    <t>center5</t>
-  </si>
-  <si>
-    <t>71#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>75#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>76#67</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>77#68</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","game"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-场次5大厅显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-游戏内</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","3"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","4"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_by_level","enter2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>炮台升级按钮</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_flqcj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩卡</t>
+    <t>"act_016_xyxcwk",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1066,71 +1154,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"by3d_task",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_016_xyxcwk",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center_top</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_top_qh",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼游戏上方区域</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>82#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>64#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40#43#79#72</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>74#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_kllb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_bybs"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_cglb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right</t>
+    <t>"sys_qd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1632,10 +1660,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1643,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1964,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1978,7 +2006,7 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1986,10 +2014,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1997,13 +2025,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2011,10 +2039,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2023,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2068,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2056,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2070,7 +2098,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2078,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2088,10 +2116,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2099,10 +2127,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2110,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2121,10 +2149,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2132,10 +2160,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2146,13 +2174,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2187,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2221,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -2510,7 +2538,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2680,7 +2708,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3258,7 +3286,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3267,7 +3295,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3275,7 +3303,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3284,7 +3312,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3292,7 +3320,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3301,7 +3329,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3309,7 +3337,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3318,7 +3346,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3326,7 +3354,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3335,7 +3363,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3343,7 +3371,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3352,7 +3380,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3360,7 +3388,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3369,7 +3397,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3377,7 +3405,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3386,7 +3414,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3394,7 +3422,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3403,7 +3431,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3411,7 +3439,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3420,7 +3448,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3428,7 +3456,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3437,7 +3465,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3445,7 +3473,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3454,7 +3482,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3462,7 +3490,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3471,7 +3499,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3479,7 +3507,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3488,7 +3516,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3496,7 +3524,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3505,7 +3533,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3513,7 +3541,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3522,7 +3550,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3530,7 +3558,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3539,7 +3567,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3547,7 +3575,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3556,7 +3584,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3564,7 +3592,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3573,7 +3601,58 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3838,10 +3917,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3855,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3911,7 +3990,7 @@
         <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -3931,7 +4010,9 @@
       <c r="B4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
@@ -3977,10 +4058,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <sheet name="fishing_match_bm|捕鱼比赛报名" sheetId="20" r:id="rId15"/>
     <sheet name="fishing3d_game|3D捕鱼" sheetId="24" r:id="rId16"/>
     <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId17"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId18"/>
+    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId18"/>
+    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId19"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="260">
   <si>
     <t>id|行号</t>
   </si>
@@ -499,22 +501,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>16;31;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;11#26#</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;11#</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>26#18#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1046,22 +1032,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>top2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>64#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>40#43#79#72</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>74#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_gift","enter_gift_kllb"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1094,10 +1068,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>84#83#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1160,13 +1130,73 @@
   <si>
     <t>签到</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼自动开炮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_zdkp",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_ad_mfcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖-广告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>area|按钮所在区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>74#87#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36#11#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31#26#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,6 +1287,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1660,10 +1697,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1828,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1919,7 +1956,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +2012,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1992,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2003,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2014,10 +2051,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2025,13 +2062,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2039,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2051,10 +2088,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2084,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2095,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2106,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2116,10 +2153,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,10 +2164,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2138,10 +2175,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2160,10 +2197,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2174,1571 +2211,77 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.25" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>14</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>17</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>18</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>19</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>20</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>21</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>22</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>24</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>25</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>26</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>27</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>28</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6">
-        <v>29</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>30</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>31</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>32</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6">
-        <v>33</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>34</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>35</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6">
-        <v>36</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6">
-        <v>37</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1</v>
-      </c>
-      <c r="D39" s="6">
-        <v>38</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>39</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6">
-        <v>40</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>41</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>42</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>43</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>44</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>45</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>46</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>47</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>48</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>49</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>50</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>51</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>52</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="6">
-        <v>1</v>
-      </c>
-      <c r="D54" s="6">
-        <v>53</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>54</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>55</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>56</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>57</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>58</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>59</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>60</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>61</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>62</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>63</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>64</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>65</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>66</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>67</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>68</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>69</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>70</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>71</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>72</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>73</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>74</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>75</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>76</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>77</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>78</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>79</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>80</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>81</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>82</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>83</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>84</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>85</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>252</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3774,9 +2317,7 @@
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3786,7 +2327,1609 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>22</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>27</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>29</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>30</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>31</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>33</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>34</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>35</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>36</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>37</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>38</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>39</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>40</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>53</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>87</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3820,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3853,7 +3996,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3917,10 +4060,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3934,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3973,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -3987,10 +4130,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -4008,10 +4151,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -4025,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -4058,10 +4201,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
@@ -4234,7 +4377,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
@@ -4266,7 +4409,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.2">
@@ -4338,7 +4481,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.2">
@@ -4346,7 +4489,7 @@
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="4:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4354,7 +4497,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.2">
@@ -4362,7 +4505,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
@@ -4370,7 +4513,7 @@
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.2">
@@ -4378,7 +4521,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.2">
@@ -4386,7 +4529,7 @@
         <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.2">
@@ -4394,7 +4537,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.2">
@@ -4402,7 +4545,7 @@
         <v>47</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
@@ -4410,7 +4553,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
@@ -4418,7 +4561,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
@@ -4426,7 +4569,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
@@ -4434,7 +4577,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
@@ -4442,7 +4585,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
@@ -4450,7 +4593,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.2">
@@ -4458,7 +4601,7 @@
         <v>54</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.2">
@@ -4466,7 +4609,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.2">
@@ -4474,7 +4617,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
@@ -4482,7 +4625,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.2">
@@ -4490,7 +4633,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.2">
@@ -4498,7 +4641,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.2">
@@ -4506,7 +4649,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.2">
@@ -4514,7 +4657,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.2">
@@ -4522,7 +4665,7 @@
         <v>62</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.2">
@@ -4530,7 +4673,7 @@
         <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4717,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4668,7 +4811,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,33 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
     <sheet name="xxlsh_game|水浒消消乐" sheetId="14" r:id="rId2"/>
-    <sheet name="xxl_game|消消乐" sheetId="13" r:id="rId3"/>
-    <sheet name="fishing_game|捕鱼游戏按钮配置" sheetId="12" r:id="rId4"/>
-    <sheet name="fishing_hall|捕鱼大厅按钮配置" sheetId="11" r:id="rId5"/>
-    <sheet name="hall_config|大厅按钮配置" sheetId="5" r:id="rId6"/>
-    <sheet name="freehall_config|匹配场大厅按钮配置" sheetId="9" r:id="rId7"/>
-    <sheet name="match_hall|比赛场大厅按钮配置" sheetId="21" r:id="rId8"/>
-    <sheet name="ddz_free_game|斗地主游戏" sheetId="16" r:id="rId9"/>
-    <sheet name="ddz_free_js|斗地主游戏结算" sheetId="17" r:id="rId10"/>
-    <sheet name="mj_free_js|麻将游戏结算" sheetId="23" r:id="rId11"/>
-    <sheet name="pdk_free_js|跑得快游戏结算" sheetId="22" r:id="rId12"/>
-    <sheet name="mj_free_game|麻将游戏" sheetId="18" r:id="rId13"/>
-    <sheet name="qql_game|敲敲乐游戏" sheetId="19" r:id="rId14"/>
-    <sheet name="fishing_match_bm|捕鱼比赛报名" sheetId="20" r:id="rId15"/>
-    <sheet name="fishing3d_game|3D捕鱼" sheetId="24" r:id="rId16"/>
-    <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId17"/>
-    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId18"/>
-    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId19"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId20"/>
+    <sheet name="xxlcs_game|财神消消乐" sheetId="29" r:id="rId3"/>
+    <sheet name="xxl_game|消消乐" sheetId="13" r:id="rId4"/>
+    <sheet name="zpg_game|种苹果" sheetId="28" r:id="rId5"/>
+    <sheet name="fishing_game|捕鱼游戏按钮配置" sheetId="12" r:id="rId6"/>
+    <sheet name="fishing_hall|捕鱼大厅按钮配置" sheetId="11" r:id="rId7"/>
+    <sheet name="hall_config|大厅按钮配置" sheetId="5" r:id="rId8"/>
+    <sheet name="freehall_config|匹配场大厅按钮配置" sheetId="9" r:id="rId9"/>
+    <sheet name="match_hall|比赛场大厅按钮配置" sheetId="21" r:id="rId10"/>
+    <sheet name="ddz_free_game|斗地主游戏" sheetId="16" r:id="rId11"/>
+    <sheet name="ddz_free_js|斗地主游戏结算" sheetId="17" r:id="rId12"/>
+    <sheet name="mj_free_js|麻将游戏结算" sheetId="23" r:id="rId13"/>
+    <sheet name="pdk_free_js|跑得快游戏结算" sheetId="22" r:id="rId14"/>
+    <sheet name="mj_free_game|麻将游戏" sheetId="18" r:id="rId15"/>
+    <sheet name="qql_game|敲敲乐游戏" sheetId="19" r:id="rId16"/>
+    <sheet name="fishing_match_bm|捕鱼比赛报名" sheetId="20" r:id="rId17"/>
+    <sheet name="fishing3d_game|3D捕鱼" sheetId="24" r:id="rId18"/>
+    <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId19"/>
+    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId20"/>
+    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId21"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="264">
   <si>
     <t>id|行号</t>
   </si>
@@ -763,10 +765,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新版新人红包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_by_pms",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1032,10 +1030,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40#43#79#72</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_gift","enter_gift_kllb"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1068,10 +1062,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>84#83#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"by3d_act_jc","enter_hall"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1166,37 +1156,65 @@
   <si>
     <t>top</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36#11#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>84#42#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_down2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gift_czlb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#43#79#88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8#87#36#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_top</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31#26#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>16;31;#</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>74#87#11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36#11#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31#26#</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1310,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1646,7 +1670,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:H27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1697,10 +1721,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1708,10 +1732,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1722,6 +1746,91 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1779,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1823,7 +1932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1872,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1919,12 +2028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1956,7 +2065,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +2075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2007,12 +2116,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2029,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2043,7 +2152,7 @@
         <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2051,10 +2160,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2062,13 +2171,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2076,10 +2185,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2088,24 +2197,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>248</v>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2121,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2135,7 +2256,7 @@
         <v>158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2153,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,10 +2285,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2175,10 +2296,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,10 +2307,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2197,86 +2318,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2286,7 +2335,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2327,7 +2376,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,13 +2408,85 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K22" sqref="K22:K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2400,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2434,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -2723,7 +2844,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2893,7 +3014,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3471,7 +3592,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3480,7 +3601,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3488,7 +3609,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3497,7 +3618,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3505,7 +3626,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3514,7 +3635,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3522,7 +3643,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3531,7 +3652,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3539,7 +3660,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3548,7 +3669,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3556,7 +3677,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3565,7 +3686,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3573,7 +3694,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3582,7 +3703,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3590,7 +3711,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3599,7 +3720,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3607,7 +3728,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3616,7 +3737,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3624,7 +3745,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3633,7 +3754,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3641,7 +3762,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3650,7 +3771,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3658,7 +3779,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3667,7 +3788,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3675,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3684,7 +3805,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3692,7 +3813,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3701,7 +3822,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3709,7 +3830,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3718,7 +3839,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3726,7 +3847,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3735,7 +3856,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3743,7 +3864,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3752,7 +3873,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3760,7 +3881,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3769,7 +3890,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3777,7 +3898,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3786,7 +3907,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3794,7 +3915,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3803,7 +3924,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3811,7 +3932,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3820,7 +3941,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3828,7 +3949,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3837,7 +3958,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3845,7 +3966,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3854,7 +3975,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3862,7 +3983,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3871,7 +3992,24 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3885,8 +4023,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3929,7 +4133,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3959,12 +4163,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3996,7 +4240,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4006,12 +4250,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4060,10 +4304,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4073,12 +4317,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4119,10 +4363,12 @@
         <v>163</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
+        <f>'all_enter|所有按钮入口'!D2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E2</f>
+        <v>快乐礼包</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4133,13 +4379,15 @@
         <v>150</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D3" s="6">
+        <f>'all_enter|所有按钮入口'!D3</f>
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
+      <c r="E3" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E3</f>
+        <v>大厅vip专享</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4154,13 +4402,15 @@
         <v>151</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="D4" s="6">
+        <f>'all_enter|所有按钮入口'!D4</f>
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
+      <c r="E4" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E4</f>
+        <v>幸运抽奖</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4172,10 +4422,12 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
+        <f>'all_enter|所有按钮入口'!D5</f>
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
+      <c r="E5" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E5</f>
+        <v>分享</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -4190,10 +4442,12 @@
         <v>95</v>
       </c>
       <c r="D6" s="6">
+        <f>'all_enter|所有按钮入口'!D6</f>
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
+      <c r="E6" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E6</f>
+        <v>新人红包</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4201,480 +4455,847 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="6">
+        <f>'all_enter|所有按钮入口'!D7</f>
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
+      <c r="E7" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E7</f>
+        <v>大厅千元赛</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
+        <f>'all_enter|所有按钮入口'!D8</f>
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
+      <c r="E8" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E8</f>
+        <v>首充礼包</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
+        <f>'all_enter|所有按钮入口'!D9</f>
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
+      <c r="E9" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E9</f>
+        <v>鲸鱼福利</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="D10" s="6">
+        <f>'all_enter|所有按钮入口'!D10</f>
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
+      <c r="E10" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E10</f>
+        <v>限时福利</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
+        <f>'all_enter|所有按钮入口'!D11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
+      <c r="E11" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E11</f>
+        <v>月卡</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="6">
+        <f>'all_enter|所有按钮入口'!D12</f>
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
+      <c r="E12" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E12</f>
+        <v>节日扩展活动</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="6">
+        <f>'all_enter|所有按钮入口'!D13</f>
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
+      <c r="E13" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E13</f>
+        <v>幸运降临</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="6">
+        <f>'all_enter|所有按钮入口'!D14</f>
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
+      <c r="E14" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E14</f>
+        <v>消消乐水果排行榜</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="6">
+        <f>'all_enter|所有按钮入口'!D15</f>
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>37</v>
+      <c r="E15" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E15</f>
+        <v>水浒消消乐每日任务</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="6">
+        <f>'all_enter|所有按钮入口'!D16</f>
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
+      <c r="E16" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E16</f>
+        <v>水果消消乐每日任务</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="6">
+        <f>'all_enter|所有按钮入口'!D17</f>
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
+      <c r="E17" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E17</f>
+        <v>新人专属</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="6">
+        <f>'all_enter|所有按钮入口'!D18</f>
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
+      <c r="E18" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E18</f>
+        <v>捕鱼达人榜</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="6">
+        <f>'all_enter|所有按钮入口'!D19</f>
         <v>18</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>46</v>
+      <c r="E19" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E19</f>
+        <v>千元赛提示</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="6">
+        <f>'all_enter|所有按钮入口'!D20</f>
         <v>19</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>51</v>
+      <c r="E20" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E20</f>
+        <v>捕鱼比赛提示</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="6">
+        <f>'all_enter|所有按钮入口'!D21</f>
         <v>20</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>55</v>
+      <c r="E21" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E21</f>
+        <v>捕鱼门票</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="6">
+        <f>'all_enter|所有按钮入口'!D22</f>
         <v>21</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
+      <c r="E22" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E22</f>
+        <v>感恩有礼</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="6">
+        <f>'all_enter|所有按钮入口'!D23</f>
         <v>22</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>64</v>
+      <c r="E23" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E23</f>
+        <v>雪球大作战</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="6">
+        <f>'all_enter|所有按钮入口'!D24</f>
         <v>23</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>81</v>
+      <c r="E24" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E24</f>
+        <v>推广礼包</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="6">
+        <f>'all_enter|所有按钮入口'!D25</f>
         <v>24</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>68</v>
+      <c r="E25" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E25</f>
+        <v>疯狂双12</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="6">
+        <f>'all_enter|所有按钮入口'!D26</f>
         <v>25</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>67</v>
+      <c r="E26" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E26</f>
+        <v>财神模式</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="6">
+        <f>'all_enter|所有按钮入口'!D27</f>
         <v>26</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>165</v>
+      <c r="E27" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E27</f>
+        <v>新版新人红包</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="6">
+        <f>'all_enter|所有按钮入口'!D28</f>
         <v>27</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>77</v>
+      <c r="E28" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E28</f>
+        <v>新版1元礼包</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="6">
+        <f>'all_enter|所有按钮入口'!D29</f>
         <v>28</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>69</v>
+      <c r="E29" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E29</f>
+        <v>圣诞敲敲乐</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="6">
+        <f>'all_enter|所有按钮入口'!D30</f>
         <v>29</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>80</v>
+      <c r="E30" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E30</f>
+        <v>全返礼包</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="6">
+        <f>'all_enter|所有按钮入口'!D31</f>
         <v>30</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>162</v>
+      <c r="E31" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E31</f>
+        <v>每日特惠礼包</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="6">
+        <f>'all_enter|所有按钮入口'!D32</f>
         <v>31</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>84</v>
+      <c r="E32" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E32</f>
+        <v>欢庆元旦</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="6">
+        <f>'all_enter|所有按钮入口'!D33</f>
         <v>32</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>88</v>
+      <c r="E33" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E33</f>
+        <v>水浒图标</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="6">
+        <f>'all_enter|所有按钮入口'!D34</f>
         <v>33</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>91</v>
+      <c r="E34" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E34</f>
+        <v>随机鲸币</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="6">
+        <f>'all_enter|所有按钮入口'!D35</f>
         <v>34</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>96</v>
+      <c r="E35" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E35</f>
+        <v>飞-红包</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="6">
+        <f>'all_enter|所有按钮入口'!D36</f>
         <v>35</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>98</v>
+      <c r="E36" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E36</f>
+        <v>浪漫情人节</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="6">
+        <f>'all_enter|所有按钮入口'!D37</f>
         <v>36</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>101</v>
+      <c r="E37" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E37</f>
+        <v>新人七天乐</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="6">
+        <f>'all_enter|所有按钮入口'!D38</f>
         <v>37</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>103</v>
+      <c r="E38" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E38</f>
+        <v>分享拉新</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="6">
+        <f>'all_enter|所有按钮入口'!D39</f>
         <v>38</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>104</v>
+      <c r="E39" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E39</f>
+        <v>龙腾祈福</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="6">
+        <f>'all_enter|所有按钮入口'!D40</f>
         <v>39</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>106</v>
+      <c r="E40" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E40</f>
+        <v>房卡场入口</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="6">
+        <f>'all_enter|所有按钮入口'!D41</f>
         <v>40</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="D42">
+      <c r="E41" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E41</f>
+        <v>幸运彩贝</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="6">
+        <f>'all_enter|所有按钮入口'!D42</f>
         <v>41</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>114</v>
+      <c r="E42" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E42</f>
+        <v>植树礼物</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D43">
+      <c r="D43" s="6">
+        <f>'all_enter|所有按钮入口'!D43</f>
         <v>42</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>116</v>
+      <c r="E43" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E43</f>
+        <v>季卡</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D44">
+      <c r="D44" s="6">
+        <f>'all_enter|所有按钮入口'!D44</f>
         <v>43</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>155</v>
+      <c r="E44" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E44</f>
+        <v>彩金鱼抽奖</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D45">
+      <c r="D45" s="6">
+        <f>'all_enter|所有按钮入口'!D45</f>
         <v>44</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>117</v>
+      <c r="E45" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E45</f>
+        <v>0元礼包</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D46">
+      <c r="D46" s="6">
+        <f>'all_enter|所有按钮入口'!D46</f>
         <v>45</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>119</v>
+      <c r="E46" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E46</f>
+        <v>红包分享</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D47">
+      <c r="D47" s="6">
+        <f>'all_enter|所有按钮入口'!D47</f>
         <v>46</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>121</v>
+      <c r="E47" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E47</f>
+        <v>财神消消乐</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D48">
+      <c r="D48" s="6">
+        <f>'all_enter|所有按钮入口'!D48</f>
         <v>47</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>123</v>
+      <c r="E48" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E48</f>
+        <v>随机领红包</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49">
+      <c r="D49" s="6">
+        <f>'all_enter|所有按钮入口'!D49</f>
         <v>48</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>125</v>
+      <c r="E49" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E49</f>
+        <v>回归惊喜</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D50">
+      <c r="D50" s="6">
+        <f>'all_enter|所有按钮入口'!D50</f>
         <v>49</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>127</v>
+      <c r="E50" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E50</f>
+        <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51">
+      <c r="D51" s="6">
+        <f>'all_enter|所有按钮入口'!D51</f>
         <v>50</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>129</v>
+      <c r="E51" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E51</f>
+        <v>疯狂返利</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D52">
+      <c r="D52" s="6">
+        <f>'all_enter|所有按钮入口'!D52</f>
         <v>51</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>131</v>
+      <c r="E52" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E52</f>
+        <v xml:space="preserve"> 抽空调</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53">
+      <c r="D53" s="6">
+        <f>'all_enter|所有按钮入口'!D53</f>
         <v>52</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>133</v>
+      <c r="E53" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E53</f>
+        <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="6">
+        <f>'all_enter|所有按钮入口'!D54</f>
         <v>53</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>135</v>
+      <c r="E54" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E54</f>
+        <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D55">
+      <c r="D55" s="6">
+        <f>'all_enter|所有按钮入口'!D55</f>
         <v>54</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>137</v>
+      <c r="E55" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E55</f>
+        <v>连购返利</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D56">
+      <c r="D56" s="6">
+        <f>'all_enter|所有按钮入口'!D56</f>
         <v>55</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>139</v>
+      <c r="E56" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E56</f>
+        <v>免费红包</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D57">
+      <c r="D57" s="6">
+        <f>'all_enter|所有按钮入口'!D57</f>
         <v>56</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>141</v>
+      <c r="E57" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E57</f>
+        <v>幸运彩蛋</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D58">
+      <c r="D58" s="6">
+        <f>'all_enter|所有按钮入口'!D58</f>
         <v>57</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>143</v>
+      <c r="E58" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E58</f>
+        <v>消消乐红包任务</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D59">
+      <c r="D59" s="6">
+        <f>'all_enter|所有按钮入口'!D59</f>
         <v>58</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>145</v>
+      <c r="E59" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E59</f>
+        <v>新首充礼包</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D60">
+      <c r="D60" s="6">
+        <f>'all_enter|所有按钮入口'!D60</f>
         <v>59</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>147</v>
+      <c r="E60" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E60</f>
+        <v>母亲节特惠</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D61">
+      <c r="D61" s="6">
+        <f>'all_enter|所有按钮入口'!D61</f>
         <v>60</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>149</v>
+      <c r="E61" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E61</f>
+        <v>水果消消乐</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D62">
+      <c r="D62" s="6">
+        <f>'all_enter|所有按钮入口'!D62</f>
         <v>61</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>152</v>
+      <c r="E62" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E62</f>
+        <v>存钱罐</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D63">
+      <c r="D63" s="6">
+        <f>'all_enter|所有按钮入口'!D63</f>
         <v>62</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>157</v>
+      <c r="E63" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E63</f>
+        <v>问题反馈</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D64">
+      <c r="D64" s="6">
+        <f>'all_enter|所有按钮入口'!D64</f>
         <v>63</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>159</v>
-      </c>
+      <c r="E64" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E64</f>
+        <v>3D捕鱼测试排行榜</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="6">
+        <f>'all_enter|所有按钮入口'!D65</f>
+        <v>64</v>
+      </c>
+      <c r="E65" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E65</f>
+        <v>排名赛</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="6">
+        <f>'all_enter|所有按钮入口'!D66</f>
+        <v>65</v>
+      </c>
+      <c r="E66" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E66</f>
+        <v>3D捕鱼奖池-大厅显示奖池图标</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D67" s="6">
+        <f>'all_enter|所有按钮入口'!D67</f>
+        <v>66</v>
+      </c>
+      <c r="E67" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E67</f>
+        <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="6">
+        <f>'all_enter|所有按钮入口'!D68</f>
+        <v>67</v>
+      </c>
+      <c r="E68" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E68</f>
+        <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="6">
+        <f>'all_enter|所有按钮入口'!D69</f>
+        <v>68</v>
+      </c>
+      <c r="E69" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E69</f>
+        <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="6">
+        <f>'all_enter|所有按钮入口'!D70</f>
+        <v>69</v>
+      </c>
+      <c r="E70" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E70</f>
+        <v>3D捕鱼奖池-游戏内显示奖池图标</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="6">
+        <f>'all_enter|所有按钮入口'!D71</f>
+        <v>70</v>
+      </c>
+      <c r="E71" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E71</f>
+        <v>3D捕鱼奖池-显示说明界面</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="6">
+        <f>'all_enter|所有按钮入口'!D72</f>
+        <v>71</v>
+      </c>
+      <c r="E72" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E72</f>
+        <v>3D捕鱼开炮送红包-场次2大厅显示</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="6">
+        <f>'all_enter|所有按钮入口'!D73</f>
+        <v>72</v>
+      </c>
+      <c r="E73" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E73</f>
+        <v>兑换按钮</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="6">
+        <f>'all_enter|所有按钮入口'!D74</f>
+        <v>73</v>
+      </c>
+      <c r="E74" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E74</f>
+        <v>boss来袭</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="6">
+        <f>'all_enter|所有按钮入口'!D75</f>
+        <v>74</v>
+      </c>
+      <c r="E75" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E75</f>
+        <v>活跃任务</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="6">
+        <f>'all_enter|所有按钮入口'!D76</f>
+        <v>75</v>
+      </c>
+      <c r="E76" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E76</f>
+        <v>3D捕鱼开炮送红包-场次3大厅显示</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="6">
+        <f>'all_enter|所有按钮入口'!D77</f>
+        <v>76</v>
+      </c>
+      <c r="E77" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E77</f>
+        <v>3D捕鱼开炮送红包-场次4大厅显示</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="6">
+        <f>'all_enter|所有按钮入口'!D78</f>
+        <v>77</v>
+      </c>
+      <c r="E78" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E78</f>
+        <v>3D捕鱼开炮送红包-场次5大厅显示</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="6">
+        <f>'all_enter|所有按钮入口'!D79</f>
+        <v>78</v>
+      </c>
+      <c r="E79" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E79</f>
+        <v>3D捕鱼开炮送红包-游戏内</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="6">
+        <f>'all_enter|所有按钮入口'!D80</f>
+        <v>79</v>
+      </c>
+      <c r="E80" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E80</f>
+        <v>炮台升级按钮</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="6">
+        <f>'all_enter|所有按钮入口'!D81</f>
+        <v>80</v>
+      </c>
+      <c r="E81" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E81</f>
+        <v>畅玩卡</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D82" s="6">
+        <f>'all_enter|所有按钮入口'!D82</f>
+        <v>81</v>
+      </c>
+      <c r="E82" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E82</f>
+        <v>3D捕鱼挑战任务</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="6">
+        <f>'all_enter|所有按钮入口'!D83</f>
+        <v>82</v>
+      </c>
+      <c r="E83" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E83</f>
+        <v>3D捕鱼游戏上方区域</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="6">
+        <f>'all_enter|所有按钮入口'!D84</f>
+        <v>83</v>
+      </c>
+      <c r="E84" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E84</f>
+        <v>师徒系统</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="6">
+        <f>'all_enter|所有按钮入口'!D85</f>
+        <v>84</v>
+      </c>
+      <c r="E85" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E85</f>
+        <v>全返礼包</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="6">
+        <f>'all_enter|所有按钮入口'!D86</f>
+        <v>85</v>
+      </c>
+      <c r="E86" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E86</f>
+        <v>签到</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D87" s="6">
+        <f>'all_enter|所有按钮入口'!D87</f>
+        <v>86</v>
+      </c>
+      <c r="E87" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E87</f>
+        <v>3D捕鱼自动开炮</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D88" s="6">
+        <f>'all_enter|所有按钮入口'!D88</f>
+        <v>87</v>
+      </c>
+      <c r="E88" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E88</f>
+        <v>免费抽奖-广告</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D91" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4684,7 +5305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4734,89 +5355,4 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="273">
   <si>
     <t>id|行号</t>
   </si>
@@ -296,10 +296,6 @@
   </si>
   <si>
     <t>14#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -986,10 +982,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_by_level","enter2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_flqcj",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1158,14 +1150,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36#11#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>84#42#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Right_down2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1178,15 +1162,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40#43#79#88</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8#87#36#11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1198,16 +1174,76 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>16;31#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>16;31#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>16;31;#</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_xrcdj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89#11#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_sgxxlyd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐大引导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by_level","enter2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_sgxxlyd","enter2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>91#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>87#36;89#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#43#79#88#8#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_tgxt",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>84#42#92#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1316,6 +1352,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1670,7 +1707,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1713,7 +1750,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,10 +1758,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,10 +1769,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1771,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1857,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +1904,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1875,10 +1912,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1917,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1961,7 +1998,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1969,10 +2006,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +2055,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2102,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2107,7 +2144,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2121,12 +2158,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2138,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2149,10 +2186,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2160,10 +2197,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2171,13 +2208,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2185,10 +2222,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2197,10 +2234,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2208,10 +2245,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2242,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2274,10 +2311,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2285,10 +2322,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2296,10 +2333,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,10 +2344,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,10 +2355,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,10 +2421,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2421,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2432,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -2468,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -2480,13 +2517,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2538,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -2555,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -2844,7 +2881,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2878,7 +2915,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2887,7 +2924,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2895,7 +2932,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -2904,7 +2941,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2912,7 +2949,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -2921,7 +2958,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2929,7 +2966,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -2938,7 +2975,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2946,7 +2983,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -2955,7 +2992,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2963,7 +3000,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -2972,7 +3009,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2980,7 +3017,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2989,7 +3026,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2997,7 +3034,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -3006,7 +3043,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3014,7 +3051,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3023,7 +3060,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3031,7 +3068,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -3040,7 +3077,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3048,7 +3085,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -3057,7 +3094,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3065,7 +3102,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -3074,7 +3111,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3082,7 +3119,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -3091,7 +3128,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3099,7 +3136,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -3108,7 +3145,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3116,7 +3153,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -3125,7 +3162,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3133,7 +3170,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3142,7 +3179,7 @@
         <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3150,7 +3187,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -3159,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3167,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -3176,7 +3213,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3184,7 +3221,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -3193,7 +3230,7 @@
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3201,7 +3238,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3210,7 +3247,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3218,7 +3255,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3227,7 +3264,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3235,7 +3272,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3244,7 +3281,7 @@
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3252,7 +3289,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3261,7 +3298,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3269,7 +3306,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3278,7 +3315,7 @@
         <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3286,7 +3323,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3295,7 +3332,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3303,7 +3340,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3312,7 +3349,7 @@
         <v>47</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3320,7 +3357,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3329,7 +3366,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3337,7 +3374,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3346,7 +3383,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3354,7 +3391,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3363,7 +3400,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3371,7 +3408,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3380,7 +3417,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3388,7 +3425,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3397,7 +3434,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3405,7 +3442,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -3414,7 +3451,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3422,7 +3459,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3431,7 +3468,7 @@
         <v>54</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3439,7 +3476,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3448,7 +3485,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3456,7 +3493,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3465,7 +3502,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3473,7 +3510,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3482,7 +3519,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3490,7 +3527,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3499,7 +3536,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3507,7 +3544,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3516,7 +3553,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3524,7 +3561,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3533,7 +3570,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3541,7 +3578,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3550,7 +3587,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3558,7 +3595,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3567,7 +3604,7 @@
         <v>62</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3575,7 +3612,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3584,7 +3621,7 @@
         <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3592,7 +3629,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3601,7 +3638,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3609,7 +3646,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3618,7 +3655,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3626,7 +3663,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3635,7 +3672,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3643,7 +3680,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3652,7 +3689,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3660,7 +3697,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3669,7 +3706,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3677,7 +3714,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3686,7 +3723,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3694,7 +3731,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3703,7 +3740,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3711,7 +3748,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3720,7 +3757,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3728,7 +3765,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3737,7 +3774,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3745,7 +3782,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3754,7 +3791,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3762,7 +3799,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3771,7 +3808,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3779,7 +3816,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3788,7 +3825,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3796,7 +3833,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3805,7 +3842,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3813,7 +3850,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3822,7 +3859,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3830,7 +3867,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3839,7 +3876,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3847,7 +3884,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3856,7 +3893,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3864,7 +3901,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3873,7 +3910,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3881,7 +3918,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3890,7 +3927,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3898,7 +3935,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3907,7 +3944,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3915,7 +3952,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3924,7 +3961,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3932,7 +3969,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3941,7 +3978,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3949,7 +3986,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3958,7 +3995,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3966,7 +4003,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3975,7 +4012,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3983,7 +4020,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3992,7 +4029,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4000,7 +4037,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4009,7 +4046,75 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>92</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +4128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -4066,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -4090,7 +4195,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4122,7 +4227,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4133,7 +4238,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4141,10 +4246,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4152,9 +4257,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>266</v>
+      </c>
+      <c r="C5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4194,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4240,7 +4345,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4287,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4304,10 +4409,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4321,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4360,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -4376,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -4399,10 +4504,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -4418,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -4436,10 +4541,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="D6" s="6">
         <f>'all_enter|所有按钮入口'!D6</f>
@@ -4455,10 +4560,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!D7</f>
@@ -5335,10 +5440,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="284">
   <si>
     <t>id|行号</t>
   </si>
@@ -885,10 +885,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼奖池-3D捕鱼场次选择位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>兑换按钮</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1062,10 +1058,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼奖池-显示说明界面</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1151,10 +1143,6 @@
   </si>
   <si>
     <t>Right_down2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>超值礼包</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1190,10 +1178,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;89#11#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_026_sgxxlyd",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1226,7 +1210,71 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>87#36;89#11#</t>
+    <t>"sys_tgxt",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_mfflq",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89#93;11#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>94#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","hallEnter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池按钮图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","gameshow"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池游戏内显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-3D捕鱼场次选择位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>95#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1234,15 +1282,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_tgxt",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>84#42#92#</t>
+    <t>87#36;89#93;11#94#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>92#84#42#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1750,7 +1794,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1758,10 +1802,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1769,10 +1813,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2146,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2158,12 +2202,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2189,7 +2233,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2200,7 +2244,7 @@
         <v>165</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2211,7 +2255,7 @@
         <v>173</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>175</v>
@@ -2222,10 +2266,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2234,10 +2278,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2245,10 +2289,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2260,14 +2304,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2311,10 +2356,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2322,10 +2367,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2333,10 +2378,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2344,10 +2389,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2355,10 +2400,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2469,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2469,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -2505,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -2517,13 +2573,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2558,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2592,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -2881,7 +2937,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3051,7 +3107,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3646,7 +3702,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3672,7 +3728,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3689,7 +3745,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3706,7 +3762,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3717,13 +3773,13 @@
         <v>179</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3740,7 +3796,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3748,7 +3804,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3757,7 +3813,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3765,7 +3821,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3774,7 +3830,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3782,7 +3838,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3791,7 +3847,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3799,7 +3855,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3808,7 +3864,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3816,7 +3872,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3825,7 +3881,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3833,7 +3889,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3842,7 +3898,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3850,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3859,7 +3915,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3867,7 +3923,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3876,7 +3932,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3884,7 +3940,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3893,7 +3949,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3901,7 +3957,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3910,7 +3966,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3918,7 +3974,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3927,7 +3983,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3935,7 +3991,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3944,7 +4000,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3952,7 +4008,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3961,7 +4017,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3969,7 +4025,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3978,7 +4034,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3986,7 +4042,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3995,7 +4051,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4003,7 +4059,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4012,7 +4068,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4020,7 +4076,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4029,7 +4085,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4037,7 +4093,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4046,7 +4102,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4054,7 +4110,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4063,7 +4119,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4071,7 +4127,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4080,7 +4136,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4088,7 +4144,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4097,7 +4153,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4105,7 +4161,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4114,7 +4170,75 @@
         <v>92</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>93</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>95</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>96</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4362,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4257,7 +4381,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -4299,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4345,7 +4469,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4409,10 +4533,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4424,7 +4548,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -4484,7 +4608,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -4507,7 +4631,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -4525,7 +4649,9 @@
       <c r="B5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>271</v>
+      </c>
       <c r="D5" s="6">
         <f>'all_enter|所有按钮入口'!D5</f>
         <v>4</v>
@@ -5392,15 +5518,74 @@
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="D89" s="6">
+        <f>'all_enter|所有按钮入口'!D89</f>
+        <v>88</v>
+      </c>
+      <c r="E89" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E89</f>
+        <v>超值礼包</v>
+      </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="D90" s="6">
+        <f>'all_enter|所有按钮入口'!D90</f>
+        <v>89</v>
+      </c>
+      <c r="E90" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E90</f>
+        <v>新人抽大奖</v>
+      </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D91" s="6"/>
+      <c r="D91" s="6">
+        <f>'all_enter|所有按钮入口'!D91</f>
+        <v>90</v>
+      </c>
+      <c r="E91" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E91</f>
+        <v>水果消消乐引导</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D92" s="6">
+        <f>'all_enter|所有按钮入口'!D92</f>
+        <v>91</v>
+      </c>
+      <c r="E92" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E92</f>
+        <v>水果消消乐大引导</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D93" s="6">
+        <f>'all_enter|所有按钮入口'!D93</f>
+        <v>92</v>
+      </c>
+      <c r="E93" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E93</f>
+        <v>推广系统</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D94" s="6">
+        <f>'all_enter|所有按钮入口'!D94</f>
+        <v>93</v>
+      </c>
+      <c r="E94" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E94</f>
+        <v>金秋送豪礼</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D95" s="6">
+        <f>'all_enter|所有按钮入口'!D95</f>
+        <v>94</v>
+      </c>
+      <c r="E95" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E95</f>
+        <v>免费福利券</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="290">
   <si>
     <t>id|行号</t>
   </si>
@@ -1158,135 +1158,172 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>16;31#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31#26#</t>
+    <t>新人抽大奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_xrcdj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_sgxxlyd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐大引导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by_level","enter2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_sgxxlyd","enter2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>91#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_tgxt",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_mfflq",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","hallEnter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池按钮图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","gameshow"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池游戏内显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-3D捕鱼场次选择位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>95#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#43#79#88#8#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>92#84#42#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_028_mfhf",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_028_xycd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>98#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;98;31;#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;98;31#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>16;31;#</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人抽大奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_xrcdj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_sgxxlyd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐引导</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;90#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐大引导</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_by_level","enter2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_sgxxlyd","enter2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>91#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_tgxt",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_027_mfflq",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;89#93;11#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>94#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","hallEnter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖池按钮图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","gameshow"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖池游戏内显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-3D捕鱼场次选择位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>95#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>超值礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40#43#79#88#8#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>87#36;89#93;11#94#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>92#84#42#</t>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8#</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90;98#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>98#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>87#36;89#98;11#97#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89#97;98;11#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;98#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1751,7 +1788,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1794,7 +1831,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2114,7 +2151,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2146,7 +2183,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2161,7 +2198,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="I30" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2202,7 +2239,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2233,7 +2270,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2269,7 +2306,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2411,10 +2448,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2427,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2504,7 +2541,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:K23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2527,7 +2564,9 @@
       <c r="B2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2540,7 +2579,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2563,7 +2602,9 @@
       <c r="B2" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2573,13 +2614,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomRight" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3769,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3779,7 +3820,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3940,7 +3981,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4102,7 +4143,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4110,7 +4151,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4119,7 +4160,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4127,7 +4168,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4136,7 +4177,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4144,7 +4185,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4153,7 +4194,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4161,7 +4202,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4170,7 +4211,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4178,7 +4219,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4187,7 +4228,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4195,7 +4236,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4204,7 +4245,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4212,7 +4253,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4221,7 +4262,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4229,7 +4270,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4238,7 +4279,41 @@
         <v>96</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>97</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>98</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4328,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4288,7 +4363,9 @@
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -4319,7 +4396,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4362,7 +4439,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4381,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -4397,7 +4474,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4425,6 +4502,9 @@
       <c r="B2" t="s">
         <v>250</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -4437,7 +4517,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4469,7 +4549,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4548,10 +4628,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4608,7 +4688,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -4631,7 +4711,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -4649,9 +4729,7 @@
       <c r="B5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>271</v>
-      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="6">
         <f>'all_enter|所有按钮入口'!D5</f>
         <v>4</v>
@@ -5585,6 +5663,46 @@
       <c r="E95" s="6" t="str">
         <f>'all_enter|所有按钮入口'!E95</f>
         <v>免费福利券</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D96" s="6">
+        <f>'all_enter|所有按钮入口'!D96</f>
+        <v>95</v>
+      </c>
+      <c r="E96" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E96</f>
+        <v>奖池按钮图标</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="6">
+        <f>'all_enter|所有按钮入口'!D97</f>
+        <v>96</v>
+      </c>
+      <c r="E97" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E97</f>
+        <v>奖池游戏内显示</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D98" s="6">
+        <f>'all_enter|所有按钮入口'!D98</f>
+        <v>97</v>
+      </c>
+      <c r="E98" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E98</f>
+        <v>免费话费</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="6">
+        <f>'all_enter|所有按钮入口'!D99</f>
+        <v>98</v>
+      </c>
+      <c r="E99" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E99</f>
+        <v>幸运彩蛋</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="297">
   <si>
     <t>id|行号</t>
   </si>
@@ -1006,10 +1006,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"by3d_top_qh",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼游戏上方区域</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1278,60 +1274,79 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>98#</t>
+    <t>"by3d_top_qh",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_top_qh","jj_enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼游戏上方区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>99#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_029_hlqjd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>87#36;89#100;11#97#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89#97;100;11#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cpl_ljyjcfk",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金抽福卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>16;98;31;#</t>
+    <t>16;31;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;101;31;#</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>16;98;31#26#</t>
+    <t>16;100;31#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8#</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;90;98#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>98#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>87#36;89#98;11#97#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;89#97;98;11#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;98#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,8 +1452,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,8 +1475,13 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1460,15 +1489,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,11 +1555,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="检查单元格" xfId="3" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1788,7 +1839,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1831,7 +1882,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2151,7 +2202,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2183,7 +2234,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2290,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2270,7 +2321,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2281,7 +2332,7 @@
         <v>165</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2306,7 +2357,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2315,10 +2366,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2326,10 +2377,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>183</v>
@@ -2448,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2462,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2557,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2529,6 +2580,11 @@
       </c>
       <c r="C5" s="5"/>
     </row>
+    <row r="17" spans="10:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="10:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="10:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2551,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2562,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2600,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2614,13 +2670,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2655,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2978,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3148,7 +3204,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3743,7 +3799,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3769,7 +3825,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3803,7 +3859,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3820,7 +3876,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3837,7 +3893,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3845,7 +3901,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3854,7 +3910,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3862,7 +3918,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3879,7 +3935,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3888,7 +3944,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3905,7 +3961,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3981,7 +4037,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3990,7 +4046,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3998,7 +4054,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4024,7 +4080,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4032,7 +4088,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4041,7 +4097,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4049,7 +4105,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4058,7 +4114,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4066,7 +4122,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4075,7 +4131,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4083,7 +4139,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4092,7 +4148,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4100,7 +4156,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4109,7 +4165,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4117,7 +4173,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4126,7 +4182,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4134,7 +4190,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4143,7 +4199,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4151,7 +4207,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4160,7 +4216,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4168,7 +4224,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4177,7 +4233,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4185,7 +4241,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4194,7 +4250,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4202,7 +4258,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4211,7 +4267,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4219,7 +4275,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4228,7 +4284,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4236,7 +4292,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4245,7 +4301,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4253,7 +4309,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4262,7 +4318,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4270,7 +4326,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4279,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4287,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4296,7 +4352,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4304,7 +4360,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4313,7 +4369,58 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>99</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>101</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +4435,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4364,7 +4471,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4396,7 +4503,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4439,7 +4546,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4458,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -4500,10 +4607,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4514,10 +4621,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4530,7 +4637,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4541,7 +4648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4549,8 +4656,20 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="D3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4628,10 +4747,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4688,7 +4807,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -4711,7 +4830,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -5703,6 +5822,26 @@
       <c r="E99" s="6" t="str">
         <f>'all_enter|所有按钮入口'!E99</f>
         <v>幸运彩蛋</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="6">
+        <f>'all_enter|所有按钮入口'!D100</f>
+        <v>99</v>
+      </c>
+      <c r="E100" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E100</f>
+        <v>街机捕鱼游戏上方区域</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D101" s="6">
+        <f>'all_enter|所有按钮入口'!D101</f>
+        <v>100</v>
+      </c>
+      <c r="E101" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E101</f>
+        <v>欢乐敲金蛋</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="15" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,8 @@
     <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId19"/>
     <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId20"/>
     <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId21"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId22"/>
+    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId22"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="302">
   <si>
     <t>id|行号</t>
   </si>
@@ -753,14 +754,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3#2#8#61#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_by_pms",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1298,14 +1291,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>87#36;89#100;11#97#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;89#97;100;11#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"cpl_ljyjcfk",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1340,6 +1325,42 @@
   <si>
     <t>16;100;31#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vip",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_list|按钮组列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_030_cwlb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>102#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#2#8#61#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89#97;100;11#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>87#100;11#36;89#97#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1882,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1890,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1901,10 +1922,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2255,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2307,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2321,7 +2342,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2329,10 +2350,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2340,13 +2361,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2354,10 +2375,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2366,10 +2387,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2377,10 +2398,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2412,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2426,7 +2447,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2434,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2444,10 +2465,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2455,10 +2476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,10 +2487,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2477,10 +2498,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,10 +2509,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2499,10 +2520,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2557,7 +2578,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2607,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2618,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2656,10 +2677,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2670,13 +2691,51 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2711,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2728,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -2745,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3034,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3204,7 +3263,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3782,7 +3841,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3791,7 +3850,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3799,7 +3858,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3808,7 +3867,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3816,7 +3875,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3825,7 +3884,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3833,7 +3892,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3842,7 +3901,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3850,7 +3909,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3859,7 +3918,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3867,7 +3926,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3876,7 +3935,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3884,7 +3943,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3893,7 +3952,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3901,7 +3960,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3910,7 +3969,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3918,7 +3977,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3927,7 +3986,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3935,7 +3994,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3944,7 +4003,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3952,7 +4011,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3961,7 +4020,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3969,7 +4028,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3978,7 +4037,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3986,7 +4045,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3995,7 +4054,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4003,7 +4062,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4012,7 +4071,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4020,7 +4079,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4029,7 +4088,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4037,7 +4096,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4046,7 +4105,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4054,7 +4113,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4063,7 +4122,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4071,7 +4130,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4080,7 +4139,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4088,7 +4147,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4097,7 +4156,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4105,7 +4164,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4114,7 +4173,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4122,7 +4181,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4131,7 +4190,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4139,7 +4198,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4148,7 +4207,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4156,7 +4215,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4165,7 +4224,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4173,7 +4232,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4182,7 +4241,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4190,7 +4249,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4199,7 +4258,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4207,7 +4266,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4216,7 +4275,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4224,7 +4283,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4233,7 +4292,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4241,7 +4300,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4250,7 +4309,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4258,7 +4317,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4267,7 +4326,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4275,7 +4334,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4284,7 +4343,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4292,7 +4351,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4301,7 +4360,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4309,7 +4368,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4318,7 +4377,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4326,7 +4385,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4335,7 +4394,7 @@
         <v>96</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4343,7 +4402,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4352,7 +4411,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4360,7 +4419,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4369,7 +4428,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4377,7 +4436,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4386,7 +4445,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4394,7 +4453,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4403,7 +4462,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4411,7 +4470,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4420,7 +4479,24 @@
         <v>101</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>102</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4471,7 +4547,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4546,7 +4622,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4565,7 +4641,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -4607,10 +4683,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +4732,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4664,10 +4740,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3"/>
     </row>
@@ -4732,10 +4808,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4749,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4788,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -4807,7 +4883,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -4830,7 +4906,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -4883,10 +4959,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!D7</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="304">
   <si>
     <t>id|行号</t>
   </si>
@@ -1323,44 +1323,52 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>16;100;31#26#</t>
+    <t>"vip",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_list|按钮组列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_030_cwlb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>102#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#2#8#61#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89#97;100;11;93#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#87#100;11;93#36;89#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;11;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_list|按钮组列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>left</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_030_cwlb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>102#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3#2#8#61#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;89#97;100;11#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>87#100;11#36;89#97#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2310,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2378,7 +2386,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2707,7 +2715,7 @@
         <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2715,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2729,13 +2737,13 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="E94" sqref="A94:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2787,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -4487,7 +4495,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4496,7 +4504,24 @@
         <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>103</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4732,7 +4757,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4864,7 +4889,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -4883,7 +4908,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1359,16 +1359,16 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;89#97;100;11;93#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#87#100;11;93#36;89#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>16;11;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89#97;100;11;93;94#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#87#100;11;93;94#36;89#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2318,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2386,7 +2386,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -4724,7 +4724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4757,7 +4757,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4851,7 +4851,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4908,7 +4908,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -33,8 +33,10 @@
     <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId19"/>
     <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId20"/>
     <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId21"/>
-    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId22"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId23"/>
+    <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId22"/>
+    <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
+    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId24"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="308">
   <si>
     <t>id|行号</t>
   </si>
@@ -882,10 +884,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>top</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1207,10 +1205,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>top_right_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"by3d_act_jc","hallEnter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1232,10 +1226,6 @@
   </si>
   <si>
     <t>3D捕鱼奖池-3D捕鱼场次选择位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>95#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1331,10 +1321,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>left</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>畅玩礼包</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1363,11 +1349,54 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>36;89#97;100;11;93;94#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#87#100;11;93;94#36;89#</t>
+    <t>top_c</t>
+  </si>
+  <si>
+    <t>284#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by_xyxyd",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额福利券（跳转小游戏入口）</t>
+  </si>
+  <si>
+    <t>103#87#100;102;11;93;94#36;89#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_jjsl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼（冲金鸡）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89;105#97;100;102;11;93;94#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>104#95#72#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1375,7 +1404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,8 +1519,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1507,6 +1542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1544,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,6 +1626,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1911,7 +1964,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1919,10 +1972,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,10 +1983,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2134,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2316,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2318,13 +2371,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2350,7 +2403,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2361,7 +2414,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2372,7 +2425,7 @@
         <v>171</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>173</v>
@@ -2383,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2395,10 +2448,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2406,10 +2459,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2473,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2484,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2495,10 +2548,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2506,10 +2559,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,26 +2570,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>270</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2586,7 +2640,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2636,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2647,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2718,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2685,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2756,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2712,21 +2766,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>293</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>297</v>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2737,13 +2791,89 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E94" sqref="A94:E94"/>
+      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2778,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2795,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -2812,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3101,7 +3231,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3271,7 +3401,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3866,7 +3996,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3892,7 +4022,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3909,7 +4039,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3926,7 +4056,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3943,7 +4073,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3960,7 +4090,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3968,7 +4098,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3977,7 +4107,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3985,7 +4115,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4002,7 +4132,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4011,7 +4141,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4019,7 +4149,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4028,7 +4158,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4036,7 +4166,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4045,7 +4175,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4053,7 +4183,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4062,7 +4192,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4070,7 +4200,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4079,7 +4209,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4087,7 +4217,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4096,7 +4226,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4104,7 +4234,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4113,7 +4243,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4121,7 +4251,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4130,7 +4260,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4138,7 +4268,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4147,7 +4277,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4155,7 +4285,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4164,7 +4294,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4172,7 +4302,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4181,7 +4311,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4189,7 +4319,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4198,7 +4328,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4206,7 +4336,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4215,7 +4345,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4223,7 +4353,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4232,7 +4362,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4240,7 +4370,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4249,7 +4379,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4257,7 +4387,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4266,7 +4396,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4274,7 +4404,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4283,7 +4413,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4291,7 +4421,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4300,7 +4430,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4308,7 +4438,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4317,7 +4447,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4325,7 +4455,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4334,7 +4464,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4342,7 +4472,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4351,7 +4481,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4359,7 +4489,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4368,7 +4498,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4376,7 +4506,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4385,7 +4515,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4393,7 +4523,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4402,7 +4532,7 @@
         <v>96</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4410,7 +4540,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4419,7 +4549,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4427,7 +4557,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4436,7 +4566,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4444,7 +4574,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4453,7 +4583,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4461,7 +4591,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4470,7 +4600,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4478,7 +4608,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4487,7 +4617,7 @@
         <v>101</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4495,7 +4625,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4504,7 +4634,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4512,7 +4642,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4521,7 +4651,41 @@
         <v>103</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="15">
+        <v>104</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C105" s="15">
+        <v>1</v>
+      </c>
+      <c r="D105" s="15">
+        <v>104</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>105</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4572,7 +4736,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4647,7 +4811,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4666,7 +4830,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -4708,10 +4872,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4725,7 +4889,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4757,7 +4921,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4768,7 +4932,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D3"/>
     </row>
@@ -4781,10 +4945,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4833,10 +4997,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>183</v>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4850,7 +5025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4858,7 +5033,7 @@
   <cols>
     <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -4889,7 +5064,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -4908,7 +5083,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -4931,7 +5106,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -5000,7 +5175,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!D8</f>
         <v>7</v>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="312">
   <si>
     <t>id|行号</t>
   </si>
@@ -167,10 +167,6 @@
   <si>
     <t>月卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>parm|按钮参数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>is_on_off|按钮开关</t>
@@ -1376,10 +1372,6 @@
     <t>大额福利券（跳转小游戏入口）</t>
   </si>
   <si>
-    <t>103#87#100;102;11;93;94#36;89#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>left_top</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1392,11 +1384,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;89;105#97;100;102;11;93;94#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>104#95#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>parm|按钮参数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>万圣幸运礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#87#100;102;106;11;93;94#36;89#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_025_jrth","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_033_xrzxlb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89;105#97;100;102;106;11;93;94#58;107#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1404,7 +1420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,6 +1540,12 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1950,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1961,10 +1983,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1972,10 +1994,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1983,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2022,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2068,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2115,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2126,10 +2148,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2168,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2209,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2220,10 +2242,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2266,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2313,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2355,10 +2377,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2389,10 +2411,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2400,10 +2422,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2411,10 +2433,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2422,13 +2444,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2436,10 +2458,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2448,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2459,10 +2481,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2494,10 +2516,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,10 +2527,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2516,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2526,10 +2548,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2537,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2548,10 +2570,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,10 +2581,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2570,10 +2592,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2628,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -2637,10 +2659,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,10 +2670,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2659,7 +2681,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -2690,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2701,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2739,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +2778,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2777,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2815,14 +2837,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2842,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2853,10 +2875,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2867,13 +2889,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomRight" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2891,13 +2913,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -2908,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2925,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -2942,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3044,7 +3066,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -3078,7 +3100,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3087,7 +3109,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3095,7 +3117,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -3104,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3112,7 +3134,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -3121,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3129,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -3138,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3146,7 +3168,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -3155,7 +3177,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3163,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -3172,7 +3194,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3180,7 +3202,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -3189,7 +3211,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3197,7 +3219,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -3206,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3214,7 +3236,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -3223,7 +3245,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3231,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3240,7 +3262,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3248,7 +3270,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -3257,7 +3279,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3265,7 +3287,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -3274,7 +3296,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3282,7 +3304,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -3291,7 +3313,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3299,7 +3321,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -3308,7 +3330,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3316,7 +3338,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -3325,7 +3347,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3333,7 +3355,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -3342,7 +3364,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3350,7 +3372,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -3359,7 +3381,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3367,7 +3389,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -3376,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3384,7 +3406,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -3393,7 +3415,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3401,7 +3423,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3410,7 +3432,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3418,7 +3440,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -3427,7 +3449,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3435,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -3444,7 +3466,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3452,7 +3474,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -3461,7 +3483,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3469,7 +3491,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -3478,7 +3500,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3486,7 +3508,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -3495,7 +3517,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3503,7 +3525,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -3512,7 +3534,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3520,7 +3542,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3529,7 +3551,7 @@
         <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3537,7 +3559,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -3546,7 +3568,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3554,7 +3576,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -3563,7 +3585,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3571,7 +3593,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -3580,7 +3602,7 @@
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3588,7 +3610,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3597,7 +3619,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3605,7 +3627,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3614,7 +3636,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3622,7 +3644,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3631,7 +3653,7 @@
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3639,7 +3661,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3648,7 +3670,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3656,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3665,7 +3687,7 @@
         <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3673,7 +3695,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3682,7 +3704,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3690,7 +3712,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3699,7 +3721,7 @@
         <v>47</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3707,7 +3729,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3716,7 +3738,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3724,7 +3746,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3733,7 +3755,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3741,7 +3763,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3750,7 +3772,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3758,7 +3780,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3767,7 +3789,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3775,7 +3797,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3784,7 +3806,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3792,7 +3814,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -3801,7 +3823,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3809,7 +3831,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3818,7 +3840,7 @@
         <v>54</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,7 +3848,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3835,7 +3857,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3843,7 +3865,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3852,7 +3874,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,7 +3882,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3869,7 +3891,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3877,7 +3899,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3886,7 +3908,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3894,7 +3916,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3903,7 +3925,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3911,7 +3933,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3920,7 +3942,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3928,7 +3950,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3937,7 +3959,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3945,7 +3967,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3954,7 +3976,7 @@
         <v>62</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3962,7 +3984,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3971,7 +3993,7 @@
         <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3979,7 +4001,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3988,7 +4010,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3996,7 +4018,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4005,7 +4027,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -4013,7 +4035,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4022,7 +4044,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -4030,7 +4052,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4039,7 +4061,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -4047,7 +4069,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4056,7 +4078,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4064,7 +4086,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4073,7 +4095,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4081,7 +4103,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4090,7 +4112,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -4098,7 +4120,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4107,7 +4129,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -4115,7 +4137,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4124,7 +4146,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -4132,7 +4154,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4141,7 +4163,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4149,7 +4171,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4158,7 +4180,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4166,7 +4188,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4175,7 +4197,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4183,7 +4205,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4192,7 +4214,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4200,7 +4222,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4209,7 +4231,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4217,7 +4239,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4226,7 +4248,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4234,7 +4256,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4243,7 +4265,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4251,7 +4273,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4260,7 +4282,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4268,7 +4290,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4277,7 +4299,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4285,7 +4307,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4294,7 +4316,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4302,7 +4324,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4311,7 +4333,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4319,7 +4341,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4328,7 +4350,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4336,7 +4358,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4345,7 +4367,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4353,7 +4375,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4362,7 +4384,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4370,7 +4392,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4379,7 +4401,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4387,7 +4409,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4396,7 +4418,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4404,7 +4426,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4413,7 +4435,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4421,7 +4443,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4430,7 +4452,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4438,7 +4460,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4447,7 +4469,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4455,7 +4477,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4464,7 +4486,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4472,7 +4494,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4481,7 +4503,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4489,7 +4511,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4498,7 +4520,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4506,7 +4528,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4515,7 +4537,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4523,7 +4545,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4532,7 +4554,7 @@
         <v>96</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4540,7 +4562,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4549,7 +4571,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4557,7 +4579,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4566,7 +4588,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4574,7 +4596,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4583,7 +4605,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4591,7 +4613,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4600,7 +4622,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4608,7 +4630,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4617,7 +4639,7 @@
         <v>101</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4625,7 +4647,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4634,7 +4656,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4642,7 +4664,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4651,7 +4673,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4659,7 +4681,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4668,7 +4690,7 @@
         <v>104</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4676,7 +4698,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4685,8 +4707,45 @@
         <v>105</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>305</v>
-      </c>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>106</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>107</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4724,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -4733,10 +4792,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4744,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -4753,7 +4812,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -4797,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4808,10 +4867,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4819,10 +4878,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4830,7 +4889,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -4872,10 +4931,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4918,10 +4977,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4929,10 +4988,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3"/>
     </row>
@@ -4980,7 +5039,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4988,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -4997,10 +5056,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5008,10 +5067,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5023,9 +5082,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5033,7 +5092,7 @@
   <cols>
     <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -5050,10 +5109,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5064,7 +5123,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -5080,10 +5139,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5103,10 +5162,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -5122,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -5140,10 +5199,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="D6" s="6">
         <f>'all_enter|所有按钮入口'!D6</f>
@@ -5159,10 +5218,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!D7</f>
@@ -6119,6 +6178,79 @@
         <f>'all_enter|所有按钮入口'!E101</f>
         <v>欢乐敲金蛋</v>
       </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="6">
+        <f>'all_enter|所有按钮入口'!D102</f>
+        <v>101</v>
+      </c>
+      <c r="E102" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E102</f>
+        <v>小游戏累计赢金抽福卡</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D103" s="6">
+        <f>'all_enter|所有按钮入口'!D103</f>
+        <v>102</v>
+      </c>
+      <c r="E103" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E103</f>
+        <v>畅玩礼包</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D104" s="6">
+        <f>'all_enter|所有按钮入口'!D104</f>
+        <v>103</v>
+      </c>
+      <c r="E104" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E104</f>
+        <v>核弹</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D105" s="6">
+        <f>'all_enter|所有按钮入口'!D105</f>
+        <v>104</v>
+      </c>
+      <c r="E105" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E105</f>
+        <v>大额福利券（跳转小游戏入口）</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="6">
+        <f>'all_enter|所有按钮入口'!D106</f>
+        <v>105</v>
+      </c>
+      <c r="E106" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E106</f>
+        <v>金鸡送礼（冲金鸡）</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="6">
+        <f>'all_enter|所有按钮入口'!D107</f>
+        <v>106</v>
+      </c>
+      <c r="E107" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E107</f>
+        <v>万圣幸运礼包</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D108" s="6">
+        <f>'all_enter|所有按钮入口'!D108</f>
+        <v>107</v>
+      </c>
+      <c r="E108" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E108</f>
+        <v>新人专享</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D109" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6158,10 +6290,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="fishing_game|捕鱼游戏按钮配置" sheetId="12" r:id="rId6"/>
     <sheet name="fishing_hall|捕鱼大厅按钮配置" sheetId="11" r:id="rId7"/>
     <sheet name="hall_config|大厅按钮配置" sheetId="5" r:id="rId8"/>
-    <sheet name="freehall_config|匹配场大厅按钮配置" sheetId="9" r:id="rId9"/>
-    <sheet name="match_hall|比赛场大厅按钮配置" sheetId="21" r:id="rId10"/>
-    <sheet name="ddz_free_game|斗地主游戏" sheetId="16" r:id="rId11"/>
+    <sheet name="ddz_free_game|斗地主游戏" sheetId="16" r:id="rId9"/>
+    <sheet name="freehall_config|匹配场大厅按钮配置" sheetId="9" r:id="rId10"/>
+    <sheet name="match_hall|比赛场大厅按钮配置" sheetId="21" r:id="rId11"/>
     <sheet name="ddz_free_js|斗地主游戏结算" sheetId="17" r:id="rId12"/>
     <sheet name="mj_free_js|麻将游戏结算" sheetId="23" r:id="rId13"/>
     <sheet name="pdk_free_js|跑得快游戏结算" sheetId="22" r:id="rId14"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="315">
   <si>
     <t>id|行号</t>
   </si>
@@ -989,10 +989,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼游戏上方区域</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1339,10 +1335,6 @@
   <si>
     <t>"by3d_hd",</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;11;31;93#26#</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>top_c</t>
@@ -1384,10 +1376,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>104#95#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>parm|按钮参数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1396,10 +1384,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>103#87#100;102;106;11;93;94#36;89#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_025_jrth","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1412,7 +1396,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;89;105#97;100;102;106;11;93;94#58;107#30#</t>
+    <t>立冬福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89;105#97;100;102;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#87#100;102;11;93;94#36;89#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;93#26#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_phb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#104#95#72#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1544,11 +1556,12 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1569,6 +1582,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,7 +1626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,6 +1679,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1943,7 +1965,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1986,7 +2008,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1997,7 +2019,7 @@
         <v>205</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2019,6 +2041,58 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2053,53 +2127,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2338,7 +2365,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2452,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2436,7 +2463,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2461,7 +2488,7 @@
         <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2470,10 +2497,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2481,10 +2508,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2548,10 +2575,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,7 +2689,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2712,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2723,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2761,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2799,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +2842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2840,7 +2867,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2894,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2878,7 +2905,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2892,10 +2919,10 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2913,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -2930,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2947,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3253,7 +3280,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3423,7 +3450,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4018,7 +4045,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4044,7 +4071,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -4078,7 +4105,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4095,7 +4122,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4112,7 +4139,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -4120,7 +4147,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4129,7 +4156,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -4137,7 +4164,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4154,7 +4181,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4163,7 +4190,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4180,7 +4207,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4256,7 +4283,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4265,7 +4292,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4273,7 +4300,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4299,7 +4326,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4307,7 +4334,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4316,7 +4343,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4324,7 +4351,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4333,7 +4360,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4341,7 +4368,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4350,7 +4377,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4358,7 +4385,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4367,7 +4394,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4375,7 +4402,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4384,7 +4411,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4392,7 +4419,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4401,7 +4428,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4409,7 +4436,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4418,7 +4445,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4426,7 +4453,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4435,7 +4462,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4443,7 +4470,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4452,7 +4479,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4460,7 +4487,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4469,7 +4496,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4477,7 +4504,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4486,7 +4513,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4494,7 +4521,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4503,7 +4530,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4511,7 +4538,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4520,7 +4547,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4528,7 +4555,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4537,7 +4564,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4545,7 +4572,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4554,7 +4581,7 @@
         <v>96</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4562,7 +4589,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4571,7 +4598,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4579,7 +4606,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4588,7 +4615,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4596,7 +4623,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4605,7 +4632,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4613,7 +4640,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4622,7 +4649,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4630,7 +4657,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4639,7 +4666,7 @@
         <v>101</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4647,7 +4674,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4656,7 +4683,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4664,7 +4691,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4673,7 +4700,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4681,7 +4708,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4690,7 +4717,7 @@
         <v>104</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4698,7 +4725,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4707,7 +4734,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4715,7 +4742,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4724,7 +4751,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4732,7 +4759,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4741,7 +4768,24 @@
         <v>107</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>108</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4795,7 +4839,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4870,7 +4914,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4889,7 +4933,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -4931,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4948,7 +4992,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4980,7 +5024,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4991,7 +5035,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5067,10 +5111,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5084,8 +5128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5123,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -5142,7 +5186,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5165,7 +5209,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -6240,17 +6284,22 @@
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="6">
+      <c r="D108" s="18">
         <f>'all_enter|所有按钮入口'!D108</f>
         <v>107</v>
       </c>
-      <c r="E108" s="6" t="str">
+      <c r="E108" s="18" t="str">
         <f>'all_enter|所有按钮入口'!E108</f>
         <v>新人专享</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D109" s="6"/>
+      <c r="D109" s="6">
+        <v>108</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6262,19 +6311,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6290,24 +6343,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="317">
   <si>
     <t>id|行号</t>
   </si>
@@ -1225,10 +1225,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40#43#79#88#8#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>92#84#42#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1344,23 +1340,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by_xyxyd",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>大额福利券（跳转小游戏入口）</t>
   </si>
   <si>
@@ -1388,23 +1367,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"act_033_xrzxlb","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>新人专享</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>立冬福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;89;105#97;100;102;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#87#100;102;11;93;94#36;89#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1412,19 +1379,47 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#104#95#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（旧）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrqtl_old","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;109;89;105#97;100;102;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by_xyxyd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_033_xrzxlb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"by3d_phb","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>排行榜总入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>108#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>108#104#95#72#</t>
+    <t>103#87#100;102;11;93;94#36;109;89#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#43#79#88#8#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1432,7 +1427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1560,6 +1555,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1626,7 +1629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,6 +1685,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2019,7 +2025,7 @@
         <v>205</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2365,7 +2371,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2420,12 +2426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2452,7 +2459,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2488,7 +2495,7 @@
         <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2525,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2578,7 +2585,7 @@
         <v>213</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2689,7 +2696,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2753,7 +2760,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +2798,7 @@
         <v>240</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2826,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2874,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2901,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2905,7 +2912,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2918,11 +2925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2940,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -2974,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -4334,7 +4341,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4589,7 +4596,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4598,7 +4605,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4606,7 +4613,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4615,7 +4622,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4623,7 +4630,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4632,7 +4639,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4640,7 +4647,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4649,7 +4656,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4657,7 +4664,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4666,7 +4673,7 @@
         <v>101</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4674,7 +4681,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4683,7 +4690,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4691,7 +4698,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4700,7 +4707,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4708,7 +4715,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4717,7 +4724,7 @@
         <v>104</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4725,7 +4732,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4734,7 +4741,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4742,7 +4749,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4751,7 +4758,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4759,7 +4766,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4768,15 +4775,15 @@
         <v>107</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="14" t="s">
-        <v>311</v>
+      <c r="B109" s="19" t="s">
+        <v>314</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4785,11 +4792,25 @@
         <v>108</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="6"/>
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4839,7 +4860,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4914,7 +4935,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4978,7 +4999,7 @@
         <v>244</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5024,7 +5045,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5035,7 +5056,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5111,10 +5132,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5128,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5167,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -5186,7 +5207,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5209,7 +5230,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -6298,7 +6319,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="331">
   <si>
     <t>id|行号</t>
   </si>
@@ -827,8 +827,492 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>|说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","enter_fish"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","enter4"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","enter5"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","game_hall_enter4"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","explain"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-大厅显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>72#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>down2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_active_daily_task",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-4号游戏场显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次4大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次3大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center3</t>
+  </si>
+  <si>
+    <t>center4</t>
+  </si>
+  <si>
+    <t>center5</t>
+  </si>
+  <si>
+    <t>71#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>76#67</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>77#68</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","game"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次5大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-游戏内</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","3"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","4"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","5"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_task",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center_top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼游戏上方区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>82#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_kllb"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_bybs"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","enter_gift_cglb"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>师徒系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_stxt",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_022_qflb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全返礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","enter_hall"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-5号游戏场显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-显示说明界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_kpshb","2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包-场次2大厅显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_dui_huan",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by_bossts",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss来袭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台升级按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_016_xyxcwk",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼挑战任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_qd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼自动开炮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_zdkp",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_ad_mfcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖-广告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>area|按钮所在区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_down2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gift_czlb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_top</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_xrcdj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_sgxxlyd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐大引导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by_level","enter2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_sgxxlyd","enter2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>91#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_tgxt",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_mfflq",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","hallEnter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池按钮图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_act_jc","gameshow"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池游戏内显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池-3D捕鱼场次选择位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_028_mfhf",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_028_xycd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_top_qh",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_top_qh","jj_enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼游戏上方区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>99#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_029_hlqjd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cpl_ljyjcfk",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金抽福卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;101;31;#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vip",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_list|按钮组列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_030_cwlb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>102#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#2#8#61#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_c</t>
+  </si>
+  <si>
+    <t>284#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>Right</t>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -839,505 +1323,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_top</t>
+      <t>by_xyxyd",</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>|说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏内右侧奖池图标，两个场次一样</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","enter_fish"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","enter4"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","enter5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","game_hall_enter4"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","explain"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-大厅显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>72#</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>down2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>69#73#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_active_daily_task",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-4号游戏场显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-场次4大厅显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-场次3大厅显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center3</t>
-  </si>
-  <si>
-    <t>center4</t>
-  </si>
-  <si>
-    <t>center5</t>
-  </si>
-  <si>
-    <t>71#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>75#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>76#67</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>77#68</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","game"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-场次5大厅显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-游戏内</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","3"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","4"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_flqcj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_task",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center_top</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼游戏上方区域</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>82#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_kllb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_bybs"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_cglb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>师徒系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_stxt",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_022_qflb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全返礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","enter_hall"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-5号游戏场显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-显示说明界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_kpshb","2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包-场次2大厅显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_dui_huan",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by_bossts",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss来袭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活跃任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮台升级按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_016_xyxcwk",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼挑战任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_qd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right_down</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼自动开炮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_zdkp",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>86#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_ad_mfcj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖-广告</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>area|按钮所在区域</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right_down2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gift_czlb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_top</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人抽大奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_xrcdj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_sgxxlyd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐引导</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐大引导</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_by_level","enter2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_sgxxlyd","enter2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>91#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_tgxt",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_027_mfflq",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","hallEnter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖池按钮图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_act_jc","gameshow"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖池游戏内显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-游戏内显示奖池图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池-3D捕鱼场次选择位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>超值礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>92#84#42#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_028_mfhf",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_028_xycd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_top_qh",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_top_qh","jj_enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>街机捕鱼游戏上方区域</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>99#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_029_hlqjd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cpl_ljyjcfk",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金抽福卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;90;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;101;31;#</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_list|按钮组列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_030_cwlb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>102#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3#2#8#61#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>核弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_c</t>
-  </si>
-  <si>
-    <t>284#</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大额福利券（跳转小游戏入口）</t>
@@ -1367,6 +1355,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"act_033_xrzxlb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>新人专享</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1379,6 +1371,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>"by3d_phb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>排行榜总入口</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1391,35 +1387,94 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Right_shtx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_hd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_shtx",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>109#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>69#73#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_035_ybwl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-精彩活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-获取金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_jchd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_hqjb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>92#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>新人七天乐（旧）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrqtl_old","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;109;89;105#97;100;102;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by_xyxyd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_033_xrzxlb","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_phb","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#87#100;102;11;93;94#36;109;89#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40#43#79#88#8#</t>
+  </si>
+  <si>
+    <t>36;113;89;105#97;100;102;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_035_jhs",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110#84#114#42#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrqtl_old",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#100;36;113;89;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1427,7 +1482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1550,14 +1605,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1687,7 +1734,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2014,7 +2061,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2022,10 +2069,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2033,10 +2080,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2418,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2424,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2437,7 +2484,7 @@
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2495,7 @@
         <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2459,66 +2506,83 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>172</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" t="s">
         <v>315</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +2597,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2582,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2593,10 +2657,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2604,10 +2668,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2615,10 +2679,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,10 +2690,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2696,7 +2760,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2746,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2757,10 +2821,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2795,10 +2859,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2833,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +2938,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2901,7 +2965,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2912,7 +2976,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2923,13 +2987,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37:E37"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2947,7 +3011,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -2964,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2981,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -2998,7 +3062,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3287,7 +3351,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3457,7 +3521,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4052,7 +4116,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4061,7 +4125,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -4069,7 +4133,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4078,7 +4142,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -4086,7 +4150,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4095,7 +4159,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -4103,7 +4167,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4112,7 +4176,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4120,7 +4184,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4129,7 +4193,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4137,7 +4201,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4146,7 +4210,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -4154,7 +4218,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4163,7 +4227,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -4171,7 +4235,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4180,7 +4244,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -4188,7 +4252,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4197,7 +4261,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4205,7 +4269,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4214,7 +4278,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4222,7 +4286,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4231,7 +4295,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4239,7 +4303,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4248,7 +4312,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4256,7 +4320,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4265,7 +4329,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4273,7 +4337,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4282,7 +4346,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4290,7 +4354,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4299,7 +4363,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4307,7 +4371,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4316,7 +4380,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4324,7 +4388,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4333,7 +4397,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4341,7 +4405,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4350,7 +4414,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4358,7 +4422,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4367,7 +4431,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4375,7 +4439,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4384,7 +4448,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4392,7 +4456,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4401,7 +4465,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4409,7 +4473,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4418,7 +4482,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4426,7 +4490,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4435,7 +4499,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4443,7 +4507,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4452,7 +4516,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4460,7 +4524,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4469,7 +4533,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4477,7 +4541,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4486,7 +4550,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4494,7 +4558,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4503,7 +4567,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4511,7 +4575,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4520,7 +4584,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4528,7 +4592,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4537,7 +4601,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4545,7 +4609,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4554,7 +4618,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4562,7 +4626,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4571,7 +4635,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4579,7 +4643,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4588,7 +4652,7 @@
         <v>96</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4596,7 +4660,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4605,7 +4669,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4613,7 +4677,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4622,7 +4686,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4630,7 +4694,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4639,7 +4703,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4647,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4656,7 +4720,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4664,7 +4728,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4673,7 +4737,7 @@
         <v>101</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4681,7 +4745,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4690,7 +4754,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4698,7 +4762,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4707,7 +4771,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4715,7 +4779,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4724,7 +4788,7 @@
         <v>104</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4732,7 +4796,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4741,7 +4805,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4749,7 +4813,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4758,7 +4822,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4766,7 +4830,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4775,15 +4839,15 @@
         <v>107</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>314</v>
+      <c r="B109" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4792,15 +4856,15 @@
         <v>108</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>310</v>
+      <c r="B110" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4809,7 +4873,92 @@
         <v>109</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>110</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>111</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>112</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4860,7 +5009,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4935,7 +5084,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -4996,10 +5145,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5045,7 +5194,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5056,7 +5205,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5121,10 +5270,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5132,10 +5281,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +5298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5188,7 +5337,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -5207,7 +5356,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5230,7 +5379,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -5298,8 +5447,15 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!D8</f>
         <v>7</v>
@@ -6319,7 +6475,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -35,8 +35,9 @@
     <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId21"/>
     <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId22"/>
     <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
-    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId24"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId25"/>
+    <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId24"/>
+    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId25"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="335">
   <si>
     <t>id|行号</t>
   </si>
@@ -1466,10 +1467,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#100;36;113;89;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cps_ggxt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1491,6 +1488,10 @@
   </si>
   <si>
     <t>"by3d_ad_mfcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#100;36;113;89;93;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1498,7 +1499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +1624,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2498,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2531,7 +2538,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2863,7 +2870,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2977,6 +2984,44 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3010,15 +3055,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3043,7 +3088,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -4566,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5040,19 +5085,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5431,7 +5476,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="335">
   <si>
     <t>id|行号</t>
   </si>
@@ -1292,10 +1292,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3#2#8#61#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>核弹</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1363,10 +1359,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>立冬福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1475,6 +1467,30 @@
   </si>
   <si>
     <t>111#112#53#79#100;36;113;89;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_ggxt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费(冲金鸡)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#2#8#61#115</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key|推荐的条件key可以为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_ad_mfcj",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1635,14 +1651,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1662,6 +1672,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1731,11 +1756,11 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2072,7 +2097,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2473,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2531,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2557,10 +2582,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2568,10 +2593,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2579,10 +2604,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2674,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>276</v>
@@ -2987,13 +3012,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3001,29 +3026,33 @@
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3033,14 +3062,15 @@
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3050,14 +3080,15 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3067,14 +3098,15 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3084,14 +3116,15 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3101,14 +3134,15 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3118,14 +3152,15 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3135,14 +3170,15 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3152,14 +3188,15 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3169,14 +3206,15 @@
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3186,14 +3224,15 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3203,14 +3242,15 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3220,14 +3260,15 @@
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3237,14 +3278,15 @@
       <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3254,14 +3296,15 @@
       <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3271,14 +3314,15 @@
       <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3288,14 +3332,15 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3305,14 +3350,15 @@
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3322,14 +3368,15 @@
       <c r="C19" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
         <v>18</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3339,14 +3386,15 @@
       <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
         <v>19</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3356,14 +3404,15 @@
       <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
         <v>20</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3373,14 +3422,15 @@
       <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
         <v>21</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3390,14 +3440,15 @@
       <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
         <v>22</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3407,14 +3458,15 @@
       <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
         <v>23</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3424,14 +3476,15 @@
       <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>24</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3441,14 +3494,15 @@
       <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
         <v>25</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3458,14 +3512,15 @@
       <c r="C27" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
         <v>26</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3475,14 +3530,15 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <v>27</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3492,14 +3548,15 @@
       <c r="C29" s="6">
         <v>0</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
         <v>28</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3509,14 +3566,15 @@
       <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
         <v>29</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3526,14 +3584,15 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
         <v>30</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3543,14 +3602,15 @@
       <c r="C32" s="6">
         <v>0</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
         <v>31</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3560,14 +3620,15 @@
       <c r="C33" s="6">
         <v>0</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
         <v>32</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3577,14 +3638,15 @@
       <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
         <v>33</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3594,14 +3656,15 @@
       <c r="C35" s="6">
         <v>1</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
         <v>34</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3611,14 +3674,15 @@
       <c r="C36" s="6">
         <v>1</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
         <v>35</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3628,14 +3692,15 @@
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
         <v>36</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3645,14 +3710,15 @@
       <c r="C38" s="6">
         <v>1</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
         <v>37</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3662,14 +3728,15 @@
       <c r="C39" s="6">
         <v>1</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
         <v>38</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3679,14 +3746,15 @@
       <c r="C40" s="6">
         <v>1</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
         <v>39</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3696,14 +3764,15 @@
       <c r="C41" s="6">
         <v>1</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
         <v>40</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3713,14 +3782,14 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>41</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3730,14 +3799,14 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>42</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3747,14 +3816,14 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>43</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3764,14 +3833,14 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>44</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3781,14 +3850,14 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>45</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3798,14 +3867,14 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>46</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3815,14 +3884,14 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>47</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3832,14 +3901,14 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>48</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3849,14 +3918,14 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>49</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3866,14 +3935,14 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>50</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3883,14 +3952,14 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>51</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3900,14 +3969,14 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>52</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3917,14 +3986,15 @@
       <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
         <v>53</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3934,14 +4004,14 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>54</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3951,14 +4021,14 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>55</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3968,14 +4038,14 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>56</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3985,14 +4055,14 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>57</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4002,14 +4072,14 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>58</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4019,14 +4089,14 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>59</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4036,14 +4106,14 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>60</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4053,14 +4123,14 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>61</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4070,14 +4140,14 @@
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>62</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4087,14 +4157,14 @@
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>63</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4104,14 +4174,14 @@
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>64</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4121,14 +4191,14 @@
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>65</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4138,14 +4208,14 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>66</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4155,14 +4225,14 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>67</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4172,14 +4242,14 @@
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>68</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4189,14 +4259,14 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>69</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4206,14 +4276,14 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>70</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4223,14 +4293,14 @@
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>71</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4240,14 +4310,14 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>72</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4257,14 +4327,14 @@
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>73</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4274,14 +4344,14 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>74</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4291,14 +4361,14 @@
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>75</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4308,14 +4378,14 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>76</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4325,14 +4395,14 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>77</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4342,14 +4412,14 @@
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>78</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4359,14 +4429,14 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>79</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="F80" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4376,14 +4446,14 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>80</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4393,14 +4463,14 @@
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>81</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="F82" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4410,14 +4480,14 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>82</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4427,14 +4497,14 @@
       <c r="C84">
         <v>0</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>83</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="F84" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4444,14 +4514,14 @@
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>84</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4461,14 +4531,14 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>85</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4478,14 +4548,14 @@
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>86</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4495,14 +4565,17 @@
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E88">
         <v>87</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4512,14 +4585,14 @@
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>88</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4529,14 +4602,14 @@
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>89</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="F90" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4546,14 +4619,14 @@
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>90</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4563,14 +4636,14 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>91</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4580,14 +4653,14 @@
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>92</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4597,14 +4670,14 @@
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>93</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4614,14 +4687,14 @@
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>94</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4631,14 +4704,14 @@
       <c r="C96">
         <v>1</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>95</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4648,14 +4721,14 @@
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>96</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4665,14 +4738,15 @@
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="6"/>
+      <c r="E98">
         <v>97</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4682,14 +4756,14 @@
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>98</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="F99" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4699,14 +4773,14 @@
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>99</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4716,14 +4790,14 @@
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>100</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4733,14 +4807,14 @@
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>101</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4750,215 +4824,235 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>102</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>103</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F104" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15">
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C105" s="15">
+        <v>1</v>
+      </c>
+      <c r="E105" s="15">
+        <v>104</v>
+      </c>
+      <c r="F105" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C105" s="15">
-        <v>1</v>
-      </c>
-      <c r="D105" s="15">
-        <v>104</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>105</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>106</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>107</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>107</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>108</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>109</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>110</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>111</v>
       </c>
-      <c r="E112" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>112</v>
       </c>
-      <c r="E113" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>113</v>
       </c>
-      <c r="E114" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>114</v>
       </c>
-      <c r="E115" t="s">
-        <v>327</v>
+      <c r="F115" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5194,7 +5288,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5281,10 +5375,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5296,10 +5390,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5337,14 +5431,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="D2" s="6">
-        <f>'all_enter|所有按钮入口'!D2</f>
+        <f>'all_enter|所有按钮入口'!E2</f>
         <v>1</v>
       </c>
       <c r="E2" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E2</f>
+        <f>'all_enter|所有按钮入口'!F2</f>
         <v>快乐礼包</v>
       </c>
     </row>
@@ -5356,14 +5450,14 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3" s="6">
-        <f>'all_enter|所有按钮入口'!D3</f>
+        <f>'all_enter|所有按钮入口'!E3</f>
         <v>2</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E3</f>
+        <f>'all_enter|所有按钮入口'!F3</f>
         <v>大厅vip专享</v>
       </c>
       <c r="G3" s="6"/>
@@ -5379,14 +5473,14 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D4" s="6">
-        <f>'all_enter|所有按钮入口'!D4</f>
+        <f>'all_enter|所有按钮入口'!E4</f>
         <v>3</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E4</f>
+        <f>'all_enter|所有按钮入口'!F4</f>
         <v>幸运抽奖</v>
       </c>
     </row>
@@ -5399,11 +5493,11 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
-        <f>'all_enter|所有按钮入口'!D5</f>
+        <f>'all_enter|所有按钮入口'!E5</f>
         <v>4</v>
       </c>
       <c r="E5" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E5</f>
+        <f>'all_enter|所有按钮入口'!F5</f>
         <v>分享</v>
       </c>
       <c r="G5" s="6"/>
@@ -5419,11 +5513,11 @@
         <v>93</v>
       </c>
       <c r="D6" s="6">
-        <f>'all_enter|所有按钮入口'!D6</f>
+        <f>'all_enter|所有按钮入口'!E6</f>
         <v>5</v>
       </c>
       <c r="E6" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E6</f>
+        <f>'all_enter|所有按钮入口'!F6</f>
         <v>新人红包</v>
       </c>
     </row>
@@ -5438,11 +5532,11 @@
         <v>164</v>
       </c>
       <c r="D7" s="6">
-        <f>'all_enter|所有按钮入口'!D7</f>
+        <f>'all_enter|所有按钮入口'!E7</f>
         <v>6</v>
       </c>
       <c r="E7" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E7</f>
+        <f>'all_enter|所有按钮入口'!F7</f>
         <v>大厅千元赛</v>
       </c>
     </row>
@@ -5451,17 +5545,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D8" s="6">
-        <f>'all_enter|所有按钮入口'!D8</f>
+        <f>'all_enter|所有按钮入口'!E8</f>
         <v>7</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E8</f>
+        <f>'all_enter|所有按钮入口'!F8</f>
         <v>首充礼包</v>
       </c>
     </row>
@@ -5469,22 +5563,22 @@
       <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
-        <f>'all_enter|所有按钮入口'!D9</f>
+        <f>'all_enter|所有按钮入口'!E9</f>
         <v>8</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E9</f>
+        <f>'all_enter|所有按钮入口'!F9</f>
         <v>鲸鱼福利</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="D10" s="6">
-        <f>'all_enter|所有按钮入口'!D10</f>
+        <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E10</f>
+        <f>'all_enter|所有按钮入口'!F10</f>
         <v>限时福利</v>
       </c>
     </row>
@@ -5492,990 +5586,1022 @@
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
-        <f>'all_enter|所有按钮入口'!D11</f>
+        <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E11</f>
+        <f>'all_enter|所有按钮入口'!F11</f>
         <v>月卡</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="6">
-        <f>'all_enter|所有按钮入口'!D12</f>
+        <f>'all_enter|所有按钮入口'!E12</f>
         <v>11</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E12</f>
+        <f>'all_enter|所有按钮入口'!F12</f>
         <v>节日扩展活动</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="6">
-        <f>'all_enter|所有按钮入口'!D13</f>
+        <f>'all_enter|所有按钮入口'!E13</f>
         <v>12</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E13</f>
+        <f>'all_enter|所有按钮入口'!F13</f>
         <v>幸运降临</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="6">
-        <f>'all_enter|所有按钮入口'!D14</f>
+        <f>'all_enter|所有按钮入口'!E14</f>
         <v>13</v>
       </c>
       <c r="E14" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E14</f>
+        <f>'all_enter|所有按钮入口'!F14</f>
         <v>消消乐水果排行榜</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="6">
-        <f>'all_enter|所有按钮入口'!D15</f>
+        <f>'all_enter|所有按钮入口'!E15</f>
         <v>14</v>
       </c>
       <c r="E15" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E15</f>
+        <f>'all_enter|所有按钮入口'!F15</f>
         <v>水浒消消乐每日任务</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="6">
-        <f>'all_enter|所有按钮入口'!D16</f>
+        <f>'all_enter|所有按钮入口'!E16</f>
         <v>15</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E16</f>
+        <f>'all_enter|所有按钮入口'!F16</f>
         <v>水果消消乐每日任务</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="6">
-        <f>'all_enter|所有按钮入口'!D17</f>
+        <f>'all_enter|所有按钮入口'!E17</f>
         <v>16</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E17</f>
+        <f>'all_enter|所有按钮入口'!F17</f>
         <v>新人专属</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="6">
-        <f>'all_enter|所有按钮入口'!D18</f>
+        <f>'all_enter|所有按钮入口'!E18</f>
         <v>17</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E18</f>
+        <f>'all_enter|所有按钮入口'!F18</f>
         <v>捕鱼达人榜</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="6">
-        <f>'all_enter|所有按钮入口'!D19</f>
+        <f>'all_enter|所有按钮入口'!E19</f>
         <v>18</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E19</f>
+        <f>'all_enter|所有按钮入口'!F19</f>
         <v>千元赛提示</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="6">
-        <f>'all_enter|所有按钮入口'!D20</f>
+        <f>'all_enter|所有按钮入口'!E20</f>
         <v>19</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E20</f>
+        <f>'all_enter|所有按钮入口'!F20</f>
         <v>捕鱼比赛提示</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="6">
-        <f>'all_enter|所有按钮入口'!D21</f>
+        <f>'all_enter|所有按钮入口'!E21</f>
         <v>20</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E21</f>
+        <f>'all_enter|所有按钮入口'!F21</f>
         <v>捕鱼门票</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="6">
-        <f>'all_enter|所有按钮入口'!D22</f>
+        <f>'all_enter|所有按钮入口'!E22</f>
         <v>21</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E22</f>
+        <f>'all_enter|所有按钮入口'!F22</f>
         <v>感恩有礼</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="6">
-        <f>'all_enter|所有按钮入口'!D23</f>
+        <f>'all_enter|所有按钮入口'!E23</f>
         <v>22</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E23</f>
+        <f>'all_enter|所有按钮入口'!F23</f>
         <v>雪球大作战</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="6">
-        <f>'all_enter|所有按钮入口'!D24</f>
+        <f>'all_enter|所有按钮入口'!E24</f>
         <v>23</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E24</f>
+        <f>'all_enter|所有按钮入口'!F24</f>
         <v>推广礼包</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="6">
-        <f>'all_enter|所有按钮入口'!D25</f>
+        <f>'all_enter|所有按钮入口'!E25</f>
         <v>24</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E25</f>
+        <f>'all_enter|所有按钮入口'!F25</f>
         <v>疯狂双12</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="6">
-        <f>'all_enter|所有按钮入口'!D26</f>
+        <f>'all_enter|所有按钮入口'!E26</f>
         <v>25</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E26</f>
+        <f>'all_enter|所有按钮入口'!F26</f>
         <v>财神模式</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="6">
-        <f>'all_enter|所有按钮入口'!D27</f>
+        <f>'all_enter|所有按钮入口'!E27</f>
         <v>26</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E27</f>
+        <f>'all_enter|所有按钮入口'!F27</f>
         <v>新版新人红包</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="6">
-        <f>'all_enter|所有按钮入口'!D28</f>
+        <f>'all_enter|所有按钮入口'!E28</f>
         <v>27</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E28</f>
+        <f>'all_enter|所有按钮入口'!F28</f>
         <v>新版1元礼包</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="6">
-        <f>'all_enter|所有按钮入口'!D29</f>
+        <f>'all_enter|所有按钮入口'!E29</f>
         <v>28</v>
       </c>
       <c r="E29" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E29</f>
+        <f>'all_enter|所有按钮入口'!F29</f>
         <v>圣诞敲敲乐</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="6">
-        <f>'all_enter|所有按钮入口'!D30</f>
+        <f>'all_enter|所有按钮入口'!E30</f>
         <v>29</v>
       </c>
       <c r="E30" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E30</f>
+        <f>'all_enter|所有按钮入口'!F30</f>
         <v>全返礼包</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="6">
-        <f>'all_enter|所有按钮入口'!D31</f>
+        <f>'all_enter|所有按钮入口'!E31</f>
         <v>30</v>
       </c>
       <c r="E31" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E31</f>
+        <f>'all_enter|所有按钮入口'!F31</f>
         <v>每日特惠礼包</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="6">
-        <f>'all_enter|所有按钮入口'!D32</f>
+        <f>'all_enter|所有按钮入口'!E32</f>
         <v>31</v>
       </c>
       <c r="E32" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E32</f>
+        <f>'all_enter|所有按钮入口'!F32</f>
         <v>欢庆元旦</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="6">
-        <f>'all_enter|所有按钮入口'!D33</f>
+        <f>'all_enter|所有按钮入口'!E33</f>
         <v>32</v>
       </c>
       <c r="E33" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E33</f>
+        <f>'all_enter|所有按钮入口'!F33</f>
         <v>水浒图标</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="6">
-        <f>'all_enter|所有按钮入口'!D34</f>
+        <f>'all_enter|所有按钮入口'!E34</f>
         <v>33</v>
       </c>
       <c r="E34" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E34</f>
+        <f>'all_enter|所有按钮入口'!F34</f>
         <v>随机鲸币</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="6">
-        <f>'all_enter|所有按钮入口'!D35</f>
+        <f>'all_enter|所有按钮入口'!E35</f>
         <v>34</v>
       </c>
       <c r="E35" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E35</f>
+        <f>'all_enter|所有按钮入口'!F35</f>
         <v>飞-红包</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="6">
-        <f>'all_enter|所有按钮入口'!D36</f>
+        <f>'all_enter|所有按钮入口'!E36</f>
         <v>35</v>
       </c>
       <c r="E36" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E36</f>
+        <f>'all_enter|所有按钮入口'!F36</f>
         <v>浪漫情人节</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="6">
-        <f>'all_enter|所有按钮入口'!D37</f>
+        <f>'all_enter|所有按钮入口'!E37</f>
         <v>36</v>
       </c>
       <c r="E37" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E37</f>
+        <f>'all_enter|所有按钮入口'!F37</f>
         <v>新人七天乐</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="6">
-        <f>'all_enter|所有按钮入口'!D38</f>
+        <f>'all_enter|所有按钮入口'!E38</f>
         <v>37</v>
       </c>
       <c r="E38" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E38</f>
+        <f>'all_enter|所有按钮入口'!F38</f>
         <v>分享拉新</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="6">
-        <f>'all_enter|所有按钮入口'!D39</f>
+        <f>'all_enter|所有按钮入口'!E39</f>
         <v>38</v>
       </c>
       <c r="E39" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E39</f>
+        <f>'all_enter|所有按钮入口'!F39</f>
         <v>龙腾祈福</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="6">
-        <f>'all_enter|所有按钮入口'!D40</f>
+        <f>'all_enter|所有按钮入口'!E40</f>
         <v>39</v>
       </c>
       <c r="E40" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E40</f>
+        <f>'all_enter|所有按钮入口'!F40</f>
         <v>房卡场入口</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="6">
-        <f>'all_enter|所有按钮入口'!D41</f>
+        <f>'all_enter|所有按钮入口'!E41</f>
         <v>40</v>
       </c>
       <c r="E41" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E41</f>
+        <f>'all_enter|所有按钮入口'!F41</f>
         <v>幸运彩贝</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D42" s="6">
-        <f>'all_enter|所有按钮入口'!D42</f>
+        <f>'all_enter|所有按钮入口'!E42</f>
         <v>41</v>
       </c>
       <c r="E42" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E42</f>
+        <f>'all_enter|所有按钮入口'!F42</f>
         <v>植树礼物</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="6">
-        <f>'all_enter|所有按钮入口'!D43</f>
+        <f>'all_enter|所有按钮入口'!E43</f>
         <v>42</v>
       </c>
       <c r="E43" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E43</f>
+        <f>'all_enter|所有按钮入口'!F43</f>
         <v>季卡</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="6">
-        <f>'all_enter|所有按钮入口'!D44</f>
+        <f>'all_enter|所有按钮入口'!E44</f>
         <v>43</v>
       </c>
       <c r="E44" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E44</f>
+        <f>'all_enter|所有按钮入口'!F44</f>
         <v>彩金鱼抽奖</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="6">
-        <f>'all_enter|所有按钮入口'!D45</f>
+        <f>'all_enter|所有按钮入口'!E45</f>
         <v>44</v>
       </c>
       <c r="E45" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E45</f>
+        <f>'all_enter|所有按钮入口'!F45</f>
         <v>0元礼包</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="6">
-        <f>'all_enter|所有按钮入口'!D46</f>
+        <f>'all_enter|所有按钮入口'!E46</f>
         <v>45</v>
       </c>
       <c r="E46" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E46</f>
+        <f>'all_enter|所有按钮入口'!F46</f>
         <v>红包分享</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="6">
-        <f>'all_enter|所有按钮入口'!D47</f>
+        <f>'all_enter|所有按钮入口'!E47</f>
         <v>46</v>
       </c>
       <c r="E47" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E47</f>
+        <f>'all_enter|所有按钮入口'!F47</f>
         <v>财神消消乐</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="6">
-        <f>'all_enter|所有按钮入口'!D48</f>
+        <f>'all_enter|所有按钮入口'!E48</f>
         <v>47</v>
       </c>
       <c r="E48" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E48</f>
+        <f>'all_enter|所有按钮入口'!F48</f>
         <v>随机领红包</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="6">
-        <f>'all_enter|所有按钮入口'!D49</f>
+        <f>'all_enter|所有按钮入口'!E49</f>
         <v>48</v>
       </c>
       <c r="E49" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E49</f>
+        <f>'all_enter|所有按钮入口'!F49</f>
         <v>回归惊喜</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="6">
-        <f>'all_enter|所有按钮入口'!D50</f>
+        <f>'all_enter|所有按钮入口'!E50</f>
         <v>49</v>
       </c>
       <c r="E50" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E50</f>
+        <f>'all_enter|所有按钮入口'!F50</f>
         <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="6">
-        <f>'all_enter|所有按钮入口'!D51</f>
+        <f>'all_enter|所有按钮入口'!E51</f>
         <v>50</v>
       </c>
       <c r="E51" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E51</f>
+        <f>'all_enter|所有按钮入口'!F51</f>
         <v>疯狂返利</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="6">
-        <f>'all_enter|所有按钮入口'!D52</f>
+        <f>'all_enter|所有按钮入口'!E52</f>
         <v>51</v>
       </c>
       <c r="E52" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E52</f>
+        <f>'all_enter|所有按钮入口'!F52</f>
         <v xml:space="preserve"> 抽空调</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="6">
-        <f>'all_enter|所有按钮入口'!D53</f>
+        <f>'all_enter|所有按钮入口'!E53</f>
         <v>52</v>
       </c>
       <c r="E53" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E53</f>
+        <f>'all_enter|所有按钮入口'!F53</f>
         <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="6">
-        <f>'all_enter|所有按钮入口'!D54</f>
+        <f>'all_enter|所有按钮入口'!E54</f>
         <v>53</v>
       </c>
       <c r="E54" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E54</f>
+        <f>'all_enter|所有按钮入口'!F54</f>
         <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="6">
-        <f>'all_enter|所有按钮入口'!D55</f>
+        <f>'all_enter|所有按钮入口'!E55</f>
         <v>54</v>
       </c>
       <c r="E55" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E55</f>
+        <f>'all_enter|所有按钮入口'!F55</f>
         <v>连购返利</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="6">
-        <f>'all_enter|所有按钮入口'!D56</f>
+        <f>'all_enter|所有按钮入口'!E56</f>
         <v>55</v>
       </c>
       <c r="E56" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E56</f>
+        <f>'all_enter|所有按钮入口'!F56</f>
         <v>免费红包</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="6">
-        <f>'all_enter|所有按钮入口'!D57</f>
+        <f>'all_enter|所有按钮入口'!E57</f>
         <v>56</v>
       </c>
       <c r="E57" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E57</f>
+        <f>'all_enter|所有按钮入口'!F57</f>
         <v>幸运彩蛋</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="6">
-        <f>'all_enter|所有按钮入口'!D58</f>
+        <f>'all_enter|所有按钮入口'!E58</f>
         <v>57</v>
       </c>
       <c r="E58" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E58</f>
+        <f>'all_enter|所有按钮入口'!F58</f>
         <v>消消乐红包任务</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="6">
-        <f>'all_enter|所有按钮入口'!D59</f>
+        <f>'all_enter|所有按钮入口'!E59</f>
         <v>58</v>
       </c>
       <c r="E59" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E59</f>
+        <f>'all_enter|所有按钮入口'!F59</f>
         <v>新首充礼包</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="6">
-        <f>'all_enter|所有按钮入口'!D60</f>
+        <f>'all_enter|所有按钮入口'!E60</f>
         <v>59</v>
       </c>
       <c r="E60" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E60</f>
+        <f>'all_enter|所有按钮入口'!F60</f>
         <v>母亲节特惠</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="6">
-        <f>'all_enter|所有按钮入口'!D61</f>
+        <f>'all_enter|所有按钮入口'!E61</f>
         <v>60</v>
       </c>
       <c r="E61" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E61</f>
+        <f>'all_enter|所有按钮入口'!F61</f>
         <v>水果消消乐</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="6">
-        <f>'all_enter|所有按钮入口'!D62</f>
+        <f>'all_enter|所有按钮入口'!E62</f>
         <v>61</v>
       </c>
       <c r="E62" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E62</f>
+        <f>'all_enter|所有按钮入口'!F62</f>
         <v>存钱罐</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="6">
-        <f>'all_enter|所有按钮入口'!D63</f>
+        <f>'all_enter|所有按钮入口'!E63</f>
         <v>62</v>
       </c>
       <c r="E63" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E63</f>
+        <f>'all_enter|所有按钮入口'!F63</f>
         <v>问题反馈</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="6">
-        <f>'all_enter|所有按钮入口'!D64</f>
+        <f>'all_enter|所有按钮入口'!E64</f>
         <v>63</v>
       </c>
       <c r="E64" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E64</f>
+        <f>'all_enter|所有按钮入口'!F64</f>
         <v>3D捕鱼测试排行榜</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="6">
-        <f>'all_enter|所有按钮入口'!D65</f>
+        <f>'all_enter|所有按钮入口'!E65</f>
         <v>64</v>
       </c>
       <c r="E65" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E65</f>
+        <f>'all_enter|所有按钮入口'!F65</f>
         <v>排名赛</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="6">
-        <f>'all_enter|所有按钮入口'!D66</f>
+        <f>'all_enter|所有按钮入口'!E66</f>
         <v>65</v>
       </c>
       <c r="E66" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E66</f>
+        <f>'all_enter|所有按钮入口'!F66</f>
         <v>3D捕鱼奖池-大厅显示奖池图标</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="6">
-        <f>'all_enter|所有按钮入口'!D67</f>
+        <f>'all_enter|所有按钮入口'!E67</f>
         <v>66</v>
       </c>
       <c r="E67" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E67</f>
+        <f>'all_enter|所有按钮入口'!F67</f>
         <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="6">
-        <f>'all_enter|所有按钮入口'!D68</f>
+        <f>'all_enter|所有按钮入口'!E68</f>
         <v>67</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E68</f>
+        <f>'all_enter|所有按钮入口'!F68</f>
         <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="6">
-        <f>'all_enter|所有按钮入口'!D69</f>
+        <f>'all_enter|所有按钮入口'!E69</f>
         <v>68</v>
       </c>
       <c r="E69" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E69</f>
+        <f>'all_enter|所有按钮入口'!F69</f>
         <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="6">
-        <f>'all_enter|所有按钮入口'!D70</f>
+        <f>'all_enter|所有按钮入口'!E70</f>
         <v>69</v>
       </c>
       <c r="E70" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E70</f>
+        <f>'all_enter|所有按钮入口'!F70</f>
         <v>3D捕鱼奖池-游戏内显示奖池图标</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="6">
-        <f>'all_enter|所有按钮入口'!D71</f>
+        <f>'all_enter|所有按钮入口'!E71</f>
         <v>70</v>
       </c>
       <c r="E71" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E71</f>
+        <f>'all_enter|所有按钮入口'!F71</f>
         <v>3D捕鱼奖池-显示说明界面</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" s="6">
-        <f>'all_enter|所有按钮入口'!D72</f>
+        <f>'all_enter|所有按钮入口'!E72</f>
         <v>71</v>
       </c>
       <c r="E72" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E72</f>
+        <f>'all_enter|所有按钮入口'!F72</f>
         <v>3D捕鱼开炮送红包-场次2大厅显示</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" s="6">
-        <f>'all_enter|所有按钮入口'!D73</f>
+        <f>'all_enter|所有按钮入口'!E73</f>
         <v>72</v>
       </c>
       <c r="E73" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E73</f>
+        <f>'all_enter|所有按钮入口'!F73</f>
         <v>兑换按钮</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" s="6">
-        <f>'all_enter|所有按钮入口'!D74</f>
+        <f>'all_enter|所有按钮入口'!E74</f>
         <v>73</v>
       </c>
       <c r="E74" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E74</f>
+        <f>'all_enter|所有按钮入口'!F74</f>
         <v>boss来袭</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" s="6">
-        <f>'all_enter|所有按钮入口'!D75</f>
+        <f>'all_enter|所有按钮入口'!E75</f>
         <v>74</v>
       </c>
       <c r="E75" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E75</f>
+        <f>'all_enter|所有按钮入口'!F75</f>
         <v>活跃任务</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" s="6">
-        <f>'all_enter|所有按钮入口'!D76</f>
+        <f>'all_enter|所有按钮入口'!E76</f>
         <v>75</v>
       </c>
       <c r="E76" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E76</f>
+        <f>'all_enter|所有按钮入口'!F76</f>
         <v>3D捕鱼开炮送红包-场次3大厅显示</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" s="6">
-        <f>'all_enter|所有按钮入口'!D77</f>
+        <f>'all_enter|所有按钮入口'!E77</f>
         <v>76</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E77</f>
+        <f>'all_enter|所有按钮入口'!F77</f>
         <v>3D捕鱼开炮送红包-场次4大厅显示</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" s="6">
-        <f>'all_enter|所有按钮入口'!D78</f>
+        <f>'all_enter|所有按钮入口'!E78</f>
         <v>77</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E78</f>
+        <f>'all_enter|所有按钮入口'!F78</f>
         <v>3D捕鱼开炮送红包-场次5大厅显示</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" s="6">
-        <f>'all_enter|所有按钮入口'!D79</f>
+        <f>'all_enter|所有按钮入口'!E79</f>
         <v>78</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E79</f>
+        <f>'all_enter|所有按钮入口'!F79</f>
         <v>3D捕鱼开炮送红包-游戏内</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" s="6">
-        <f>'all_enter|所有按钮入口'!D80</f>
+        <f>'all_enter|所有按钮入口'!E80</f>
         <v>79</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E80</f>
+        <f>'all_enter|所有按钮入口'!F80</f>
         <v>炮台升级按钮</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="6">
-        <f>'all_enter|所有按钮入口'!D81</f>
+        <f>'all_enter|所有按钮入口'!E81</f>
         <v>80</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E81</f>
+        <f>'all_enter|所有按钮入口'!F81</f>
         <v>畅玩卡</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="6">
-        <f>'all_enter|所有按钮入口'!D82</f>
+        <f>'all_enter|所有按钮入口'!E82</f>
         <v>81</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E82</f>
+        <f>'all_enter|所有按钮入口'!F82</f>
         <v>3D捕鱼挑战任务</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="6">
-        <f>'all_enter|所有按钮入口'!D83</f>
+        <f>'all_enter|所有按钮入口'!E83</f>
         <v>82</v>
       </c>
       <c r="E83" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E83</f>
+        <f>'all_enter|所有按钮入口'!F83</f>
         <v>3D捕鱼游戏上方区域</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="6">
-        <f>'all_enter|所有按钮入口'!D84</f>
+        <f>'all_enter|所有按钮入口'!E84</f>
         <v>83</v>
       </c>
       <c r="E84" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E84</f>
+        <f>'all_enter|所有按钮入口'!F84</f>
         <v>师徒系统</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="6">
-        <f>'all_enter|所有按钮入口'!D85</f>
+        <f>'all_enter|所有按钮入口'!E85</f>
         <v>84</v>
       </c>
       <c r="E85" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E85</f>
+        <f>'all_enter|所有按钮入口'!F85</f>
         <v>全返礼包</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="6">
-        <f>'all_enter|所有按钮入口'!D86</f>
+        <f>'all_enter|所有按钮入口'!E86</f>
         <v>85</v>
       </c>
       <c r="E86" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E86</f>
+        <f>'all_enter|所有按钮入口'!F86</f>
         <v>签到</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="6">
-        <f>'all_enter|所有按钮入口'!D87</f>
+        <f>'all_enter|所有按钮入口'!E87</f>
         <v>86</v>
       </c>
       <c r="E87" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E87</f>
+        <f>'all_enter|所有按钮入口'!F87</f>
         <v>3D捕鱼自动开炮</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="6">
-        <f>'all_enter|所有按钮入口'!D88</f>
+        <f>'all_enter|所有按钮入口'!E88</f>
         <v>87</v>
       </c>
       <c r="E88" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E88</f>
+        <f>'all_enter|所有按钮入口'!F88</f>
         <v>免费抽奖-广告</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="6">
-        <f>'all_enter|所有按钮入口'!D89</f>
+        <f>'all_enter|所有按钮入口'!E89</f>
         <v>88</v>
       </c>
       <c r="E89" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E89</f>
+        <f>'all_enter|所有按钮入口'!F89</f>
         <v>超值礼包</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="6">
-        <f>'all_enter|所有按钮入口'!D90</f>
+        <f>'all_enter|所有按钮入口'!E90</f>
         <v>89</v>
       </c>
       <c r="E90" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E90</f>
+        <f>'all_enter|所有按钮入口'!F90</f>
         <v>新人抽大奖</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="6">
-        <f>'all_enter|所有按钮入口'!D91</f>
+        <f>'all_enter|所有按钮入口'!E91</f>
         <v>90</v>
       </c>
       <c r="E91" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E91</f>
+        <f>'all_enter|所有按钮入口'!F91</f>
         <v>水果消消乐引导</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="6">
-        <f>'all_enter|所有按钮入口'!D92</f>
+        <f>'all_enter|所有按钮入口'!E92</f>
         <v>91</v>
       </c>
       <c r="E92" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E92</f>
+        <f>'all_enter|所有按钮入口'!F92</f>
         <v>水果消消乐大引导</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="6">
-        <f>'all_enter|所有按钮入口'!D93</f>
+        <f>'all_enter|所有按钮入口'!E93</f>
         <v>92</v>
       </c>
       <c r="E93" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E93</f>
+        <f>'all_enter|所有按钮入口'!F93</f>
         <v>推广系统</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="6">
-        <f>'all_enter|所有按钮入口'!D94</f>
+        <f>'all_enter|所有按钮入口'!E94</f>
         <v>93</v>
       </c>
       <c r="E94" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E94</f>
+        <f>'all_enter|所有按钮入口'!F94</f>
         <v>金秋送豪礼</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="6">
-        <f>'all_enter|所有按钮入口'!D95</f>
+        <f>'all_enter|所有按钮入口'!E95</f>
         <v>94</v>
       </c>
       <c r="E95" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E95</f>
+        <f>'all_enter|所有按钮入口'!F95</f>
         <v>免费福利券</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="6">
-        <f>'all_enter|所有按钮入口'!D96</f>
+        <f>'all_enter|所有按钮入口'!E96</f>
         <v>95</v>
       </c>
       <c r="E96" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E96</f>
+        <f>'all_enter|所有按钮入口'!F96</f>
         <v>奖池按钮图标</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="6">
-        <f>'all_enter|所有按钮入口'!D97</f>
+        <f>'all_enter|所有按钮入口'!E97</f>
         <v>96</v>
       </c>
       <c r="E97" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E97</f>
+        <f>'all_enter|所有按钮入口'!F97</f>
         <v>奖池游戏内显示</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="6">
-        <f>'all_enter|所有按钮入口'!D98</f>
+        <f>'all_enter|所有按钮入口'!E98</f>
         <v>97</v>
       </c>
       <c r="E98" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E98</f>
+        <f>'all_enter|所有按钮入口'!F98</f>
         <v>免费话费</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="6">
-        <f>'all_enter|所有按钮入口'!D99</f>
+        <f>'all_enter|所有按钮入口'!E99</f>
         <v>98</v>
       </c>
       <c r="E99" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E99</f>
+        <f>'all_enter|所有按钮入口'!F99</f>
         <v>幸运彩蛋</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="6">
-        <f>'all_enter|所有按钮入口'!D100</f>
+        <f>'all_enter|所有按钮入口'!E100</f>
         <v>99</v>
       </c>
       <c r="E100" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E100</f>
+        <f>'all_enter|所有按钮入口'!F100</f>
         <v>街机捕鱼游戏上方区域</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="6">
-        <f>'all_enter|所有按钮入口'!D101</f>
+        <f>'all_enter|所有按钮入口'!E101</f>
         <v>100</v>
       </c>
       <c r="E101" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E101</f>
+        <f>'all_enter|所有按钮入口'!F101</f>
         <v>欢乐敲金蛋</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="6">
-        <f>'all_enter|所有按钮入口'!D102</f>
+        <f>'all_enter|所有按钮入口'!E102</f>
         <v>101</v>
       </c>
       <c r="E102" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E102</f>
+        <f>'all_enter|所有按钮入口'!F102</f>
         <v>小游戏累计赢金抽福卡</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="6">
-        <f>'all_enter|所有按钮入口'!D103</f>
+        <f>'all_enter|所有按钮入口'!E103</f>
         <v>102</v>
       </c>
       <c r="E103" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E103</f>
+        <f>'all_enter|所有按钮入口'!F103</f>
         <v>畅玩礼包</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="6">
-        <f>'all_enter|所有按钮入口'!D104</f>
+        <f>'all_enter|所有按钮入口'!E104</f>
         <v>103</v>
       </c>
       <c r="E104" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E104</f>
+        <f>'all_enter|所有按钮入口'!F104</f>
         <v>核弹</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="6">
-        <f>'all_enter|所有按钮入口'!D105</f>
+        <f>'all_enter|所有按钮入口'!E105</f>
         <v>104</v>
       </c>
       <c r="E105" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E105</f>
+        <f>'all_enter|所有按钮入口'!F105</f>
         <v>大额福利券（跳转小游戏入口）</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="6">
-        <f>'all_enter|所有按钮入口'!D106</f>
+        <f>'all_enter|所有按钮入口'!E106</f>
         <v>105</v>
       </c>
       <c r="E106" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E106</f>
+        <f>'all_enter|所有按钮入口'!F106</f>
         <v>金鸡送礼（冲金鸡）</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="6">
-        <f>'all_enter|所有按钮入口'!D107</f>
+        <f>'all_enter|所有按钮入口'!E107</f>
         <v>106</v>
       </c>
       <c r="E107" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E107</f>
+        <f>'all_enter|所有按钮入口'!F107</f>
         <v>万圣幸运礼包</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="18">
-        <f>'all_enter|所有按钮入口'!D108</f>
+      <c r="D108" s="6">
+        <f>'all_enter|所有按钮入口'!E108</f>
         <v>107</v>
       </c>
-      <c r="E108" s="18" t="str">
-        <f>'all_enter|所有按钮入口'!E108</f>
+      <c r="E108" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F108</f>
         <v>新人专享</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="6">
+        <f>'all_enter|所有按钮入口'!E109</f>
         <v>108</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>302</v>
+      <c r="E109" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F109</f>
+        <v>排行榜总入口</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="6">
+        <f>'all_enter|所有按钮入口'!E110</f>
+        <v>109</v>
+      </c>
+      <c r="E110" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F110</f>
+        <v>深海探险</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="6">
+        <f>'all_enter|所有按钮入口'!E111</f>
+        <v>110</v>
+      </c>
+      <c r="E111" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F111</f>
+        <v>一本万利</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="6">
+        <f>'all_enter|所有按钮入口'!E112</f>
+        <v>111</v>
+      </c>
+      <c r="E112" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F112</f>
+        <v>UI-精彩活动</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="340">
   <si>
     <t>id|行号</t>
   </si>
@@ -941,10 +941,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_flqcj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>畅玩卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1360,138 +1356,162 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>16;31;93#26#</t>
+    <t>"by3d_phb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#104#95#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_shtx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_hd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_shtx",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>109#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>69#73#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_035_ybwl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-精彩活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-获取金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_jchd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_hqjb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>92#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（旧）</t>
+  </si>
+  <si>
+    <t>"act_035_jhs",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110#84#114#42#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrqtl_old",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_ggxt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费(冲金鸡)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key|推荐的条件key可以为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_ad_mfcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#100;36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"by3d_phb","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜总入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>108#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>108#104#95#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right_shtx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right_hd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right_boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_shtx",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海探险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>109#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>69#73#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_035_ybwl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一本万利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-精彩活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-获取金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_by3d_jchd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_by3d_hqjb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_bottom</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>92#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（旧）</t>
-  </si>
-  <si>
-    <t>36;113;89;105#97;100;102;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_035_jhs",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>110#84#114#42#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrqtl_old",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cps_ggxt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费(冲金鸡)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3#2#8#61#115</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>condi_key|推荐的条件key可以为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_ad_mfcj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>111#112#53#79#100;36;113;89;93;11#</t>
+    <t>"xycj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运抽奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycj_enter_limit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjsl_enter_limit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#61#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_xycj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1630,11 +1650,12 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,6 +1676,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,7 +1735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1768,6 +1795,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2093,7 +2129,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,10 +2137,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2112,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2450,7 +2486,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2538,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2549,7 +2585,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2567,10 +2603,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2578,10 +2614,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2589,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2600,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2611,10 +2647,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2678,10 +2714,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2792,7 +2828,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2842,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2853,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2891,10 +2927,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2929,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +3006,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +3044,7 @@
         <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +3058,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3035,7 +3071,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3046,7 +3082,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3057,13 +3093,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3082,13 +3118,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3102,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3120,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3138,12 +3174,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
@@ -3444,7 +3482,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3624,7 +3662,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4231,7 +4269,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4257,7 +4295,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4291,7 +4329,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4308,7 +4346,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4325,7 +4363,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4333,7 +4371,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4342,7 +4380,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4350,7 +4388,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4367,7 +4405,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4376,7 +4414,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4393,7 +4431,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4469,7 +4507,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4478,7 +4516,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4486,7 +4524,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4495,7 +4533,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4503,7 +4541,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4512,7 +4550,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4520,7 +4558,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4529,7 +4567,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4537,7 +4575,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4546,7 +4584,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4554,7 +4592,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4563,7 +4601,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4571,7 +4609,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4580,7 +4618,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4588,7 +4626,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4597,7 +4635,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4605,19 +4643,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4625,7 +4663,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4634,7 +4672,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4642,7 +4680,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4651,7 +4689,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4659,7 +4697,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4668,7 +4706,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4676,7 +4714,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4685,7 +4723,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4693,7 +4731,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4702,7 +4740,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4710,7 +4748,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4719,7 +4757,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4727,7 +4765,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4736,7 +4774,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4744,7 +4782,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4753,7 +4791,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4761,7 +4799,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4770,7 +4808,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4778,7 +4816,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4788,7 +4826,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4796,7 +4834,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4805,7 +4843,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4813,7 +4851,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4822,7 +4860,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4830,7 +4868,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4839,7 +4877,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4847,7 +4885,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4856,24 +4894,24 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="20">
         <v>102</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="E103">
+      <c r="B103" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1</v>
+      </c>
+      <c r="E103" s="20">
         <v>102</v>
       </c>
-      <c r="F103" s="6" t="s">
-        <v>284</v>
+      <c r="F103" s="22" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4881,7 +4919,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4890,7 +4928,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4898,7 +4936,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4907,7 +4945,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4915,16 +4953,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C106">
         <v>1</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4932,7 +4973,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4941,7 +4982,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4949,7 +4990,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4958,7 +4999,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4966,7 +5007,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4975,7 +5016,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4983,7 +5024,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4992,7 +5033,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5000,7 +5041,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5009,7 +5050,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5017,7 +5058,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5026,7 +5067,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5034,7 +5075,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5043,7 +5084,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5051,7 +5092,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5060,7 +5101,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5068,7 +5109,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5077,7 +5118,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5085,19 +5126,39 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5148,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5223,7 +5284,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5242,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5284,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5300,8 +5361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5333,7 +5394,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5344,7 +5405,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5420,10 +5481,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +5499,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5476,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5495,7 +5556,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5518,7 +5579,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5590,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -941,6 +941,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"sys_flqcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>畅玩卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1479,10 +1483,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>11;16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1491,19 +1491,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>xycj_enter_limit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>幸运抽奖</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>xycj_enter_limit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jjsl_enter_limit</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_flqcj",</t>
+    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2129,7 +2129,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2137,10 +2137,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2148,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2486,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2585,7 +2585,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2603,10 +2603,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2614,10 +2614,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2625,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2636,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2647,10 +2647,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2714,10 +2714,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2828,7 +2828,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2889,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2927,10 +2927,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2965,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +3006,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3044,7 +3044,7 @@
         <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3071,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3118,13 +3118,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3174,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>337</v>
+        <v>199</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4269,7 +4269,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4329,7 +4329,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4346,7 +4346,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4363,7 +4363,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4371,7 +4371,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4380,7 +4380,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4388,7 +4388,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4414,7 +4414,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4507,7 +4507,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4516,7 +4516,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4524,7 +4524,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4533,7 +4533,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4541,7 +4541,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4550,7 +4550,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4567,7 +4567,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4592,7 +4592,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4609,7 +4609,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4618,7 +4618,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4626,7 +4626,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4635,7 +4635,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4643,19 +4643,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4672,7 +4672,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4680,7 +4680,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4689,7 +4689,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4706,7 +4706,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4714,7 +4714,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4723,7 +4723,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4731,7 +4731,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4740,7 +4740,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4748,7 +4748,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4765,7 +4765,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4782,7 +4782,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4791,7 +4791,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4808,7 +4808,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4816,7 +4816,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4826,7 +4826,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4834,7 +4834,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4851,7 +4851,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4868,7 +4868,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4877,7 +4877,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4885,7 +4885,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4902,7 +4902,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4911,7 +4911,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4936,7 +4936,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,7 +4953,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,7 +4973,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5041,7 +5041,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5050,7 +5050,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5058,7 +5058,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5067,7 +5067,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5092,7 +5092,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5109,7 +5109,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5126,19 +5126,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5152,13 +5152,13 @@
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5209,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5284,7 +5284,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5345,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5361,7 +5361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5405,7 +5405,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5421,7 +5421,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5481,10 +5481,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5499,7 +5499,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5556,7 +5556,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5579,7 +5579,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5651,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1289,10 +1289,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>102#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>核弹</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1479,10 +1475,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#100;36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>11;16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1503,15 +1495,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3;116#2#8#61#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cps_xycj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;113;89;105#97;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;93;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2140,7 +2140,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,7 +2542,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2574,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2625,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2636,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2647,10 +2647,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2717,7 +2717,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>276</v>
@@ -3082,7 +3082,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3096,10 +3096,10 @@
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3118,13 +3118,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4919,7 +4919,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4936,7 +4936,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,19 +4953,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,7 +4973,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5041,7 +5041,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5050,7 +5050,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5058,7 +5058,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5067,7 +5067,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5092,7 +5092,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5109,7 +5109,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5126,19 +5126,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5146,19 +5146,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5394,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5481,10 +5481,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5498,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5537,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5556,7 +5556,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5579,7 +5579,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5651,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="346">
   <si>
     <t>id|行号</t>
   </si>
@@ -692,10 +692,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>存钱罐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1495,23 +1491,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#61#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cps_xycj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>36;113;89;105#97;11;93;94#58;107#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>111#112#53#79#36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#61#117#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>106#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>118#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_040_ydfl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_040_by_and_cjj_to_ddz_conduct",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1655,7 +1679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,6 +1706,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,7 +1765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1803,6 +1833,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2129,7 +2162,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2137,10 +2170,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2148,10 +2181,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2519,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2560,10 +2593,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2574,7 +2607,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2582,10 +2615,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2593,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6"/>
@@ -2603,10 +2636,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2614,10 +2647,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2625,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2636,10 +2669,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2647,10 +2680,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2682,10 +2715,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2693,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2704,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2714,10 +2747,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2725,10 +2758,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2736,10 +2769,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,10 +2780,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,10 +2791,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2828,7 +2861,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2878,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2889,10 +2922,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2927,10 +2960,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2965,10 +2998,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +3039,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3041,10 +3074,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3104,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3082,7 +3115,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3093,13 +3126,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3118,13 +3151,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3138,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3156,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3174,13 +3207,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3482,7 +3515,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3662,7 +3695,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3672,7 +3705,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3903,7 +3936,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3911,7 +3944,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4201,7 +4234,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4210,7 +4243,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,7 +4251,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4227,7 +4260,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4235,7 +4268,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4244,7 +4277,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4252,7 +4285,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4261,7 +4294,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4269,7 +4302,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4278,7 +4311,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4286,7 +4319,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4295,7 +4328,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4303,7 +4336,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4312,7 +4345,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4320,7 +4353,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4329,7 +4362,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4337,7 +4370,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4346,7 +4379,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4354,7 +4387,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4363,7 +4396,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4371,7 +4404,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4380,7 +4413,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4388,7 +4421,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4397,7 +4430,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4405,7 +4438,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4414,7 +4447,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4422,7 +4455,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4431,7 +4464,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4439,7 +4472,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4448,7 +4481,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4456,7 +4489,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4465,7 +4498,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4473,7 +4506,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4482,7 +4515,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4490,7 +4523,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4499,7 +4532,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4507,7 +4540,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4516,7 +4549,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4524,7 +4557,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4533,7 +4566,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4541,7 +4574,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4550,7 +4583,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4558,7 +4591,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4567,7 +4600,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4575,7 +4608,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4584,7 +4617,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4592,7 +4625,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4601,7 +4634,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4609,7 +4642,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4618,7 +4651,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4626,7 +4659,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4635,7 +4668,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4643,19 +4676,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4663,7 +4696,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4672,7 +4705,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4680,7 +4713,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4689,7 +4722,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,7 +4730,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4706,7 +4739,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4714,7 +4747,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4723,7 +4756,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4731,7 +4764,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4740,7 +4773,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4748,7 +4781,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4757,7 +4790,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4765,7 +4798,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4774,7 +4807,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4782,7 +4815,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4791,7 +4824,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4799,7 +4832,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4808,7 +4841,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4816,7 +4849,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4826,7 +4859,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4834,7 +4867,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4843,7 +4876,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4851,7 +4884,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4860,7 +4893,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4868,7 +4901,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4877,7 +4910,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4885,7 +4918,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4894,7 +4927,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4902,7 +4935,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4911,7 +4944,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4919,7 +4952,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4928,7 +4961,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4936,7 +4969,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4945,7 +4978,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,19 +4986,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,7 +5006,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4982,7 +5015,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4990,7 +5023,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4999,7 +5032,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5007,7 +5040,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5016,7 +5049,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5024,7 +5057,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5033,7 +5066,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5041,7 +5074,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5050,7 +5083,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5058,7 +5091,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5067,7 +5100,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5108,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5084,7 +5117,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5092,7 +5125,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5101,7 +5134,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5109,7 +5142,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5118,7 +5151,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5126,19 +5159,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5146,19 +5179,53 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5209,7 +5276,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5284,7 +5351,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5303,7 +5370,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5345,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5461,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5402,10 +5469,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5470,10 +5537,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5481,10 +5548,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5496,10 +5563,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5537,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5556,7 +5623,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5576,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>339</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5595,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -5632,10 +5699,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -5651,10 +5718,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5666,8 +5733,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
         <v>8</v>
@@ -6709,6 +6783,87 @@
         <f>'all_enter|所有按钮入口'!F112</f>
         <v>UI-精彩活动</v>
       </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="6">
+        <f>'all_enter|所有按钮入口'!E113</f>
+        <v>112</v>
+      </c>
+      <c r="E113" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F113</f>
+        <v>UI-获取金币</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="6">
+        <f>'all_enter|所有按钮入口'!E114</f>
+        <v>113</v>
+      </c>
+      <c r="E114" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F114</f>
+        <v>新人七天乐（旧）</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="6">
+        <f>'all_enter|所有按钮入口'!E115</f>
+        <v>114</v>
+      </c>
+      <c r="E115" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F115</f>
+        <v>聚划算</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="6">
+        <f>'all_enter|所有按钮入口'!E116</f>
+        <v>115</v>
+      </c>
+      <c r="E116" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F116</f>
+        <v>免费话费(冲金鸡)</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="6">
+        <f>'all_enter|所有按钮入口'!E117</f>
+        <v>116</v>
+      </c>
+      <c r="E117" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F117</f>
+        <v>幸运抽奖</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="6">
+        <f>'all_enter|所有按钮入口'!E118</f>
+        <v>117</v>
+      </c>
+      <c r="E118" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F118</f>
+        <v>元旦福利</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="6">
+        <f>'all_enter|所有按钮入口'!E119</f>
+        <v>118</v>
+      </c>
+      <c r="E119" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F119</f>
+        <v>游戏互导向斗地主</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="352">
   <si>
     <t>id|行号</t>
   </si>
@@ -949,10 +949,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>top_right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>center_top</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1360,10 +1356,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>108#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>108#104#95#72#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1507,6 +1499,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"act_040_ydfl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>3;116#2#8#61#117#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1515,7 +1511,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>106#</t>
+    <t>right_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>118#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1523,15 +1539,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>right_bottom</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>118#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_040_ydfl",</t>
+    <t>119#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用转盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_shop_enter",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_zp1",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2116,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2162,7 +2186,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2170,10 +2194,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>201</v>
+        <v>342</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2181,10 +2205,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>203</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +2554,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2642,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2618,7 +2653,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2636,10 +2671,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2647,10 +2682,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2658,10 +2693,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2669,10 +2704,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2680,10 +2715,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2747,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2861,7 +2896,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2922,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2960,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2998,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3074,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3077,7 +3112,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3139,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3115,7 +3150,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3126,13 +3161,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3151,13 +3186,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3171,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3189,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3213,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3515,7 +3550,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3695,7 +3730,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4302,7 +4337,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4328,7 +4363,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4362,7 +4397,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4379,7 +4414,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4396,7 +4431,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4404,7 +4439,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4413,7 +4448,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4421,7 +4456,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4438,7 +4473,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4447,7 +4482,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4464,7 +4499,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4540,7 +4575,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4549,7 +4584,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4557,7 +4592,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4583,7 +4618,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4591,7 +4626,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4600,7 +4635,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4608,7 +4643,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4617,7 +4652,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4625,7 +4660,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4634,7 +4669,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4642,7 +4677,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4651,7 +4686,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4659,7 +4694,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4668,7 +4703,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4676,19 +4711,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4696,7 +4731,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4705,7 +4740,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4713,7 +4748,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4722,7 +4757,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4730,7 +4765,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4739,7 +4774,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4747,7 +4782,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4756,7 +4791,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4764,7 +4799,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4773,7 +4808,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4781,7 +4816,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4790,7 +4825,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4798,7 +4833,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4807,7 +4842,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4815,7 +4850,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4824,7 +4859,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4832,7 +4867,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4841,7 +4876,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4849,7 +4884,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4859,7 +4894,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4867,7 +4902,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4876,7 +4911,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4884,7 +4919,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4893,7 +4928,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4901,7 +4936,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4910,7 +4945,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4918,7 +4953,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4927,7 +4962,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4935,7 +4970,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4944,7 +4979,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4952,7 +4987,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4961,7 +4996,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4969,7 +5004,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4978,7 +5013,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4986,19 +5021,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5006,7 +5041,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5015,7 +5050,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5023,7 +5058,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5032,7 +5067,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5040,7 +5075,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5049,7 +5084,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5057,7 +5092,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5066,7 +5101,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5074,7 +5109,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5083,7 +5118,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5091,7 +5126,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5100,7 +5135,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5108,7 +5143,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5117,7 +5152,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5125,7 +5160,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5134,7 +5169,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5142,7 +5177,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5151,7 +5186,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5159,19 +5194,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5179,19 +5214,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5199,7 +5234,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5208,7 +5243,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5216,7 +5251,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5225,7 +5260,41 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5276,7 +5345,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5351,7 +5420,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5370,7 +5439,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5412,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5461,7 +5530,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5472,7 +5541,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5548,10 +5617,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5563,10 +5632,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5604,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5623,7 +5692,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5643,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5718,10 +5787,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5737,10 +5806,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -6783,87 +6852,6 @@
         <f>'all_enter|所有按钮入口'!F112</f>
         <v>UI-精彩活动</v>
       </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D113" s="6">
-        <f>'all_enter|所有按钮入口'!E113</f>
-        <v>112</v>
-      </c>
-      <c r="E113" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!F113</f>
-        <v>UI-获取金币</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D114" s="6">
-        <f>'all_enter|所有按钮入口'!E114</f>
-        <v>113</v>
-      </c>
-      <c r="E114" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!F114</f>
-        <v>新人七天乐（旧）</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D115" s="6">
-        <f>'all_enter|所有按钮入口'!E115</f>
-        <v>114</v>
-      </c>
-      <c r="E115" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!F115</f>
-        <v>聚划算</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D116" s="6">
-        <f>'all_enter|所有按钮入口'!E116</f>
-        <v>115</v>
-      </c>
-      <c r="E116" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!F116</f>
-        <v>免费话费(冲金鸡)</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D117" s="6">
-        <f>'all_enter|所有按钮入口'!E117</f>
-        <v>116</v>
-      </c>
-      <c r="E117" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!F117</f>
-        <v>幸运抽奖</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D118" s="6">
-        <f>'all_enter|所有按钮入口'!E118</f>
-        <v>117</v>
-      </c>
-      <c r="E118" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!F118</f>
-        <v>元旦福利</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D119" s="6">
-        <f>'all_enter|所有按钮入口'!E119</f>
-        <v>118</v>
-      </c>
-      <c r="E119" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!F119</f>
-        <v>游戏互导向斗地主</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D122" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="354">
   <si>
     <t>id|行号</t>
   </si>
@@ -1519,10 +1519,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>108#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>top_left</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1547,10 +1543,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>120#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_by3d_shop_enter",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1560,6 +1552,22 @@
   </si>
   <si>
     <t>"act_040_by_and_cjj_to_ddz_conduct",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_collect_words",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>121#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2142,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2194,10 +2202,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,10 +2224,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3134,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3150,7 +3158,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3161,13 +3169,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
+      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5251,7 +5259,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5268,7 +5276,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5277,7 +5285,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5285,7 +5293,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5294,7 +5302,24 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5809,7 +5834,7 @@
         <v>339</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="358">
   <si>
     <t>id|行号</t>
   </si>
@@ -182,10 +182,6 @@
   </si>
   <si>
     <t>left_top</t>
-  </si>
-  <si>
-    <t>"sys_act_base",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节日扩展活动</t>
@@ -953,27 +949,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>80#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼游戏上方区域</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>82#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_kllb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_bybs"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_cglb"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1503,10 +1483,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#61#117#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>right</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1563,11 +1539,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>121#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>108#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_041_yybjsj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂砸金蛋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_fkqjd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>123#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80#122#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_kllb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_bybs","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_cglb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#122#61#117#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1797,7 +1813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1869,6 +1885,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2150,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2180,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2191,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2202,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2213,10 +2232,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>202</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2267,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2315,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2361,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2372,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2414,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2455,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2466,10 +2485,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2512,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2578,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2623,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2637,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2636,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2647,10 +2666,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2658,10 +2677,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2669,7 +2688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6"/>
@@ -2679,10 +2698,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2690,10 +2709,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2701,10 +2720,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2712,10 +2731,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2723,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
         <v>303</v>
-      </c>
-      <c r="C9" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2758,10 +2777,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2780,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2790,10 +2809,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2801,10 +2820,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2812,10 +2831,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2823,10 +2842,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,10 +2853,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2904,7 +2923,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2912,10 +2931,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2923,7 +2942,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -2954,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2965,10 +2984,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3003,10 +3022,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3041,10 +3060,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3079,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3117,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3153,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3144,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3155,10 +3174,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3169,13 +3188,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
+      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3194,16 +3213,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3214,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3232,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3250,13 +3269,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3360,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -3396,7 +3415,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>356</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3406,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3414,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -3424,7 +3443,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3432,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -3442,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3450,7 +3469,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -3460,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3468,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -3478,7 +3497,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3486,7 +3505,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -3496,7 +3515,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3504,7 +3523,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -3514,7 +3533,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3522,7 +3541,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -3532,7 +3551,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3540,7 +3559,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -3550,7 +3569,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3558,7 +3577,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>206</v>
+        <v>354</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3568,7 +3587,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3576,7 +3595,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -3586,7 +3605,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3594,7 +3613,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -3604,7 +3623,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3612,7 +3631,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -3622,7 +3641,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3630,7 +3649,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -3640,7 +3659,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3648,7 +3667,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -3658,7 +3677,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3666,7 +3685,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -3676,7 +3695,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3684,7 +3703,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -3694,7 +3713,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3702,7 +3721,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -3712,7 +3731,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3720,7 +3739,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -3730,7 +3749,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,7 +3757,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3748,7 +3767,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,7 +3775,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -3766,7 +3785,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3774,7 +3793,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -3784,7 +3803,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3792,7 +3811,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -3802,7 +3821,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3810,7 +3829,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -3820,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3828,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -3838,7 +3857,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3846,7 +3865,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -3856,7 +3875,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3864,7 +3883,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3874,7 +3893,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3882,7 +3901,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -3892,7 +3911,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3919,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -3910,7 +3929,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3918,7 +3937,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -3928,7 +3947,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3936,7 +3955,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3945,7 +3964,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3953,7 +3972,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3962,7 +3981,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3970,7 +3989,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3979,7 +3998,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3987,7 +4006,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3996,7 +4015,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4004,7 +4023,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4013,7 +4032,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4021,7 +4040,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4030,7 +4049,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4038,7 +4057,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4047,7 +4066,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4055,7 +4074,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4064,7 +4083,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4072,7 +4091,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4081,7 +4100,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4089,7 +4108,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4098,7 +4117,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4106,7 +4125,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4115,7 +4134,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4123,7 +4142,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4132,7 +4151,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4140,7 +4159,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -4150,7 +4169,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4158,7 +4177,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4167,7 +4186,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4175,7 +4194,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4184,7 +4203,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4192,7 +4211,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4201,7 +4220,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4209,7 +4228,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4218,7 +4237,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4226,7 +4245,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4235,7 +4254,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4243,7 +4262,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4252,7 +4271,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4260,7 +4279,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4269,7 +4288,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4277,7 +4296,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4286,7 +4305,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4294,7 +4313,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4303,7 +4322,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4311,7 +4330,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4320,7 +4339,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4328,7 +4347,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4337,7 +4356,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4345,7 +4364,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4354,7 +4373,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4362,7 +4381,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4371,7 +4390,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4379,7 +4398,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4388,7 +4407,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4396,7 +4415,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4405,7 +4424,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4413,7 +4432,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4422,7 +4441,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4430,7 +4449,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4439,7 +4458,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4447,7 +4466,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4456,7 +4475,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4464,7 +4483,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4473,7 +4492,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4481,7 +4500,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4490,7 +4509,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4498,7 +4517,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4507,7 +4526,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4515,7 +4534,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4524,7 +4543,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4532,7 +4551,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4541,7 +4560,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4549,7 +4568,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4558,7 +4577,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4566,7 +4585,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4575,7 +4594,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4583,7 +4602,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4592,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4600,7 +4619,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4609,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4617,7 +4636,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4626,7 +4645,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4634,7 +4653,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4643,7 +4662,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4651,7 +4670,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4660,7 +4679,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4668,7 +4687,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4677,7 +4696,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,7 +4704,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4694,7 +4713,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4702,7 +4721,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4711,7 +4730,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4719,19 +4738,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4739,7 +4758,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4748,7 +4767,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4756,7 +4775,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4765,7 +4784,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4773,7 +4792,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4782,7 +4801,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4790,7 +4809,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4799,7 +4818,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4807,7 +4826,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4816,7 +4835,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4824,7 +4843,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4833,7 +4852,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4841,7 +4860,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4850,7 +4869,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4858,7 +4877,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4867,7 +4886,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4875,7 +4894,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4884,7 +4903,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4892,7 +4911,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4902,7 +4921,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4910,7 +4929,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4919,7 +4938,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4927,7 +4946,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4936,7 +4955,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4944,7 +4963,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4953,7 +4972,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4961,7 +4980,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4970,7 +4989,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4978,7 +4997,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4987,7 +5006,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4995,7 +5014,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5004,7 +5023,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5012,7 +5031,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5021,7 +5040,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5029,19 +5048,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5049,7 +5068,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5058,7 +5077,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5066,7 +5085,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5075,7 +5094,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5083,7 +5102,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5092,7 +5111,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5100,7 +5119,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5109,7 +5128,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5117,7 +5136,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5126,7 +5145,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5134,7 +5153,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5143,7 +5162,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5151,7 +5170,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5160,7 +5179,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5168,7 +5187,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5177,7 +5196,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5185,7 +5204,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5194,7 +5213,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5202,19 +5221,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5222,19 +5241,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5242,7 +5261,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5251,7 +5270,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,7 +5278,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5268,7 +5287,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5276,7 +5295,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5285,7 +5304,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5293,7 +5312,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5302,7 +5321,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,7 +5329,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5319,7 +5338,41 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>350</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +5423,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5378,7 +5431,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -5387,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -5434,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5445,7 +5498,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5453,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5464,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5506,10 +5559,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5608,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5563,10 +5616,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5582,7 +5635,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5614,7 +5667,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5631,21 +5684,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>286</v>
+      <c r="B5" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5659,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5684,10 +5737,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5698,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5714,10 +5767,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5737,10 +5790,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5756,7 +5809,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -5774,10 +5827,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D6" s="6">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -5793,10 +5846,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -5812,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5831,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -6920,10 +6973,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="361">
   <si>
     <t>id|行号</t>
   </si>
@@ -1221,30 +1221,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>101#</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;90;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;101;31;#</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>"vip",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1340,10 +1316,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Right_shtx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Right_hd</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1361,14 +1333,6 @@
   </si>
   <si>
     <t>深海探险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>109#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>69#73#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1511,10 +1475,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>119#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>通用转盘</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1559,14 +1519,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>123#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80#122#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_gift","gift_kllb","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1583,8 +1535,90 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#122#61#117#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>"act_048_xnsmt",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>121#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9#80#122#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by_hbyts",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼来袭提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>69#125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>73#</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>124#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#122#61#9#117#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;11#</t>
+  </si>
+  <si>
+    <t>101;11#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90;101;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;101;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;101;11;31;#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1886,8 +1920,8 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2169,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2221,10 +2255,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2235,7 +2269,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2243,10 +2277,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2581,7 +2615,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2634,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2669,7 +2703,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2720,10 +2754,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2731,21 +2765,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2812,7 +2835,7 @@
         <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2923,7 +2946,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>270</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2987,7 +3010,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3024,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3025,7 +3048,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3062,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3060,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3077,7 +3100,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3101,7 +3124,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3115,7 +3138,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3139,7 +3162,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3153,7 +3176,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3166,7 +3189,7 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3177,7 +3200,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3188,10 +3211,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
@@ -3202,7 +3225,7 @@
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="32.875" customWidth="1"/>
@@ -3213,13 +3236,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3233,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3251,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3275,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3415,12 +3438,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="24" t="s">
+        <v>358</v>
+      </c>
       <c r="E12" s="6">
         <v>11</v>
       </c>
@@ -3577,7 +3602,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3757,7 +3782,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4744,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4985,6 +5010,9 @@
       <c r="C102">
         <v>1</v>
       </c>
+      <c r="D102" s="24" t="s">
+        <v>359</v>
+      </c>
       <c r="E102">
         <v>101</v>
       </c>
@@ -4997,7 +5025,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -5006,7 +5034,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5014,7 +5042,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5023,7 +5051,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5031,7 +5059,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5040,7 +5068,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5048,19 +5076,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5068,7 +5096,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5077,7 +5105,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5085,7 +5113,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5094,7 +5122,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5102,7 +5130,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5111,7 +5139,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5119,7 +5147,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5128,7 +5156,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5136,7 +5164,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5145,7 +5173,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5153,7 +5181,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5162,7 +5190,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5170,7 +5198,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5179,7 +5207,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5187,7 +5215,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5196,7 +5224,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5204,7 +5232,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5213,7 +5241,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5221,19 +5249,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5241,19 +5269,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5261,7 +5289,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5270,7 +5298,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5278,7 +5306,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5287,7 +5315,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5295,7 +5323,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5304,7 +5332,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5312,7 +5340,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5321,7 +5349,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5329,7 +5357,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5338,7 +5366,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5346,7 +5374,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5355,7 +5383,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5363,7 +5391,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5372,7 +5400,41 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>349</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5423,7 +5485,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5498,7 +5560,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5562,7 +5624,7 @@
         <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5608,7 +5670,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5635,7 +5697,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5694,11 +5756,11 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>281</v>
+      <c r="B5" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5712,8 +5774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5751,7 +5813,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5770,7 +5832,7 @@
         <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5790,10 +5852,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5865,10 +5927,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5884,10 +5946,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="363">
   <si>
     <t>id|行号</t>
   </si>
@@ -1619,6 +1619,14 @@
   <si>
     <t>16;101;11;31;#</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2582,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3086,7 +3094,7 @@
         <v>279</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3124,7 +3132,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3214,10 +3222,10 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomRight" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="367">
   <si>
     <t>id|行号</t>
   </si>
@@ -858,10 +858,6 @@
   <si>
     <t>72#</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>down2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"sys_active_daily_task",</t>
@@ -1627,6 +1623,26 @@
   <si>
     <t>11#</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_3dby_xyxtg",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>down2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>126#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_shtx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1855,7 +1871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1930,6 +1946,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2255,7 +2274,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2263,10 +2282,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2274,10 +2293,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2285,10 +2304,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2642,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2676,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2711,7 +2730,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2722,7 +2741,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2730,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6"/>
@@ -2740,10 +2759,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2751,10 +2770,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2762,10 +2781,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2773,10 +2792,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2840,10 +2870,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2851,10 +2881,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2862,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2873,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2884,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2954,7 +2984,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3004,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3015,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3053,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3091,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3132,7 +3162,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +3200,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3227,7 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3208,7 +3238,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3219,13 +3249,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A102" sqref="A102"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3244,13 +3274,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3264,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3282,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3300,13 +3330,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3446,13 +3476,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -3610,7 +3640,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3790,7 +3820,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4397,7 +4427,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4423,7 +4453,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4440,7 +4470,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4457,7 +4487,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4474,7 +4504,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4491,7 +4521,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4499,7 +4529,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4508,7 +4538,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4516,7 +4546,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4533,7 +4563,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4542,7 +4572,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4550,7 +4580,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4559,7 +4589,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4567,7 +4597,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4576,7 +4606,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4584,7 +4614,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4593,7 +4623,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4601,7 +4631,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4610,7 +4640,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4618,7 +4648,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4627,7 +4657,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4635,7 +4665,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4644,7 +4674,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4652,7 +4682,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4661,7 +4691,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4669,7 +4699,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4678,7 +4708,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4686,7 +4716,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4695,7 +4725,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4703,7 +4733,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4712,7 +4742,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4720,7 +4750,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4729,7 +4759,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4737,7 +4767,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4746,7 +4776,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4754,7 +4784,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4763,7 +4793,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4771,19 +4801,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4791,7 +4821,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4800,7 +4830,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4808,7 +4838,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4817,7 +4847,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4825,7 +4855,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4834,7 +4864,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4842,7 +4872,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4851,7 +4881,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4859,7 +4889,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4868,7 +4898,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4876,7 +4906,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4885,7 +4915,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4893,7 +4923,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4902,7 +4932,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4910,7 +4940,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4919,7 +4949,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4927,7 +4957,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4936,7 +4966,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4944,7 +4974,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4954,7 +4984,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4962,7 +4992,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4971,7 +5001,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4979,7 +5009,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4988,7 +5018,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4996,7 +5026,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5005,7 +5035,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5013,19 +5043,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -5033,7 +5063,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -5042,7 +5072,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5050,7 +5080,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5059,7 +5089,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5067,7 +5097,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5076,7 +5106,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5084,19 +5114,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5104,7 +5134,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5113,7 +5143,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5121,7 +5151,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5130,7 +5160,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5138,7 +5168,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5147,7 +5177,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5155,7 +5185,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5164,7 +5194,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5172,7 +5202,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5181,7 +5211,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5189,7 +5219,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5198,7 +5228,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5206,7 +5236,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5215,7 +5245,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5223,7 +5253,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5232,7 +5262,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5240,7 +5270,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5249,7 +5279,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5257,19 +5287,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5277,19 +5307,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5297,7 +5327,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5306,7 +5336,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5314,7 +5344,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5323,7 +5353,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5331,7 +5361,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5340,7 +5370,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5348,7 +5378,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5357,7 +5387,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5365,7 +5395,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5374,7 +5404,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5382,7 +5412,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5391,7 +5421,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5399,7 +5429,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5408,7 +5438,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5416,7 +5446,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5425,7 +5455,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5433,7 +5463,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5442,7 +5472,24 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>126</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5540,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5568,7 +5615,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5587,7 +5634,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5629,10 +5676,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5678,7 +5725,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5689,7 +5736,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5765,10 +5812,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5821,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5840,7 +5887,7 @@
         <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5860,10 +5907,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5935,10 +5982,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5954,10 +6001,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="377">
   <si>
     <t>id|行号</t>
   </si>
@@ -292,10 +292,6 @@
   </si>
   <si>
     <t>14#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -860,6 +856,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>down2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"sys_active_daily_task",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1395,10 +1395,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"by3d_ad_mfcj",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1431,10 +1427,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>元旦福利</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1536,10 +1528,6 @@
   </si>
   <si>
     <t>新年送茅台</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>121#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1574,6 +1562,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1593,38 +1582,78 @@
     <t>101;11#</t>
   </si>
   <si>
-    <t>101;11#</t>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>16;31;90;101;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;101;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;101;11;31;#</t>
+    <t>11#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;101;31;#11#</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>101;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>101#11#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>11#</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>101#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>126#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"sys_3dby_xyxtg",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1633,15 +1662,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>down2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>126#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Right_shtx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>127#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>128#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2282,10 +2323,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2296,7 +2337,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,10 +2345,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2347,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2395,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2485,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2452,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2494,10 +2535,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,7 +2579,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,10 +2587,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +2636,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2683,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2684,7 +2725,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2697,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2716,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2727,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2738,7 +2779,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>201</v>
@@ -2749,9 +2790,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2795,7 +2838,7 @@
         <v>290</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2803,10 +2846,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2838,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2849,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2943,7 +2986,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2974,7 +3017,9 @@
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -2984,7 +3029,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2992,10 +3037,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3048,7 +3093,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3107,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3086,7 +3131,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3099,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3124,12 +3169,13 @@
         <v>278</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3159,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3173,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3197,9 +3243,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>354</v>
       </c>
     </row>
@@ -3213,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3224,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>269</v>
@@ -3235,10 +3292,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3249,13 +3306,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3294,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3336,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3476,13 +3533,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -3640,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3676,7 +3733,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -3686,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3694,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -3704,7 +3761,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3712,7 +3769,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -3722,7 +3779,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3730,7 +3787,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -3740,7 +3797,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3748,7 +3805,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -3758,7 +3815,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3766,7 +3823,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -3776,7 +3833,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3784,7 +3841,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -3794,7 +3851,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3802,7 +3859,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -3812,7 +3869,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3820,7 +3877,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3830,7 +3887,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,7 +3895,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -3848,7 +3905,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3856,7 +3913,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -3866,7 +3923,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3874,7 +3931,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -3884,7 +3941,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3892,7 +3949,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -3902,7 +3959,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3910,7 +3967,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -3920,7 +3977,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3928,7 +3985,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -3938,7 +3995,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3946,7 +4003,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3956,7 +4013,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3964,7 +4021,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -3974,7 +4031,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3982,7 +4039,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -3992,7 +4049,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4000,7 +4057,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -4010,7 +4067,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4018,7 +4075,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4027,7 +4084,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4035,7 +4092,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4044,7 +4101,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4052,7 +4109,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4061,7 +4118,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4069,7 +4126,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4078,7 +4135,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4086,7 +4143,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4095,7 +4152,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4103,7 +4160,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4112,7 +4169,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4120,7 +4177,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4129,7 +4186,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4137,7 +4194,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4146,7 +4203,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4154,7 +4211,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4163,7 +4220,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4171,7 +4228,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4180,7 +4237,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4188,7 +4245,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4197,7 +4254,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4205,7 +4262,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4214,7 +4271,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4222,7 +4279,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -4232,7 +4289,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,7 +4297,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4249,7 +4306,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4257,7 +4314,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4266,7 +4323,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4274,7 +4331,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4283,7 +4340,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4291,7 +4348,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4300,7 +4357,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4308,7 +4365,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4317,7 +4374,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4325,7 +4382,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4334,7 +4391,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4342,7 +4399,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4351,7 +4408,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4359,7 +4416,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4368,7 +4425,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4376,7 +4433,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4385,7 +4442,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4393,7 +4450,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4402,7 +4459,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4410,7 +4467,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4419,7 +4476,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4436,7 +4493,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4444,7 +4501,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4461,7 +4518,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4478,7 +4535,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4495,7 +4552,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4512,7 +4569,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4555,7 +4612,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -5049,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -5120,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5287,13 +5344,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="E116">
         <v>115</v>
@@ -5307,19 +5364,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5327,7 +5384,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5336,7 +5393,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5344,7 +5401,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5353,7 +5410,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5361,7 +5418,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5370,7 +5427,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5378,7 +5435,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5387,7 +5444,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5395,7 +5452,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5404,7 +5461,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5412,7 +5469,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5421,7 +5478,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5429,7 +5486,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5438,7 +5495,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5446,7 +5503,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5455,7 +5512,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5463,7 +5520,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5472,7 +5529,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5480,7 +5537,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5489,7 +5546,44 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>127</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E129">
+        <v>128</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5530,7 +5624,9 @@
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -5540,7 +5636,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5548,7 +5644,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -5572,7 +5668,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5604,7 +5700,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5623,10 +5719,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5650,7 +5746,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5679,7 +5775,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5693,7 +5789,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5725,7 +5821,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5733,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>263</v>
@@ -5752,7 +5848,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5784,7 +5880,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5801,10 +5897,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5868,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5884,10 +5980,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5907,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>305</v>
@@ -5926,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -5944,10 +6040,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="D6" s="6">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -5963,10 +6059,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -6001,10 +6097,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -7093,7 +7189,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -37,7 +37,9 @@
     <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
     <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId24"/>
     <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId25"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId26"/>
+    <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId26"/>
+    <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId27"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="380">
   <si>
     <t>id|行号</t>
   </si>
@@ -1125,10 +1127,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>金秋送豪礼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1395,6 +1393,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"by3d_ad_mfcj",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1516,10 +1518,6 @@
   </si>
   <si>
     <t>"ty_gift","gift_cglb","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_act_base","weekly","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1670,19 +1668,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>all</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>58#30#88#42#118#87</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#74#110#11#93</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>128#11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2337,7 +2351,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2683,7 +2697,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2785,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2793,7 +2807,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2824,10 +2838,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2835,10 +2849,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2846,10 +2860,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2930,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3018,7 +3032,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3029,7 +3043,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3093,7 +3107,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3145,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3166,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3222,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3260,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3257,7 +3271,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3270,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3284,7 +3298,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3295,7 +3309,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3306,10 +3320,98 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B129" sqref="B129"/>
@@ -3331,13 +3433,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3369,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3533,13 +3635,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -4510,7 +4612,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4561,7 +4663,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4773,7 +4875,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4864,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4887,7 +4989,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4963,7 +5065,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>245</v>
+        <v>374</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4972,7 +5074,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4980,7 +5082,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4989,7 +5091,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4997,7 +5099,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5006,7 +5108,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5014,7 +5116,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5023,7 +5125,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5031,7 +5133,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5041,7 +5143,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5049,7 +5151,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5058,7 +5160,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5066,7 +5168,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5075,7 +5177,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5083,7 +5185,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5092,7 +5194,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5100,19 +5202,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -5120,7 +5222,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -5129,7 +5231,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5137,7 +5239,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5146,7 +5248,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5154,7 +5256,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5163,7 +5265,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5171,7 +5273,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5183,7 +5285,7 @@
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5191,7 +5293,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5200,7 +5302,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5208,7 +5310,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5217,7 +5319,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5225,7 +5327,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5234,7 +5336,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5242,7 +5344,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5251,7 +5353,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,7 +5361,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5268,7 +5370,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5276,7 +5378,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5285,7 +5387,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5293,7 +5395,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5302,7 +5404,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,7 +5412,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5319,7 +5421,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5327,7 +5429,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5336,7 +5438,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5350,13 +5452,13 @@
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5503,7 +5605,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5512,7 +5614,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5520,7 +5622,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5529,7 +5631,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5537,7 +5639,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5546,7 +5648,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5554,7 +5656,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5563,7 +5665,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5571,19 +5673,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>375</v>
+      <c r="D129" t="s">
+        <v>378</v>
       </c>
       <c r="E129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5625,7 +5727,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5636,7 +5738,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5700,7 +5802,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5711,7 +5813,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5775,7 +5877,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5832,7 +5934,7 @@
         <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5908,10 +6010,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5964,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6006,7 +6108,7 @@
         <v>320</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -6078,10 +6180,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6100,7 +6202,7 @@
         <v>321</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="384">
   <si>
     <t>id|行号</t>
   </si>
@@ -1580,10 +1580,6 @@
     <t>101;11#</t>
   </si>
   <si>
-    <t>actp_no_cjj_gej_exchange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_cjj_gej_exchange</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1688,15 +1684,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40#74#110#11#93</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cpl_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>128#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sgxxl_tower_climbing",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>129#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzx_newplayer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#74#110#130#93</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2697,7 +2713,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2785,7 +2801,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2807,7 +2823,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2860,10 +2876,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3048,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3043,7 +3059,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3145,7 +3161,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3199,7 @@
         <v>277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3238,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3276,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3271,7 +3287,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3309,7 +3325,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3323,7 +3339,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3347,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3391,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3408,13 +3424,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B129" sqref="B129"/>
+      <selection pane="bottomRight" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3635,14 +3651,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>350</v>
-      </c>
+      <c r="D12" s="24"/>
       <c r="E12" s="6">
         <v>11</v>
       </c>
@@ -5065,7 +5079,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5208,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -5639,7 +5653,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5648,7 +5662,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5656,7 +5670,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5665,7 +5679,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5673,19 +5687,59 @@
         <v>128</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
+        <v>376</v>
+      </c>
+      <c r="E129">
+        <v>128</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="E129">
-        <v>127</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>369</v>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>309</v>
+      </c>
+      <c r="E130">
+        <v>129</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E131" s="6">
+        <v>130</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5727,7 +5781,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5738,7 +5792,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5767,10 +5821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5802,7 +5856,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5813,7 +5867,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5835,6 +5889,17 @@
         <v>241</v>
       </c>
       <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>381</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5877,7 +5942,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="388">
   <si>
     <t>id|行号</t>
   </si>
@@ -1640,10 +1640,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>126#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1713,6 +1709,26 @@
   </si>
   <si>
     <t>40#74#110#130#93</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日扩展活动（新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日扩展活动（非新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;93;131#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2768,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2801,7 +2817,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2823,7 +2839,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2876,10 +2892,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +3341,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3363,10 +3379,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3407,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3424,13 +3440,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C130" sqref="C130"/>
+      <selection pane="bottomRight" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3651,7 +3667,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -5079,7 +5095,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5670,7 +5686,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5679,7 +5695,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5693,13 +5709,13 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5707,7 +5723,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5719,7 +5735,7 @@
         <v>129</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5727,19 +5743,39 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C131" s="6">
         <v>1</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E131" s="6">
         <v>130</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>26</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C132" s="6">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>384</v>
+      </c>
+      <c r="E132" s="6">
+        <v>131</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -5856,7 +5892,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5895,10 +5931,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="390">
   <si>
     <t>id|行号</t>
   </si>
@@ -1672,10 +1672,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>120#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>58#30#88#42#118#87</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1712,7 +1708,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_act_base","weekly","enter"</t>
+    <t>"act_ty_gifts","gift_ltlb","enter",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐爬塔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日扩展活动（新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日扩展活动（非新玩家）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1720,11 +1732,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>节日扩展活动（新玩家）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日扩展活动（非新玩家）</t>
+    <t>132#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2785,7 +2793,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2817,7 +2825,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3317,7 +3325,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3341,7 +3349,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3390,7 @@
         <v>370</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3426,7 +3434,7 @@
         <v>370</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3440,13 +3448,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F132" sqref="F132"/>
+      <selection pane="bottomRight" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5709,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5723,10 +5731,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
         <v>309</v>
@@ -5735,7 +5743,7 @@
         <v>129</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5749,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E131" s="6">
         <v>130</v>
@@ -5762,20 +5770,37 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>383</v>
+      <c r="B132" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="C132" s="6">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E132" s="6">
         <v>131</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <v>132</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5892,7 +5917,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5931,10 +5956,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="402">
   <si>
     <t>id|行号</t>
   </si>
@@ -1315,10 +1315,6 @@
   </si>
   <si>
     <t>Right_boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1573,10 +1569,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#122#61#9#117#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>101;11#</t>
   </si>
   <si>
@@ -1656,23 +1648,103 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>all</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>58#30#88#42#118#87</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>128#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sgxxl_tower_climbing",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>129#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzx_newplayer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#74#110#130#93</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐爬塔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日扩展活动（新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日扩展活动（非新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>132#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;93;131#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_lwgp",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王贡品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_gifts","gift_hllb","enter",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>127#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>all</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_act_base","weekly","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>58#30#88#42#118#87</t>
+    <t>103#133#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜（冲金鸡大厅）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1680,63 +1752,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>128#11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sgxxl_tower_climbing",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人限时福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_top</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>129#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrzx_newplayer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40#74#110#130#93</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_gifts","gift_ltlb","enter",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙腾礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐爬塔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日扩展活动（新玩家）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日扩展活动（非新玩家）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxdh_025_notnew</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>132#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>111#112#53#79#36;113;89;93;131#</t>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_btn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>134#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_btn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>134#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_btn</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>134#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#122#61#9#117#134#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1966,7 +2014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2043,6 +2091,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2377,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2391,7 +2442,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,10 +2450,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2792,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2825,7 +2876,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2847,7 +2898,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2881,7 +2932,7 @@
         <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>290</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2892,7 +2943,7 @@
         <v>289</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2900,10 +2951,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3091,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3072,7 +3123,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3083,7 +3134,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3105,6 +3156,17 @@
         <v>31</v>
       </c>
       <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="17" spans="10:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="10:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3147,7 +3209,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3247,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3285,7 @@
         <v>277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3324,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3273,13 +3335,16 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3300,7 +3365,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3311,7 +3376,18 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +3401,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M34" sqref="M33:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3349,7 +3425,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3387,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3431,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3448,13 +3524,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F143" sqref="F143"/>
+      <selection pane="bottomRight" activeCell="F135" sqref="B135:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3479,7 +3555,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3493,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3535,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3675,7 +3751,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3837,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -4017,7 +4093,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -5004,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5103,7 +5179,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5246,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -5317,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5382,7 +5458,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5391,7 +5467,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5399,7 +5475,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5408,7 +5484,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5416,7 +5492,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5425,7 +5501,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5433,7 +5509,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5442,7 +5518,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5450,7 +5526,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5459,7 +5535,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5467,7 +5543,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5476,7 +5552,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5484,19 +5560,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5504,19 +5580,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5524,7 +5600,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5533,7 +5609,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5541,7 +5617,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5550,7 +5626,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5558,7 +5634,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5567,7 +5643,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5575,7 +5651,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5584,7 +5660,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5592,7 +5668,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5601,7 +5677,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5609,7 +5685,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5618,7 +5694,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5626,7 +5702,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5635,7 +5711,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5643,7 +5719,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5652,7 +5728,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5660,7 +5736,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5669,7 +5745,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5677,7 +5753,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5686,7 +5762,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5694,7 +5770,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5703,7 +5779,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5711,19 +5787,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5731,19 +5807,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5751,19 +5827,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C131" s="6">
         <v>1</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E131" s="6">
         <v>130</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5771,19 +5847,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C132" s="6">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E132" s="6">
         <v>131</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5791,7 +5867,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C133" s="6">
         <v>1</v>
@@ -5800,7 +5876,44 @@
         <v>132</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>383</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="E134" s="6">
+        <v>133</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>393</v>
+      </c>
+      <c r="E135">
+        <v>134</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -5812,18 +5925,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5842,7 +5956,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5853,7 +5967,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5873,6 +5987,17 @@
         <v>31</v>
       </c>
       <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -5917,7 +6042,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5928,7 +6053,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5956,10 +6081,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6003,7 +6128,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6049,7 +6174,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6153,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6192,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6211,7 +6336,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -6231,10 +6356,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -6252,7 +6377,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>401</v>
+      </c>
       <c r="D5" s="6">
         <f>'all_enter|所有按钮入口'!E5</f>
         <v>4</v>
@@ -6306,10 +6433,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6325,10 +6452,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="407">
   <si>
     <t>id|行号</t>
   </si>
@@ -1127,10 +1127,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_027_mfflq",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1395,10 +1391,6 @@
   <si>
     <t>"by3d_ad_mfcj",</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11;16;31;93#26#</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>"xycj",</t>
@@ -1569,9 +1561,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>101;11#</t>
-  </si>
-  <si>
     <t>actp_cjj_gej_exchange</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1580,23 +1569,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>11#</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>16;31;90;101#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>11#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>16;31;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1604,26 +1581,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>101#11#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;101;31;#11#</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#11#</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>11#</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_xrxsfl",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1656,10 +1613,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>58#30#88#42#118#87</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1668,10 +1621,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>128#11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"sgxxl_tower_climbing",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1692,10 +1641,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40#74#110#130#93</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐爬塔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1708,15 +1653,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lxdh_025_notnew</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>132#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>111#112#53#79#36;113;89;93;131#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1785,6 +1722,90 @@
   </si>
   <si>
     <t>115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;93#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;93#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>128#11;93#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11;93#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;93;16;31;93#26#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;101;31;#11;93#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;11;93#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11;93#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11;93#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;93#</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;93#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzx_newplayer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐豪礼（新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐豪礼（非新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;136;131;#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#74#110#130#135#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2428,10 +2449,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,7 +2463,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,10 +2471,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +2777,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2788,7 +2809,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2865,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2876,7 +2897,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2898,7 +2919,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2929,10 +2950,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2940,10 +2961,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2951,10 +2972,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +3042,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3091,7 +3112,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3123,7 +3144,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3134,7 +3155,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3162,10 +3183,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="10:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3185,7 +3206,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3209,7 +3230,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3244,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3247,7 +3268,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3260,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3282,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +3321,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3324,7 +3345,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +3359,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3365,7 +3386,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3376,7 +3397,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3384,10 +3405,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3435,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3425,7 +3446,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3438,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3455,7 +3476,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3463,10 +3484,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3499,7 +3520,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3507,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3524,13 +3545,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F135" sqref="B135:F135"/>
+      <selection pane="bottomRight" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3549,13 +3570,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3569,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3587,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3611,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3751,7 +3772,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3913,7 +3934,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -4093,7 +4114,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4726,7 +4747,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4777,7 +4798,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4989,7 +5010,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5080,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5103,7 +5124,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5179,7 +5200,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5188,7 +5209,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>245</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,7 +5217,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5205,7 +5226,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5213,7 +5234,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5222,7 +5243,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5230,7 +5251,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5239,7 +5260,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5247,7 +5268,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5257,7 +5278,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5265,7 +5286,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5274,7 +5295,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5282,7 +5303,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5291,7 +5312,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5299,7 +5320,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5308,7 +5329,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5316,19 +5337,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -5336,7 +5357,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -5345,7 +5366,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5353,7 +5374,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5362,7 +5383,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5370,7 +5391,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5379,7 +5400,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5387,19 +5408,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5407,7 +5428,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5416,7 +5437,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5424,7 +5445,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5433,7 +5454,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5441,7 +5462,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5450,7 +5471,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5458,7 +5479,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5467,7 +5488,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5475,7 +5496,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5484,7 +5505,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5492,7 +5513,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5501,7 +5522,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5509,7 +5530,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5518,7 +5539,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5526,7 +5547,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5535,7 +5556,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5543,7 +5564,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5552,7 +5573,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5560,19 +5581,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5580,19 +5601,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5600,7 +5621,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5609,7 +5630,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5617,7 +5638,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5626,7 +5647,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5634,7 +5655,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5643,7 +5664,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5651,7 +5672,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5660,7 +5681,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5668,7 +5689,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5677,7 +5698,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5685,7 +5706,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5694,7 +5715,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5702,7 +5723,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5711,7 +5732,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5719,7 +5740,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5728,7 +5749,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5736,7 +5757,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5745,7 +5766,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5753,7 +5774,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5762,7 +5783,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5770,7 +5791,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5779,7 +5800,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5787,19 +5808,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5807,19 +5828,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5827,19 +5848,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C131" s="6">
         <v>1</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="E131" s="6">
         <v>130</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5847,19 +5868,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C132" s="6">
         <v>1</v>
       </c>
-      <c r="D132" t="s">
-        <v>382</v>
+      <c r="D132" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="E132" s="6">
         <v>131</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5867,7 +5888,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C133" s="6">
         <v>1</v>
@@ -5876,7 +5897,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5884,7 +5905,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C134" s="6">
         <v>1</v>
@@ -5893,7 +5914,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5901,19 +5922,59 @@
         <v>134</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>391</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E136">
+        <v>135</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E137">
+        <v>136</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5928,7 +5989,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5956,7 +6017,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5967,7 +6028,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5993,10 +6054,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -6010,7 +6071,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6042,7 +6103,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6053,7 +6114,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6081,10 +6142,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -6099,7 +6160,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6128,7 +6189,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6142,7 +6203,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6174,7 +6235,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>310</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6185,7 +6246,7 @@
         <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3"/>
     </row>
@@ -6261,10 +6322,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6278,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6317,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6336,7 +6397,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -6356,10 +6417,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -6378,7 +6439,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D5" s="6">
         <f>'all_enter|所有按钮入口'!E5</f>
@@ -6433,10 +6494,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6452,10 +6513,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -7316,7 +7377,7 @@
       </c>
       <c r="E94" s="6" t="str">
         <f>'all_enter|所有按钮入口'!F94</f>
-        <v>金秋送豪礼</v>
+        <v>充值消耗模板</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.2">

--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -36,7 +41,7 @@
     <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId27"/>
     <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -46,7 +51,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="369">
   <si>
     <t>id|行号</t>
   </si>
@@ -442,7 +447,7 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>120#</t>
+    <t>100#</t>
   </si>
   <si>
     <t>all</t>
@@ -1068,7 +1073,7 @@
     <t>街机捕鱼游戏上方区域</t>
   </si>
   <si>
-    <t>"act_029_hlqjd",</t>
+    <t>"act_ty_hlqjd",</t>
   </si>
   <si>
     <t>欢乐敲金蛋</t>
@@ -1303,26 +1308,24 @@
     <t>"act_040_mslb",</t>
   </si>
   <si>
-    <t>by3d_no_cps</t>
+    <t>cpl_notcjj</t>
   </si>
   <si>
     <t>秒杀礼包-捕鱼</t>
   </si>
   <si>
     <t>秒杀礼包-cjj</t>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,7 +1343,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1352,20 +1355,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1379,136 +1375,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1527,8 +1394,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,13 +1419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,7 +1437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,188 +1447,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1784,240 +1486,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2029,10 +1507,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2071,9 +1549,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,67 +1579,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="26">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2422,29 +1857,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2455,84 +1890,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2543,45 +1977,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2592,43 +2025,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2639,50 +2071,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2693,38 +2124,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2735,54 +2165,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2793,44 +2222,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2841,39 +2269,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2884,40 +2311,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2931,19 +2357,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2953,8 +2379,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2965,8 +2391,8 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2976,8 +2402,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2987,8 +2413,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2998,8 +2424,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="18">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3009,8 +2435,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="23">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3021,28 +2447,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:4">
+    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3056,18 +2481,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3077,7 +2502,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3088,7 +2513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3099,7 +2524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3110,7 +2535,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3121,7 +2546,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3132,44 +2557,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="22"/>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3180,83 +2604,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" ht="15"/>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="27"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3267,35 +2688,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3306,35 +2726,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3345,36 +2764,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3385,38 +2803,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3427,30 +2844,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="21">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3461,23 +2878,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3488,38 +2904,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="5" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3541,30 +2956,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +2989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3586,29 +3000,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D147" sqref="D147"/>
+      <selection pane="bottomRight" activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
@@ -3619,7 +3031,7 @@
     <col min="7" max="7" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
@@ -3639,7 +3051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3657,7 +3069,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3675,7 +3087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3695,7 +3107,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3713,7 +3125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3731,7 +3143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3749,7 +3161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3767,7 +3179,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3785,7 +3197,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3803,7 +3215,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3821,7 +3233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3839,7 +3251,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3857,7 +3269,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3875,7 +3287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3893,7 +3305,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3911,7 +3323,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3929,7 +3341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3947,7 +3359,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3965,7 +3377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3983,7 +3395,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4001,7 +3413,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4019,7 +3431,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4037,7 +3449,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4055,7 +3467,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4073,7 +3485,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4091,7 +3503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4109,7 +3521,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4127,7 +3539,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4145,7 +3557,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4163,7 +3575,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4181,7 +3593,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4199,7 +3611,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4217,7 +3629,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4235,7 +3647,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4253,7 +3665,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4271,7 +3683,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4289,7 +3701,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4307,7 +3719,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4325,7 +3737,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4343,7 +3755,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4361,7 +3773,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4378,7 +3790,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4395,7 +3807,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4412,7 +3824,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4429,7 +3841,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4446,7 +3858,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4463,7 +3875,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4480,7 +3892,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4497,7 +3909,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4514,7 +3926,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4531,7 +3943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4548,7 +3960,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4565,7 +3977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4583,7 +3995,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4600,7 +4012,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4617,7 +4029,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4634,7 +4046,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4651,7 +4063,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4668,7 +4080,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4685,7 +4097,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4702,7 +4114,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4719,7 +4131,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4736,7 +4148,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4753,7 +4165,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4770,7 +4182,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4787,7 +4199,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4804,7 +4216,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4821,7 +4233,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4838,7 +4250,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4855,7 +4267,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4872,7 +4284,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4889,7 +4301,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4906,7 +4318,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4923,7 +4335,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4940,7 +4352,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4957,7 +4369,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4974,7 +4386,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4991,7 +4403,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5008,7 +4420,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5025,7 +4437,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5042,7 +4454,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5059,7 +4471,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5076,7 +4488,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5093,7 +4505,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5110,7 +4522,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5127,7 +4539,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5144,7 +4556,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5164,7 +4576,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5181,7 +4593,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5198,7 +4610,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5215,7 +4627,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5232,7 +4644,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5249,7 +4661,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5266,7 +4678,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5283,7 +4695,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5300,7 +4712,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5317,7 +4729,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5335,7 +4747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5352,7 +4764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5369,7 +4781,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5386,7 +4798,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5406,7 +4818,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" spans="1:6">
+    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5423,7 +4835,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5440,7 +4852,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" spans="1:6">
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5457,7 +4869,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5477,7 +4889,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5494,7 +4906,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5511,7 +4923,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:6">
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5528,7 +4940,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5545,7 +4957,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5562,7 +4974,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5579,7 +4991,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5596,7 +5008,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5613,7 +5025,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5630,7 +5042,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5650,7 +5062,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5670,7 +5082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:6">
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5687,7 +5099,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5704,7 +5116,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5721,7 +5133,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5738,7 +5150,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5755,7 +5167,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5772,7 +5184,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5789,7 +5201,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5806,7 +5218,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5823,7 +5235,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5840,7 +5252,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5857,7 +5269,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5877,7 +5289,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5897,7 +5309,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5917,7 +5329,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5937,7 +5349,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5954,7 +5366,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5971,7 +5383,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:6">
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5991,7 +5403,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6011,7 +5423,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6031,7 +5443,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="138" ht="15.75" spans="1:6">
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6051,7 +5463,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="139" ht="15.75" spans="1:6">
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6071,12 +5483,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>280</v>
+      <c r="B140" s="28" t="s">
+        <v>368</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -6090,28 +5502,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6122,83 +5533,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="23">
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6209,83 +5619,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6296,7 +5705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6308,31 +5717,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6343,18 +5751,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6367,32 +5775,31 @@
       <c r="D3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6403,75 +5810,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="18">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:5">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6488,14 +5894,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -6507,14 +5913,14 @@
         <v>快乐礼包</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="18">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6530,14 +5936,14 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="18">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6549,14 +5955,14 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="18">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6569,14 +5975,14 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6588,14 +5994,14 @@
         <v>新人红包</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="18">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6607,14 +6013,14 @@
         <v>大厅千元赛</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="18">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6626,14 +6032,14 @@
         <v>首充礼包</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="18">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6645,8 +6051,8 @@
         <v>鲸鱼福利</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="19"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6656,9 +6062,9 @@
         <v>限时福利</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
@@ -6668,7 +6074,7 @@
         <v>月卡</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="5">
         <f>'all_enter|所有按钮入口'!E12</f>
         <v>11</v>
@@ -6678,7 +6084,7 @@
         <v>节日扩展活动</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="5">
         <f>'all_enter|所有按钮入口'!E13</f>
         <v>12</v>
@@ -6688,7 +6094,7 @@
         <v>幸运降临</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="5">
         <f>'all_enter|所有按钮入口'!E14</f>
         <v>13</v>
@@ -6698,7 +6104,7 @@
         <v>消消乐水果排行榜</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="5">
         <f>'all_enter|所有按钮入口'!E15</f>
         <v>14</v>
@@ -6708,7 +6114,7 @@
         <v>水浒消消乐每日任务</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="5">
         <f>'all_enter|所有按钮入口'!E16</f>
         <v>15</v>
@@ -6718,7 +6124,7 @@
         <v>水果消消乐每日任务</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="5">
         <f>'all_enter|所有按钮入口'!E17</f>
         <v>16</v>
@@ -6728,7 +6134,7 @@
         <v>新人专属</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="5">
         <f>'all_enter|所有按钮入口'!E18</f>
         <v>17</v>
@@ -6738,7 +6144,7 @@
         <v>捕鱼达人榜</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="5">
         <f>'all_enter|所有按钮入口'!E19</f>
         <v>18</v>
@@ -6748,7 +6154,7 @@
         <v>千元赛提示</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="5">
         <f>'all_enter|所有按钮入口'!E20</f>
         <v>19</v>
@@ -6758,7 +6164,7 @@
         <v>捕鱼比赛提示</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="5">
         <f>'all_enter|所有按钮入口'!E21</f>
         <v>20</v>
@@ -6768,7 +6174,7 @@
         <v>捕鱼门票</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="5">
         <f>'all_enter|所有按钮入口'!E22</f>
         <v>21</v>
@@ -6778,7 +6184,7 @@
         <v>感恩有礼</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="5">
         <f>'all_enter|所有按钮入口'!E23</f>
         <v>22</v>
@@ -6788,7 +6194,7 @@
         <v>雪球大作战</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="5">
         <f>'all_enter|所有按钮入口'!E24</f>
         <v>23</v>
@@ -6798,7 +6204,7 @@
         <v>推广礼包</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="5">
         <f>'all_enter|所有按钮入口'!E25</f>
         <v>24</v>
@@ -6808,7 +6214,7 @@
         <v>疯狂双12</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="5">
         <f>'all_enter|所有按钮入口'!E26</f>
         <v>25</v>
@@ -6818,7 +6224,7 @@
         <v>财神模式</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="5">
         <f>'all_enter|所有按钮入口'!E27</f>
         <v>26</v>
@@ -6828,7 +6234,7 @@
         <v>新版新人红包</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="5">
         <f>'all_enter|所有按钮入口'!E28</f>
         <v>27</v>
@@ -6838,7 +6244,7 @@
         <v>新版1元礼包</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="5">
         <f>'all_enter|所有按钮入口'!E29</f>
         <v>28</v>
@@ -6848,7 +6254,7 @@
         <v>圣诞敲敲乐</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="5">
         <f>'all_enter|所有按钮入口'!E30</f>
         <v>29</v>
@@ -6858,7 +6264,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="5">
         <f>'all_enter|所有按钮入口'!E31</f>
         <v>30</v>
@@ -6868,7 +6274,7 @@
         <v>每日特惠礼包</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="5">
         <f>'all_enter|所有按钮入口'!E32</f>
         <v>31</v>
@@ -6878,7 +6284,7 @@
         <v>欢庆元旦</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="5">
         <f>'all_enter|所有按钮入口'!E33</f>
         <v>32</v>
@@ -6888,7 +6294,7 @@
         <v>水浒图标</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="5">
         <f>'all_enter|所有按钮入口'!E34</f>
         <v>33</v>
@@ -6898,7 +6304,7 @@
         <v>随机鲸币</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="5">
         <f>'all_enter|所有按钮入口'!E35</f>
         <v>34</v>
@@ -6908,7 +6314,7 @@
         <v>飞-红包</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="5">
         <f>'all_enter|所有按钮入口'!E36</f>
         <v>35</v>
@@ -6918,7 +6324,7 @@
         <v>浪漫情人节</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="5">
         <f>'all_enter|所有按钮入口'!E37</f>
         <v>36</v>
@@ -6928,7 +6334,7 @@
         <v>新人七天乐</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="5">
         <f>'all_enter|所有按钮入口'!E38</f>
         <v>37</v>
@@ -6938,7 +6344,7 @@
         <v>分享拉新</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="5">
         <f>'all_enter|所有按钮入口'!E39</f>
         <v>38</v>
@@ -6948,7 +6354,7 @@
         <v>龙腾祈福</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="5">
         <f>'all_enter|所有按钮入口'!E40</f>
         <v>39</v>
@@ -6958,7 +6364,7 @@
         <v>房卡场入口</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="5">
         <f>'all_enter|所有按钮入口'!E41</f>
         <v>40</v>
@@ -6968,7 +6374,7 @@
         <v>幸运彩贝</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D42" s="5">
         <f>'all_enter|所有按钮入口'!E42</f>
         <v>41</v>
@@ -6978,7 +6384,7 @@
         <v>植树礼物</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="5">
         <f>'all_enter|所有按钮入口'!E43</f>
         <v>42</v>
@@ -6988,7 +6394,7 @@
         <v>季卡</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="5">
         <f>'all_enter|所有按钮入口'!E44</f>
         <v>43</v>
@@ -6998,7 +6404,7 @@
         <v>彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="5">
         <f>'all_enter|所有按钮入口'!E45</f>
         <v>44</v>
@@ -7008,7 +6414,7 @@
         <v>0元礼包</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="5">
         <f>'all_enter|所有按钮入口'!E46</f>
         <v>45</v>
@@ -7018,7 +6424,7 @@
         <v>红包分享</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="5">
         <f>'all_enter|所有按钮入口'!E47</f>
         <v>46</v>
@@ -7028,7 +6434,7 @@
         <v>财神消消乐</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="5">
         <f>'all_enter|所有按钮入口'!E48</f>
         <v>47</v>
@@ -7038,7 +6444,7 @@
         <v>随机领红包</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="5">
         <f>'all_enter|所有按钮入口'!E49</f>
         <v>48</v>
@@ -7048,7 +6454,7 @@
         <v>回归惊喜</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="5">
         <f>'all_enter|所有按钮入口'!E50</f>
         <v>49</v>
@@ -7058,7 +6464,7 @@
         <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="5">
         <f>'all_enter|所有按钮入口'!E51</f>
         <v>50</v>
@@ -7068,17 +6474,17 @@
         <v>疯狂返利</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="5">
         <f>'all_enter|所有按钮入口'!E52</f>
         <v>51</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F52</f>
-        <v> 抽空调</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5">
+        <v xml:space="preserve"> 抽空调</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="5">
         <f>'all_enter|所有按钮入口'!E53</f>
         <v>52</v>
@@ -7088,7 +6494,7 @@
         <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="5">
         <f>'all_enter|所有按钮入口'!E54</f>
         <v>53</v>
@@ -7098,7 +6504,7 @@
         <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="5">
         <f>'all_enter|所有按钮入口'!E55</f>
         <v>54</v>
@@ -7108,7 +6514,7 @@
         <v>连购返利</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="5">
         <f>'all_enter|所有按钮入口'!E56</f>
         <v>55</v>
@@ -7118,7 +6524,7 @@
         <v>免费红包</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="5">
         <f>'all_enter|所有按钮入口'!E57</f>
         <v>56</v>
@@ -7128,7 +6534,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="5">
         <f>'all_enter|所有按钮入口'!E58</f>
         <v>57</v>
@@ -7138,7 +6544,7 @@
         <v>消消乐红包任务</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="5">
         <f>'all_enter|所有按钮入口'!E59</f>
         <v>58</v>
@@ -7148,7 +6554,7 @@
         <v>新首充礼包</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="5">
         <f>'all_enter|所有按钮入口'!E60</f>
         <v>59</v>
@@ -7158,7 +6564,7 @@
         <v>母亲节特惠</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="5">
         <f>'all_enter|所有按钮入口'!E61</f>
         <v>60</v>
@@ -7168,7 +6574,7 @@
         <v>水果消消乐</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="5">
         <f>'all_enter|所有按钮入口'!E62</f>
         <v>61</v>
@@ -7178,7 +6584,7 @@
         <v>存钱罐</v>
       </c>
     </row>
-    <row r="63" spans="4:5">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="5">
         <f>'all_enter|所有按钮入口'!E63</f>
         <v>62</v>
@@ -7188,7 +6594,7 @@
         <v>问题反馈</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="5">
         <f>'all_enter|所有按钮入口'!E64</f>
         <v>63</v>
@@ -7198,7 +6604,7 @@
         <v>3D捕鱼测试排行榜</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="5">
         <f>'all_enter|所有按钮入口'!E65</f>
         <v>64</v>
@@ -7208,7 +6614,7 @@
         <v>排名赛</v>
       </c>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="5">
         <f>'all_enter|所有按钮入口'!E66</f>
         <v>65</v>
@@ -7218,7 +6624,7 @@
         <v>3D捕鱼奖池-大厅显示奖池图标</v>
       </c>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="5">
         <f>'all_enter|所有按钮入口'!E67</f>
         <v>66</v>
@@ -7228,7 +6634,7 @@
         <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="5">
         <f>'all_enter|所有按钮入口'!E68</f>
         <v>67</v>
@@ -7238,7 +6644,7 @@
         <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="5">
         <f>'all_enter|所有按钮入口'!E69</f>
         <v>68</v>
@@ -7248,7 +6654,7 @@
         <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="5">
         <f>'all_enter|所有按钮入口'!E70</f>
         <v>69</v>
@@ -7258,7 +6664,7 @@
         <v>3D捕鱼奖池-游戏内显示奖池图标</v>
       </c>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="5">
         <f>'all_enter|所有按钮入口'!E71</f>
         <v>70</v>
@@ -7268,7 +6674,7 @@
         <v>3D捕鱼奖池-显示说明界面</v>
       </c>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" s="5">
         <f>'all_enter|所有按钮入口'!E72</f>
         <v>71</v>
@@ -7278,7 +6684,7 @@
         <v>3D捕鱼开炮送红包-场次2大厅显示</v>
       </c>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" s="5">
         <f>'all_enter|所有按钮入口'!E73</f>
         <v>72</v>
@@ -7288,7 +6694,7 @@
         <v>兑换按钮</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" s="5">
         <f>'all_enter|所有按钮入口'!E74</f>
         <v>73</v>
@@ -7298,7 +6704,7 @@
         <v>boss来袭</v>
       </c>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" s="5">
         <f>'all_enter|所有按钮入口'!E75</f>
         <v>74</v>
@@ -7308,7 +6714,7 @@
         <v>活跃任务</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" s="5">
         <f>'all_enter|所有按钮入口'!E76</f>
         <v>75</v>
@@ -7318,7 +6724,7 @@
         <v>3D捕鱼开炮送红包-场次3大厅显示</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" s="5">
         <f>'all_enter|所有按钮入口'!E77</f>
         <v>76</v>
@@ -7328,7 +6734,7 @@
         <v>3D捕鱼开炮送红包-场次4大厅显示</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" s="5">
         <f>'all_enter|所有按钮入口'!E78</f>
         <v>77</v>
@@ -7338,7 +6744,7 @@
         <v>3D捕鱼开炮送红包-场次5大厅显示</v>
       </c>
     </row>
-    <row r="79" spans="4:5">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" s="5">
         <f>'all_enter|所有按钮入口'!E79</f>
         <v>78</v>
@@ -7348,7 +6754,7 @@
         <v>3D捕鱼开炮送红包-游戏内</v>
       </c>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" s="5">
         <f>'all_enter|所有按钮入口'!E80</f>
         <v>79</v>
@@ -7358,7 +6764,7 @@
         <v>炮台升级按钮</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="5">
         <f>'all_enter|所有按钮入口'!E81</f>
         <v>80</v>
@@ -7368,7 +6774,7 @@
         <v>畅玩卡</v>
       </c>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="5">
         <f>'all_enter|所有按钮入口'!E82</f>
         <v>81</v>
@@ -7378,7 +6784,7 @@
         <v>3D捕鱼挑战任务</v>
       </c>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="5">
         <f>'all_enter|所有按钮入口'!E83</f>
         <v>82</v>
@@ -7388,7 +6794,7 @@
         <v>3D捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="5">
         <f>'all_enter|所有按钮入口'!E84</f>
         <v>83</v>
@@ -7398,7 +6804,7 @@
         <v>师徒系统</v>
       </c>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="5">
         <f>'all_enter|所有按钮入口'!E85</f>
         <v>84</v>
@@ -7408,7 +6814,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="5">
         <f>'all_enter|所有按钮入口'!E86</f>
         <v>85</v>
@@ -7418,7 +6824,7 @@
         <v>签到</v>
       </c>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="5">
         <f>'all_enter|所有按钮入口'!E87</f>
         <v>86</v>
@@ -7428,7 +6834,7 @@
         <v>3D捕鱼自动开炮</v>
       </c>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="5">
         <f>'all_enter|所有按钮入口'!E88</f>
         <v>87</v>
@@ -7438,7 +6844,7 @@
         <v>免费抽奖-广告</v>
       </c>
     </row>
-    <row r="89" spans="4:5">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="5">
         <f>'all_enter|所有按钮入口'!E89</f>
         <v>88</v>
@@ -7448,7 +6854,7 @@
         <v>超值礼包</v>
       </c>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="5">
         <f>'all_enter|所有按钮入口'!E90</f>
         <v>89</v>
@@ -7458,7 +6864,7 @@
         <v>新人抽大奖</v>
       </c>
     </row>
-    <row r="91" spans="4:5">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="5">
         <f>'all_enter|所有按钮入口'!E91</f>
         <v>90</v>
@@ -7468,7 +6874,7 @@
         <v>水果消消乐引导</v>
       </c>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="5">
         <f>'all_enter|所有按钮入口'!E92</f>
         <v>91</v>
@@ -7478,7 +6884,7 @@
         <v>水果消消乐大引导</v>
       </c>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="5">
         <f>'all_enter|所有按钮入口'!E93</f>
         <v>92</v>
@@ -7488,7 +6894,7 @@
         <v>推广系统</v>
       </c>
     </row>
-    <row r="94" spans="4:5">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="5">
         <f>'all_enter|所有按钮入口'!E94</f>
         <v>93</v>
@@ -7498,7 +6904,7 @@
         <v>充值消耗模板</v>
       </c>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="5">
         <f>'all_enter|所有按钮入口'!E95</f>
         <v>94</v>
@@ -7508,7 +6914,7 @@
         <v>免费福利券</v>
       </c>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="5">
         <f>'all_enter|所有按钮入口'!E96</f>
         <v>95</v>
@@ -7518,7 +6924,7 @@
         <v>奖池按钮图标</v>
       </c>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="5">
         <f>'all_enter|所有按钮入口'!E97</f>
         <v>96</v>
@@ -7528,7 +6934,7 @@
         <v>奖池游戏内显示</v>
       </c>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="5">
         <f>'all_enter|所有按钮入口'!E98</f>
         <v>97</v>
@@ -7538,7 +6944,7 @@
         <v>免费话费</v>
       </c>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="5">
         <f>'all_enter|所有按钮入口'!E99</f>
         <v>98</v>
@@ -7548,7 +6954,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="5">
         <f>'all_enter|所有按钮入口'!E100</f>
         <v>99</v>
@@ -7558,7 +6964,7 @@
         <v>街机捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="5">
         <f>'all_enter|所有按钮入口'!E101</f>
         <v>100</v>
@@ -7568,7 +6974,7 @@
         <v>欢乐敲金蛋</v>
       </c>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="5">
         <f>'all_enter|所有按钮入口'!E102</f>
         <v>101</v>
@@ -7578,7 +6984,7 @@
         <v>小游戏累计赢金抽福卡</v>
       </c>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="5">
         <f>'all_enter|所有按钮入口'!E103</f>
         <v>102</v>
@@ -7588,7 +6994,7 @@
         <v>畅玩礼包</v>
       </c>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="5">
         <f>'all_enter|所有按钮入口'!E104</f>
         <v>103</v>
@@ -7598,7 +7004,7 @@
         <v>核弹</v>
       </c>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="5">
         <f>'all_enter|所有按钮入口'!E105</f>
         <v>104</v>
@@ -7608,7 +7014,7 @@
         <v>大额福利券（跳转小游戏入口）</v>
       </c>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="5">
         <f>'all_enter|所有按钮入口'!E106</f>
         <v>105</v>
@@ -7618,7 +7024,7 @@
         <v>金鸡送礼（冲金鸡）</v>
       </c>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="5">
         <f>'all_enter|所有按钮入口'!E107</f>
         <v>106</v>
@@ -7628,7 +7034,7 @@
         <v>万圣幸运礼包</v>
       </c>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5">
         <f>'all_enter|所有按钮入口'!E108</f>
         <v>107</v>
@@ -7638,7 +7044,7 @@
         <v>新人专享</v>
       </c>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5">
         <f>'all_enter|所有按钮入口'!E109</f>
         <v>108</v>
@@ -7648,7 +7054,7 @@
         <v>排行榜总入口</v>
       </c>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5">
         <f>'all_enter|所有按钮入口'!E110</f>
         <v>109</v>
@@ -7658,7 +7064,7 @@
         <v>深海探险</v>
       </c>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5">
         <f>'all_enter|所有按钮入口'!E111</f>
         <v>110</v>
@@ -7668,7 +7074,7 @@
         <v>一本万利</v>
       </c>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D112" s="5">
         <f>'all_enter|所有按钮入口'!E112</f>
         <v>111</v>
@@ -7678,7 +7084,7 @@
         <v>UI-精彩活动</v>
       </c>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="5">
         <f>'all_enter|所有按钮入口'!E113</f>
         <v>112</v>
@@ -7688,7 +7094,7 @@
         <v>UI-获取金币</v>
       </c>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="5">
         <f>'all_enter|所有按钮入口'!E114</f>
         <v>113</v>
@@ -7698,7 +7104,7 @@
         <v>新人七天乐（旧）</v>
       </c>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="5">
         <f>'all_enter|所有按钮入口'!E115</f>
         <v>114</v>
@@ -7708,7 +7114,7 @@
         <v>聚划算</v>
       </c>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="5">
         <f>'all_enter|所有按钮入口'!E116</f>
         <v>115</v>
@@ -7718,7 +7124,7 @@
         <v>免费话费(冲金鸡)</v>
       </c>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="5">
         <f>'all_enter|所有按钮入口'!E117</f>
         <v>116</v>
@@ -7728,7 +7134,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="5">
         <f>'all_enter|所有按钮入口'!E118</f>
         <v>117</v>
@@ -7738,7 +7144,7 @@
         <v>元旦福利</v>
       </c>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="5">
         <f>'all_enter|所有按钮入口'!E119</f>
         <v>118</v>
@@ -7748,7 +7154,7 @@
         <v>充值商城</v>
       </c>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="5">
         <f>'all_enter|所有按钮入口'!E120</f>
         <v>119</v>
@@ -7758,7 +7164,7 @@
         <v>游戏互导向斗地主</v>
       </c>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="5">
         <f>'all_enter|所有按钮入口'!E121</f>
         <v>120</v>
@@ -7768,7 +7174,7 @@
         <v>通用转盘</v>
       </c>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="5">
         <f>'all_enter|所有按钮入口'!E122</f>
         <v>121</v>
@@ -7778,7 +7184,7 @@
         <v>发财礼包</v>
       </c>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="5">
         <f>'all_enter|所有按钮入口'!E123</f>
         <v>122</v>
@@ -7788,7 +7194,7 @@
         <v>赢一把就睡觉</v>
       </c>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="5">
         <f>'all_enter|所有按钮入口'!E124</f>
         <v>123</v>
@@ -7798,7 +7204,7 @@
         <v>疯狂砸金蛋</v>
       </c>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="5">
         <f>'all_enter|所有按钮入口'!E125</f>
         <v>124</v>
@@ -7808,7 +7214,7 @@
         <v>新年送茅台</v>
       </c>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="5">
         <f>'all_enter|所有按钮入口'!E126</f>
         <v>125</v>
@@ -7818,7 +7224,7 @@
         <v>红包鱼来袭提示</v>
       </c>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="5">
         <f>'all_enter|所有按钮入口'!E127</f>
         <v>126</v>
@@ -7828,7 +7234,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="5">
         <f>'all_enter|所有按钮入口'!E128</f>
         <v>127</v>
@@ -7838,7 +7244,7 @@
         <v>小游戏托管</v>
       </c>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D129" s="5">
         <f>'all_enter|所有按钮入口'!E129</f>
         <v>128</v>
@@ -7848,7 +7254,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D130" s="5">
         <f>'all_enter|所有按钮入口'!E130</f>
         <v>129</v>
@@ -7858,7 +7264,7 @@
         <v>水果消消乐爬塔</v>
       </c>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D131" s="5">
         <f>'all_enter|所有按钮入口'!E131</f>
         <v>130</v>
@@ -7868,7 +7274,7 @@
         <v>节日扩展活动（新玩家）</v>
       </c>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D132" s="5">
         <f>'all_enter|所有按钮入口'!E132</f>
         <v>131</v>
@@ -7878,7 +7284,7 @@
         <v>节日扩展活动（非新玩家）</v>
       </c>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D133" s="5">
         <f>'all_enter|所有按钮入口'!E133</f>
         <v>132</v>
@@ -7888,7 +7294,7 @@
         <v>欢乐礼包</v>
       </c>
     </row>
-    <row r="134" spans="4:5">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D134" s="5">
         <f>'all_enter|所有按钮入口'!E134</f>
         <v>133</v>
@@ -7898,7 +7304,7 @@
         <v>龙王贡品</v>
       </c>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="5">
         <f>'all_enter|所有按钮入口'!E135</f>
         <v>134</v>
@@ -7908,7 +7314,7 @@
         <v>排行榜（冲金鸡大厅）</v>
       </c>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D136" s="5">
         <f>'all_enter|所有按钮入口'!E136</f>
         <v>135</v>
@@ -7918,7 +7324,7 @@
         <v>欢乐豪礼（新玩家）</v>
       </c>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="5">
         <f>'all_enter|所有按钮入口'!E137</f>
         <v>136</v>
@@ -7928,7 +7334,7 @@
         <v>欢乐豪礼（非新玩家）</v>
       </c>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D138" s="5">
         <f>'all_enter|所有按钮入口'!E138</f>
         <v>137</v>
@@ -7938,7 +7344,7 @@
         <v>秒杀礼包-捕鱼</v>
       </c>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D139" s="5">
         <f>'all_enter|所有按钮入口'!E139</f>
         <v>138</v>
@@ -7948,7 +7354,7 @@
         <v>秒杀礼包-cjj</v>
       </c>
     </row>
-    <row r="140" spans="4:5">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D140" s="5">
         <f>'all_enter|所有按钮入口'!E140</f>
         <v>139</v>
@@ -7959,33 +7365,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7996,20 +7401,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -41,7 +36,7 @@
     <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId27"/>
     <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -51,7 +46,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="368">
   <si>
     <t>id|行号</t>
   </si>
@@ -447,7 +442,7 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>100#</t>
+    <t>132#</t>
   </si>
   <si>
     <t>all</t>
@@ -1284,10 +1279,10 @@
     <t>节日扩展活动（非新玩家）</t>
   </si>
   <si>
-    <t>"act_ty_gifts","gift_hllb","enter",</t>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
+    <t>"act_ty_gifts","gift_hflb","enter",</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>"sys_lwgp",</t>
@@ -1315,17 +1310,19 @@
   </si>
   <si>
     <t>秒杀礼包-cjj</t>
-  </si>
-  <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,7 +1340,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1355,13 +1352,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1373,18 +1370,142 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1396,21 +1517,11 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1419,13 +1530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,8 +1558,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1486,18 +1771,242 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1507,10 +2016,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1579,27 +2088,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="26">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1857,19 +2406,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -1879,7 +2428,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +2439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1901,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1912,7 +2461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1923,7 +2472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -1934,7 +2483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1946,27 +2495,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1988,33 +2538,34 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2037,20 +2588,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2060,7 +2612,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2082,7 +2634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2094,26 +2646,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2135,26 +2688,27 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2176,7 +2730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2188,20 +2742,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2211,7 +2766,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2234,21 +2789,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2258,7 +2814,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2281,26 +2837,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2323,27 +2880,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="27" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2368,7 +2926,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2379,7 +2937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2391,7 +2949,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2402,7 +2960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2413,7 +2971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -2424,7 +2982,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -2435,7 +2993,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -2447,27 +3005,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +3040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2492,7 +3051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2502,7 +3061,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2513,7 +3072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2524,7 +3083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2535,7 +3094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2546,7 +3105,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2557,33 +3116,34 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
       <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:3">
       <c r="C11" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2593,7 +3153,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2615,7 +3175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2626,7 +3186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2637,7 +3197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2646,7 +3206,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2657,27 +3217,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="17" ht="15"/>
+    <row r="18" ht="15.75" spans="10:10">
       <c r="J18" s="27"/>
     </row>
+    <row r="19" ht="15"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2700,22 +3263,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +3290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2738,22 +3302,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2776,23 +3341,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +3369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2815,25 +3381,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +3411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2855,7 +3422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2866,7 +3433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -2878,22 +3445,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2904,7 +3472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2916,25 +3484,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2945,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2956,29 +3525,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:3">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2989,7 +3559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3000,27 +3570,29 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:3">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G142" sqref="G142"/>
+      <selection pane="bottomRight" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
@@ -3031,7 +3603,7 @@
     <col min="7" max="7" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="34.5" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
@@ -3051,7 +3623,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3069,7 +3641,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3087,7 +3659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3107,7 +3679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3125,7 +3697,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3143,7 +3715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3161,7 +3733,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3179,7 +3751,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3197,7 +3769,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3215,7 +3787,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3233,7 +3805,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3251,7 +3823,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3269,7 +3841,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3287,7 +3859,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3305,7 +3877,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3323,7 +3895,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3341,7 +3913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3359,7 +3931,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3377,7 +3949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3395,7 +3967,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3413,7 +3985,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3431,7 +4003,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3449,7 +4021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3467,7 +4039,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3485,7 +4057,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3503,7 +4075,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3521,7 +4093,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3539,7 +4111,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3557,7 +4129,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3575,7 +4147,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3593,7 +4165,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3611,7 +4183,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3629,7 +4201,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3647,7 +4219,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3665,7 +4237,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3683,7 +4255,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3701,7 +4273,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3719,7 +4291,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3737,7 +4309,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3755,7 +4327,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3773,7 +4345,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3790,7 +4362,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3807,7 +4379,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3824,7 +4396,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3841,7 +4413,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3858,7 +4430,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3875,7 +4447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3892,7 +4464,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3909,7 +4481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3926,7 +4498,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3943,7 +4515,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3960,7 +4532,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3977,7 +4549,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3995,7 +4567,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4012,7 +4584,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4029,7 +4601,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4046,7 +4618,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4063,7 +4635,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4080,7 +4652,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4097,7 +4669,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4114,7 +4686,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4131,7 +4703,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4148,7 +4720,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4165,7 +4737,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4182,7 +4754,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4199,7 +4771,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4216,7 +4788,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4233,7 +4805,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4250,7 +4822,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4267,7 +4839,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4284,7 +4856,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4301,7 +4873,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4318,7 +4890,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4335,7 +4907,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4352,7 +4924,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4369,7 +4941,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4386,7 +4958,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4403,7 +4975,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4420,7 +4992,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4437,7 +5009,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4454,7 +5026,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4471,7 +5043,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4488,7 +5060,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4505,7 +5077,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4522,7 +5094,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4539,7 +5111,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4556,7 +5128,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4576,7 +5148,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4593,7 +5165,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4610,7 +5182,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4627,7 +5199,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4644,7 +5216,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4661,7 +5233,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4678,7 +5250,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4695,7 +5267,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4712,7 +5284,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4729,7 +5301,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4747,7 +5319,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4764,7 +5336,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4781,7 +5353,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4798,7 +5370,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4818,7 +5390,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" s="1" customFormat="1" spans="1:6">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4835,7 +5407,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4852,7 +5424,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" s="2" customFormat="1" spans="1:6">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -4869,7 +5441,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4889,7 +5461,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4906,7 +5478,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4923,7 +5495,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" ht="16.5" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4940,7 +5512,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4957,7 +5529,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4974,7 +5546,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4991,7 +5563,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5008,7 +5580,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5025,7 +5597,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5042,7 +5614,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5062,7 +5634,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5082,7 +5654,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" ht="16.5" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5099,7 +5671,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5116,7 +5688,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5133,7 +5705,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5150,7 +5722,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5167,7 +5739,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5184,7 +5756,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5201,7 +5773,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5218,7 +5790,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5235,7 +5807,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5252,7 +5824,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5269,7 +5841,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5289,7 +5861,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5309,7 +5881,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5329,7 +5901,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5349,7 +5921,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5366,7 +5938,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5383,7 +5955,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" ht="16.5" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5403,7 +5975,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5423,7 +5995,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5443,7 +6015,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="138" ht="15.75" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5463,7 +6035,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="139" ht="15.75" spans="1:6">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5483,12 +6055,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="28" t="s">
-        <v>368</v>
+      <c r="B140" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5502,27 +6074,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +6106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -5544,7 +6117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -5555,7 +6128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -5564,7 +6137,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5573,7 +6146,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -5585,20 +6158,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -5608,7 +6182,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5619,7 +6193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -5630,7 +6204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -5641,7 +6215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -5652,7 +6226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5661,7 +6235,7 @@
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5673,28 +6247,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5705,7 +6280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5717,20 +6292,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -5740,7 +6316,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5751,7 +6327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -5762,7 +6338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5775,21 +6351,22 @@
       <c r="D3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -5799,7 +6376,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5810,7 +6387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -5821,7 +6398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -5830,7 +6407,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -5841,7 +6418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5853,21 +6430,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -5877,7 +6455,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5894,7 +6472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -5913,7 +6491,7 @@
         <v>快乐礼包</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -5936,7 +6514,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -5955,7 +6533,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5975,7 +6553,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5994,7 +6572,7 @@
         <v>新人红包</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -6013,7 +6591,7 @@
         <v>大厅千元赛</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -6032,7 +6610,7 @@
         <v>首充礼包</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -6051,7 +6629,7 @@
         <v>鲸鱼福利</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5">
       <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
@@ -6062,7 +6640,7 @@
         <v>限时福利</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5">
@@ -6074,7 +6652,7 @@
         <v>月卡</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:5">
       <c r="D12" s="5">
         <f>'all_enter|所有按钮入口'!E12</f>
         <v>11</v>
@@ -6084,7 +6662,7 @@
         <v>节日扩展活动</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:5">
       <c r="D13" s="5">
         <f>'all_enter|所有按钮入口'!E13</f>
         <v>12</v>
@@ -6094,7 +6672,7 @@
         <v>幸运降临</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:5">
       <c r="D14" s="5">
         <f>'all_enter|所有按钮入口'!E14</f>
         <v>13</v>
@@ -6104,7 +6682,7 @@
         <v>消消乐水果排行榜</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:5">
       <c r="D15" s="5">
         <f>'all_enter|所有按钮入口'!E15</f>
         <v>14</v>
@@ -6114,7 +6692,7 @@
         <v>水浒消消乐每日任务</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:5">
       <c r="D16" s="5">
         <f>'all_enter|所有按钮入口'!E16</f>
         <v>15</v>
@@ -6124,7 +6702,7 @@
         <v>水果消消乐每日任务</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5">
       <c r="D17" s="5">
         <f>'all_enter|所有按钮入口'!E17</f>
         <v>16</v>
@@ -6134,7 +6712,7 @@
         <v>新人专属</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5">
       <c r="D18" s="5">
         <f>'all_enter|所有按钮入口'!E18</f>
         <v>17</v>
@@ -6144,7 +6722,7 @@
         <v>捕鱼达人榜</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5">
       <c r="D19" s="5">
         <f>'all_enter|所有按钮入口'!E19</f>
         <v>18</v>
@@ -6154,7 +6732,7 @@
         <v>千元赛提示</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5">
       <c r="D20" s="5">
         <f>'all_enter|所有按钮入口'!E20</f>
         <v>19</v>
@@ -6164,7 +6742,7 @@
         <v>捕鱼比赛提示</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5">
       <c r="D21" s="5">
         <f>'all_enter|所有按钮入口'!E21</f>
         <v>20</v>
@@ -6174,7 +6752,7 @@
         <v>捕鱼门票</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5">
       <c r="D22" s="5">
         <f>'all_enter|所有按钮入口'!E22</f>
         <v>21</v>
@@ -6184,7 +6762,7 @@
         <v>感恩有礼</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5">
       <c r="D23" s="5">
         <f>'all_enter|所有按钮入口'!E23</f>
         <v>22</v>
@@ -6194,7 +6772,7 @@
         <v>雪球大作战</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5">
       <c r="D24" s="5">
         <f>'all_enter|所有按钮入口'!E24</f>
         <v>23</v>
@@ -6204,7 +6782,7 @@
         <v>推广礼包</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5">
       <c r="D25" s="5">
         <f>'all_enter|所有按钮入口'!E25</f>
         <v>24</v>
@@ -6214,7 +6792,7 @@
         <v>疯狂双12</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5">
       <c r="D26" s="5">
         <f>'all_enter|所有按钮入口'!E26</f>
         <v>25</v>
@@ -6224,7 +6802,7 @@
         <v>财神模式</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:5">
       <c r="D27" s="5">
         <f>'all_enter|所有按钮入口'!E27</f>
         <v>26</v>
@@ -6234,7 +6812,7 @@
         <v>新版新人红包</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:5">
       <c r="D28" s="5">
         <f>'all_enter|所有按钮入口'!E28</f>
         <v>27</v>
@@ -6244,7 +6822,7 @@
         <v>新版1元礼包</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:5">
       <c r="D29" s="5">
         <f>'all_enter|所有按钮入口'!E29</f>
         <v>28</v>
@@ -6254,7 +6832,7 @@
         <v>圣诞敲敲乐</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:5">
       <c r="D30" s="5">
         <f>'all_enter|所有按钮入口'!E30</f>
         <v>29</v>
@@ -6264,7 +6842,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:5">
       <c r="D31" s="5">
         <f>'all_enter|所有按钮入口'!E31</f>
         <v>30</v>
@@ -6274,7 +6852,7 @@
         <v>每日特惠礼包</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:5">
       <c r="D32" s="5">
         <f>'all_enter|所有按钮入口'!E32</f>
         <v>31</v>
@@ -6284,7 +6862,7 @@
         <v>欢庆元旦</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="D33" s="5">
         <f>'all_enter|所有按钮入口'!E33</f>
         <v>32</v>
@@ -6294,7 +6872,7 @@
         <v>水浒图标</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="D34" s="5">
         <f>'all_enter|所有按钮入口'!E34</f>
         <v>33</v>
@@ -6304,7 +6882,7 @@
         <v>随机鲸币</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5">
       <c r="D35" s="5">
         <f>'all_enter|所有按钮入口'!E35</f>
         <v>34</v>
@@ -6314,7 +6892,7 @@
         <v>飞-红包</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="D36" s="5">
         <f>'all_enter|所有按钮入口'!E36</f>
         <v>35</v>
@@ -6324,7 +6902,7 @@
         <v>浪漫情人节</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5">
       <c r="D37" s="5">
         <f>'all_enter|所有按钮入口'!E37</f>
         <v>36</v>
@@ -6334,7 +6912,7 @@
         <v>新人七天乐</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5">
       <c r="D38" s="5">
         <f>'all_enter|所有按钮入口'!E38</f>
         <v>37</v>
@@ -6344,7 +6922,7 @@
         <v>分享拉新</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5">
       <c r="D39" s="5">
         <f>'all_enter|所有按钮入口'!E39</f>
         <v>38</v>
@@ -6354,7 +6932,7 @@
         <v>龙腾祈福</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5">
       <c r="D40" s="5">
         <f>'all_enter|所有按钮入口'!E40</f>
         <v>39</v>
@@ -6364,7 +6942,7 @@
         <v>房卡场入口</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5">
       <c r="D41" s="5">
         <f>'all_enter|所有按钮入口'!E41</f>
         <v>40</v>
@@ -6374,7 +6952,7 @@
         <v>幸运彩贝</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5">
       <c r="D42" s="5">
         <f>'all_enter|所有按钮入口'!E42</f>
         <v>41</v>
@@ -6384,7 +6962,7 @@
         <v>植树礼物</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5">
       <c r="D43" s="5">
         <f>'all_enter|所有按钮入口'!E43</f>
         <v>42</v>
@@ -6394,7 +6972,7 @@
         <v>季卡</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5">
       <c r="D44" s="5">
         <f>'all_enter|所有按钮入口'!E44</f>
         <v>43</v>
@@ -6404,7 +6982,7 @@
         <v>彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5">
       <c r="D45" s="5">
         <f>'all_enter|所有按钮入口'!E45</f>
         <v>44</v>
@@ -6414,7 +6992,7 @@
         <v>0元礼包</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5">
       <c r="D46" s="5">
         <f>'all_enter|所有按钮入口'!E46</f>
         <v>45</v>
@@ -6424,7 +7002,7 @@
         <v>红包分享</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5">
       <c r="D47" s="5">
         <f>'all_enter|所有按钮入口'!E47</f>
         <v>46</v>
@@ -6434,7 +7012,7 @@
         <v>财神消消乐</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5">
       <c r="D48" s="5">
         <f>'all_enter|所有按钮入口'!E48</f>
         <v>47</v>
@@ -6444,7 +7022,7 @@
         <v>随机领红包</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5">
       <c r="D49" s="5">
         <f>'all_enter|所有按钮入口'!E49</f>
         <v>48</v>
@@ -6454,7 +7032,7 @@
         <v>回归惊喜</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:5">
       <c r="D50" s="5">
         <f>'all_enter|所有按钮入口'!E50</f>
         <v>49</v>
@@ -6464,7 +7042,7 @@
         <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:5">
       <c r="D51" s="5">
         <f>'all_enter|所有按钮入口'!E51</f>
         <v>50</v>
@@ -6474,17 +7052,17 @@
         <v>疯狂返利</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:5">
       <c r="D52" s="5">
         <f>'all_enter|所有按钮入口'!E52</f>
         <v>51</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F52</f>
-        <v xml:space="preserve"> 抽空调</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+        <v> 抽空调</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
       <c r="D53" s="5">
         <f>'all_enter|所有按钮入口'!E53</f>
         <v>52</v>
@@ -6494,7 +7072,7 @@
         <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:5">
       <c r="D54" s="5">
         <f>'all_enter|所有按钮入口'!E54</f>
         <v>53</v>
@@ -6504,7 +7082,7 @@
         <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:5">
       <c r="D55" s="5">
         <f>'all_enter|所有按钮入口'!E55</f>
         <v>54</v>
@@ -6514,7 +7092,7 @@
         <v>连购返利</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:5">
       <c r="D56" s="5">
         <f>'all_enter|所有按钮入口'!E56</f>
         <v>55</v>
@@ -6524,7 +7102,7 @@
         <v>免费红包</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:5">
       <c r="D57" s="5">
         <f>'all_enter|所有按钮入口'!E57</f>
         <v>56</v>
@@ -6534,7 +7112,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:5">
       <c r="D58" s="5">
         <f>'all_enter|所有按钮入口'!E58</f>
         <v>57</v>
@@ -6544,7 +7122,7 @@
         <v>消消乐红包任务</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:5">
       <c r="D59" s="5">
         <f>'all_enter|所有按钮入口'!E59</f>
         <v>58</v>
@@ -6554,7 +7132,7 @@
         <v>新首充礼包</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:5">
       <c r="D60" s="5">
         <f>'all_enter|所有按钮入口'!E60</f>
         <v>59</v>
@@ -6564,7 +7142,7 @@
         <v>母亲节特惠</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:5">
       <c r="D61" s="5">
         <f>'all_enter|所有按钮入口'!E61</f>
         <v>60</v>
@@ -6574,7 +7152,7 @@
         <v>水果消消乐</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:5">
       <c r="D62" s="5">
         <f>'all_enter|所有按钮入口'!E62</f>
         <v>61</v>
@@ -6584,7 +7162,7 @@
         <v>存钱罐</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:5">
       <c r="D63" s="5">
         <f>'all_enter|所有按钮入口'!E63</f>
         <v>62</v>
@@ -6594,7 +7172,7 @@
         <v>问题反馈</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:5">
       <c r="D64" s="5">
         <f>'all_enter|所有按钮入口'!E64</f>
         <v>63</v>
@@ -6604,7 +7182,7 @@
         <v>3D捕鱼测试排行榜</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:5">
       <c r="D65" s="5">
         <f>'all_enter|所有按钮入口'!E65</f>
         <v>64</v>
@@ -6614,7 +7192,7 @@
         <v>排名赛</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:5">
       <c r="D66" s="5">
         <f>'all_enter|所有按钮入口'!E66</f>
         <v>65</v>
@@ -6624,7 +7202,7 @@
         <v>3D捕鱼奖池-大厅显示奖池图标</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:5">
       <c r="D67" s="5">
         <f>'all_enter|所有按钮入口'!E67</f>
         <v>66</v>
@@ -6634,7 +7212,7 @@
         <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:5">
       <c r="D68" s="5">
         <f>'all_enter|所有按钮入口'!E68</f>
         <v>67</v>
@@ -6644,7 +7222,7 @@
         <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:5">
       <c r="D69" s="5">
         <f>'all_enter|所有按钮入口'!E69</f>
         <v>68</v>
@@ -6654,7 +7232,7 @@
         <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:5">
       <c r="D70" s="5">
         <f>'all_enter|所有按钮入口'!E70</f>
         <v>69</v>
@@ -6664,7 +7242,7 @@
         <v>3D捕鱼奖池-游戏内显示奖池图标</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:5">
       <c r="D71" s="5">
         <f>'all_enter|所有按钮入口'!E71</f>
         <v>70</v>
@@ -6674,7 +7252,7 @@
         <v>3D捕鱼奖池-显示说明界面</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:5">
       <c r="D72" s="5">
         <f>'all_enter|所有按钮入口'!E72</f>
         <v>71</v>
@@ -6684,7 +7262,7 @@
         <v>3D捕鱼开炮送红包-场次2大厅显示</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:5">
       <c r="D73" s="5">
         <f>'all_enter|所有按钮入口'!E73</f>
         <v>72</v>
@@ -6694,7 +7272,7 @@
         <v>兑换按钮</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:5">
       <c r="D74" s="5">
         <f>'all_enter|所有按钮入口'!E74</f>
         <v>73</v>
@@ -6704,7 +7282,7 @@
         <v>boss来袭</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:5">
       <c r="D75" s="5">
         <f>'all_enter|所有按钮入口'!E75</f>
         <v>74</v>
@@ -6714,7 +7292,7 @@
         <v>活跃任务</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:5">
       <c r="D76" s="5">
         <f>'all_enter|所有按钮入口'!E76</f>
         <v>75</v>
@@ -6724,7 +7302,7 @@
         <v>3D捕鱼开炮送红包-场次3大厅显示</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:5">
       <c r="D77" s="5">
         <f>'all_enter|所有按钮入口'!E77</f>
         <v>76</v>
@@ -6734,7 +7312,7 @@
         <v>3D捕鱼开炮送红包-场次4大厅显示</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:5">
       <c r="D78" s="5">
         <f>'all_enter|所有按钮入口'!E78</f>
         <v>77</v>
@@ -6744,7 +7322,7 @@
         <v>3D捕鱼开炮送红包-场次5大厅显示</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:5">
       <c r="D79" s="5">
         <f>'all_enter|所有按钮入口'!E79</f>
         <v>78</v>
@@ -6754,7 +7332,7 @@
         <v>3D捕鱼开炮送红包-游戏内</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:5">
       <c r="D80" s="5">
         <f>'all_enter|所有按钮入口'!E80</f>
         <v>79</v>
@@ -6764,7 +7342,7 @@
         <v>炮台升级按钮</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:5">
       <c r="D81" s="5">
         <f>'all_enter|所有按钮入口'!E81</f>
         <v>80</v>
@@ -6774,7 +7352,7 @@
         <v>畅玩卡</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:5">
       <c r="D82" s="5">
         <f>'all_enter|所有按钮入口'!E82</f>
         <v>81</v>
@@ -6784,7 +7362,7 @@
         <v>3D捕鱼挑战任务</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:5">
       <c r="D83" s="5">
         <f>'all_enter|所有按钮入口'!E83</f>
         <v>82</v>
@@ -6794,7 +7372,7 @@
         <v>3D捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:5">
       <c r="D84" s="5">
         <f>'all_enter|所有按钮入口'!E84</f>
         <v>83</v>
@@ -6804,7 +7382,7 @@
         <v>师徒系统</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:5">
       <c r="D85" s="5">
         <f>'all_enter|所有按钮入口'!E85</f>
         <v>84</v>
@@ -6814,7 +7392,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:5">
       <c r="D86" s="5">
         <f>'all_enter|所有按钮入口'!E86</f>
         <v>85</v>
@@ -6824,7 +7402,7 @@
         <v>签到</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:5">
       <c r="D87" s="5">
         <f>'all_enter|所有按钮入口'!E87</f>
         <v>86</v>
@@ -6834,7 +7412,7 @@
         <v>3D捕鱼自动开炮</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:5">
       <c r="D88" s="5">
         <f>'all_enter|所有按钮入口'!E88</f>
         <v>87</v>
@@ -6844,7 +7422,7 @@
         <v>免费抽奖-广告</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:5">
       <c r="D89" s="5">
         <f>'all_enter|所有按钮入口'!E89</f>
         <v>88</v>
@@ -6854,7 +7432,7 @@
         <v>超值礼包</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:5">
       <c r="D90" s="5">
         <f>'all_enter|所有按钮入口'!E90</f>
         <v>89</v>
@@ -6864,7 +7442,7 @@
         <v>新人抽大奖</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:5">
       <c r="D91" s="5">
         <f>'all_enter|所有按钮入口'!E91</f>
         <v>90</v>
@@ -6874,7 +7452,7 @@
         <v>水果消消乐引导</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:5">
       <c r="D92" s="5">
         <f>'all_enter|所有按钮入口'!E92</f>
         <v>91</v>
@@ -6884,7 +7462,7 @@
         <v>水果消消乐大引导</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:5">
       <c r="D93" s="5">
         <f>'all_enter|所有按钮入口'!E93</f>
         <v>92</v>
@@ -6894,7 +7472,7 @@
         <v>推广系统</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:5">
       <c r="D94" s="5">
         <f>'all_enter|所有按钮入口'!E94</f>
         <v>93</v>
@@ -6904,7 +7482,7 @@
         <v>充值消耗模板</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:5">
       <c r="D95" s="5">
         <f>'all_enter|所有按钮入口'!E95</f>
         <v>94</v>
@@ -6914,7 +7492,7 @@
         <v>免费福利券</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:5">
       <c r="D96" s="5">
         <f>'all_enter|所有按钮入口'!E96</f>
         <v>95</v>
@@ -6924,7 +7502,7 @@
         <v>奖池按钮图标</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:5">
       <c r="D97" s="5">
         <f>'all_enter|所有按钮入口'!E97</f>
         <v>96</v>
@@ -6934,7 +7512,7 @@
         <v>奖池游戏内显示</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:5">
       <c r="D98" s="5">
         <f>'all_enter|所有按钮入口'!E98</f>
         <v>97</v>
@@ -6944,7 +7522,7 @@
         <v>免费话费</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:5">
       <c r="D99" s="5">
         <f>'all_enter|所有按钮入口'!E99</f>
         <v>98</v>
@@ -6954,7 +7532,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:5">
       <c r="D100" s="5">
         <f>'all_enter|所有按钮入口'!E100</f>
         <v>99</v>
@@ -6964,7 +7542,7 @@
         <v>街机捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:5">
       <c r="D101" s="5">
         <f>'all_enter|所有按钮入口'!E101</f>
         <v>100</v>
@@ -6974,7 +7552,7 @@
         <v>欢乐敲金蛋</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:5">
       <c r="D102" s="5">
         <f>'all_enter|所有按钮入口'!E102</f>
         <v>101</v>
@@ -6984,7 +7562,7 @@
         <v>小游戏累计赢金抽福卡</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:5">
       <c r="D103" s="5">
         <f>'all_enter|所有按钮入口'!E103</f>
         <v>102</v>
@@ -6994,7 +7572,7 @@
         <v>畅玩礼包</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:5">
       <c r="D104" s="5">
         <f>'all_enter|所有按钮入口'!E104</f>
         <v>103</v>
@@ -7004,7 +7582,7 @@
         <v>核弹</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:5">
       <c r="D105" s="5">
         <f>'all_enter|所有按钮入口'!E105</f>
         <v>104</v>
@@ -7014,7 +7592,7 @@
         <v>大额福利券（跳转小游戏入口）</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:5">
       <c r="D106" s="5">
         <f>'all_enter|所有按钮入口'!E106</f>
         <v>105</v>
@@ -7024,7 +7602,7 @@
         <v>金鸡送礼（冲金鸡）</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:5">
       <c r="D107" s="5">
         <f>'all_enter|所有按钮入口'!E107</f>
         <v>106</v>
@@ -7034,7 +7612,7 @@
         <v>万圣幸运礼包</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:5">
       <c r="D108" s="5">
         <f>'all_enter|所有按钮入口'!E108</f>
         <v>107</v>
@@ -7044,7 +7622,7 @@
         <v>新人专享</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:5">
       <c r="D109" s="5">
         <f>'all_enter|所有按钮入口'!E109</f>
         <v>108</v>
@@ -7054,7 +7632,7 @@
         <v>排行榜总入口</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:5">
       <c r="D110" s="5">
         <f>'all_enter|所有按钮入口'!E110</f>
         <v>109</v>
@@ -7064,7 +7642,7 @@
         <v>深海探险</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:5">
       <c r="D111" s="5">
         <f>'all_enter|所有按钮入口'!E111</f>
         <v>110</v>
@@ -7074,7 +7652,7 @@
         <v>一本万利</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:5">
       <c r="D112" s="5">
         <f>'all_enter|所有按钮入口'!E112</f>
         <v>111</v>
@@ -7084,7 +7662,7 @@
         <v>UI-精彩活动</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:5">
       <c r="D113" s="5">
         <f>'all_enter|所有按钮入口'!E113</f>
         <v>112</v>
@@ -7094,7 +7672,7 @@
         <v>UI-获取金币</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:5">
       <c r="D114" s="5">
         <f>'all_enter|所有按钮入口'!E114</f>
         <v>113</v>
@@ -7104,7 +7682,7 @@
         <v>新人七天乐（旧）</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:5">
       <c r="D115" s="5">
         <f>'all_enter|所有按钮入口'!E115</f>
         <v>114</v>
@@ -7114,7 +7692,7 @@
         <v>聚划算</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:5">
       <c r="D116" s="5">
         <f>'all_enter|所有按钮入口'!E116</f>
         <v>115</v>
@@ -7124,7 +7702,7 @@
         <v>免费话费(冲金鸡)</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:5">
       <c r="D117" s="5">
         <f>'all_enter|所有按钮入口'!E117</f>
         <v>116</v>
@@ -7134,7 +7712,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:5">
       <c r="D118" s="5">
         <f>'all_enter|所有按钮入口'!E118</f>
         <v>117</v>
@@ -7144,7 +7722,7 @@
         <v>元旦福利</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:5">
       <c r="D119" s="5">
         <f>'all_enter|所有按钮入口'!E119</f>
         <v>118</v>
@@ -7154,7 +7732,7 @@
         <v>充值商城</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:5">
       <c r="D120" s="5">
         <f>'all_enter|所有按钮入口'!E120</f>
         <v>119</v>
@@ -7164,7 +7742,7 @@
         <v>游戏互导向斗地主</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:5">
       <c r="D121" s="5">
         <f>'all_enter|所有按钮入口'!E121</f>
         <v>120</v>
@@ -7174,7 +7752,7 @@
         <v>通用转盘</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:5">
       <c r="D122" s="5">
         <f>'all_enter|所有按钮入口'!E122</f>
         <v>121</v>
@@ -7184,7 +7762,7 @@
         <v>发财礼包</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:5">
       <c r="D123" s="5">
         <f>'all_enter|所有按钮入口'!E123</f>
         <v>122</v>
@@ -7194,7 +7772,7 @@
         <v>赢一把就睡觉</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:5">
       <c r="D124" s="5">
         <f>'all_enter|所有按钮入口'!E124</f>
         <v>123</v>
@@ -7204,7 +7782,7 @@
         <v>疯狂砸金蛋</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:5">
       <c r="D125" s="5">
         <f>'all_enter|所有按钮入口'!E125</f>
         <v>124</v>
@@ -7214,7 +7792,7 @@
         <v>新年送茅台</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:5">
       <c r="D126" s="5">
         <f>'all_enter|所有按钮入口'!E126</f>
         <v>125</v>
@@ -7224,7 +7802,7 @@
         <v>红包鱼来袭提示</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:5">
       <c r="D127" s="5">
         <f>'all_enter|所有按钮入口'!E127</f>
         <v>126</v>
@@ -7234,7 +7812,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:5">
       <c r="D128" s="5">
         <f>'all_enter|所有按钮入口'!E128</f>
         <v>127</v>
@@ -7244,7 +7822,7 @@
         <v>小游戏托管</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:5">
       <c r="D129" s="5">
         <f>'all_enter|所有按钮入口'!E129</f>
         <v>128</v>
@@ -7254,7 +7832,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:5">
       <c r="D130" s="5">
         <f>'all_enter|所有按钮入口'!E130</f>
         <v>129</v>
@@ -7264,7 +7842,7 @@
         <v>水果消消乐爬塔</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:5">
       <c r="D131" s="5">
         <f>'all_enter|所有按钮入口'!E131</f>
         <v>130</v>
@@ -7274,7 +7852,7 @@
         <v>节日扩展活动（新玩家）</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:5">
       <c r="D132" s="5">
         <f>'all_enter|所有按钮入口'!E132</f>
         <v>131</v>
@@ -7284,17 +7862,17 @@
         <v>节日扩展活动（非新玩家）</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:5">
       <c r="D133" s="5">
         <f>'all_enter|所有按钮入口'!E133</f>
         <v>132</v>
       </c>
       <c r="E133" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F133</f>
-        <v>欢乐礼包</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+        <v>话费礼包</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5">
       <c r="D134" s="5">
         <f>'all_enter|所有按钮入口'!E134</f>
         <v>133</v>
@@ -7304,7 +7882,7 @@
         <v>龙王贡品</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:5">
       <c r="D135" s="5">
         <f>'all_enter|所有按钮入口'!E135</f>
         <v>134</v>
@@ -7314,7 +7892,7 @@
         <v>排行榜（冲金鸡大厅）</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:5">
       <c r="D136" s="5">
         <f>'all_enter|所有按钮入口'!E136</f>
         <v>135</v>
@@ -7324,7 +7902,7 @@
         <v>欢乐豪礼（新玩家）</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:5">
       <c r="D137" s="5">
         <f>'all_enter|所有按钮入口'!E137</f>
         <v>136</v>
@@ -7334,7 +7912,7 @@
         <v>欢乐豪礼（非新玩家）</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:5">
       <c r="D138" s="5">
         <f>'all_enter|所有按钮入口'!E138</f>
         <v>137</v>
@@ -7344,7 +7922,7 @@
         <v>秒杀礼包-捕鱼</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:5">
       <c r="D139" s="5">
         <f>'all_enter|所有按钮入口'!E139</f>
         <v>138</v>
@@ -7354,7 +7932,7 @@
         <v>秒杀礼包-cjj</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:5">
       <c r="D140" s="5">
         <f>'all_enter|所有按钮入口'!E140</f>
         <v>139</v>
@@ -7365,22 +7943,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -7390,7 +7969,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7401,7 +7980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -7413,8 +7992,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -31,12 +36,13 @@
     <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId22"/>
     <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
     <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId24"/>
-    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId25"/>
-    <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId26"/>
-    <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId27"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId28"/>
+    <sheet name="xxlsg_game|三国消消乐" sheetId="38" r:id="rId25"/>
+    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId26"/>
+    <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId27"/>
+    <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId28"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -46,7 +52,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="370">
   <si>
     <t>id|行号</t>
   </si>
@@ -212,7 +218,7 @@
     <t>|内容</t>
   </si>
   <si>
-    <t>3;116#2#139#8#122#61#137#9#117#134#138#</t>
+    <t>3;116#2#139#8#122#61#140#137#9#117#134#138#</t>
   </si>
   <si>
     <t>left</t>
@@ -442,7 +448,7 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>132#</t>
+    <t>120#</t>
   </si>
   <si>
     <t>all</t>
@@ -1282,7 +1288,7 @@
     <t>"act_ty_gifts","gift_hflb","enter",</t>
   </si>
   <si>
-    <t>话费礼包</t>
+    <t>欢乐礼包</t>
   </si>
   <si>
     <t>"sys_lwgp",</t>
@@ -1310,19 +1316,19 @@
   </si>
   <si>
     <t>秒杀礼包-cjj</t>
+  </si>
+  <si>
+    <t>"sys_txz",</t>
+  </si>
+  <si>
+    <t>通行证</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,7 +1346,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1352,13 +1358,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1370,144 +1376,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1520,8 +1397,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1530,13 +1414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,182 +1442,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1771,240 +1481,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2016,10 +1502,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2088,67 +1574,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="26">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2406,19 +1849,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2428,7 +1871,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2450,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2461,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2472,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2483,7 +1926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2495,28 +1938,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2538,34 +1980,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2588,21 +2029,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2612,7 +2052,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2634,7 +2074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2646,27 +2086,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2688,27 +2127,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2730,7 +2168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2742,21 +2180,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2766,7 +2203,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2777,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2789,22 +2226,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2814,7 +2250,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2837,27 +2273,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2880,28 +2315,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2926,7 +2360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2937,7 +2371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2949,7 +2383,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2960,7 +2394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2971,7 +2405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -2982,7 +2416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -2993,7 +2427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -3005,28 +2439,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:4">
+    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3040,7 +2473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3051,7 +2484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3061,7 +2494,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3072,7 +2505,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3083,7 +2516,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3094,7 +2527,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3105,7 +2538,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3116,34 +2549,33 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -3153,7 +2585,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3175,7 +2607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3186,7 +2618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3197,7 +2629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -3206,7 +2638,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -3217,30 +2649,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15.75" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" s="27"/>
     </row>
-    <row r="19" ht="15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3251,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3263,23 +2692,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3290,7 +2718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3302,23 +2730,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3341,24 +2768,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3381,26 +2807,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3411,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3422,7 +2847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3433,7 +2858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -3445,23 +2870,85 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3484,26 +2971,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3525,30 +3011,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3559,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3570,29 +3055,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F140"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B133" sqref="B133"/>
+      <selection pane="bottomRight" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
@@ -3603,7 +3086,7 @@
     <col min="7" max="7" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
@@ -3623,7 +3106,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3641,7 +3124,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3659,7 +3142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3679,7 +3162,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3697,7 +3180,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3715,7 +3198,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3733,7 +3216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3751,7 +3234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3769,7 +3252,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3787,7 +3270,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3805,7 +3288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3823,7 +3306,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3841,7 +3324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3859,7 +3342,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3877,7 +3360,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3895,7 +3378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3913,7 +3396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3931,7 +3414,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3949,7 +3432,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3967,7 +3450,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3985,7 +3468,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4003,7 +3486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4021,7 +3504,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4039,7 +3522,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4057,7 +3540,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4075,7 +3558,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4093,7 +3576,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4111,7 +3594,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4129,7 +3612,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4147,7 +3630,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4165,7 +3648,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4183,7 +3666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4201,7 +3684,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4219,7 +3702,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4237,7 +3720,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4255,7 +3738,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4273,7 +3756,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4291,7 +3774,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4309,7 +3792,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4327,7 +3810,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4345,7 +3828,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4362,7 +3845,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4379,7 +3862,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4396,7 +3879,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4413,7 +3896,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4430,7 +3913,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4447,7 +3930,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4464,7 +3947,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4481,7 +3964,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4498,7 +3981,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4515,7 +3998,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4532,7 +4015,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4549,7 +4032,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4567,7 +4050,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4584,7 +4067,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4601,7 +4084,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4618,7 +4101,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4635,7 +4118,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4652,7 +4135,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4669,7 +4152,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4686,7 +4169,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4703,7 +4186,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4720,7 +4203,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4737,7 +4220,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4754,7 +4237,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4771,7 +4254,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4788,7 +4271,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4805,7 +4288,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4822,7 +4305,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4839,7 +4322,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4856,7 +4339,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4873,7 +4356,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4890,7 +4373,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4907,7 +4390,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4924,7 +4407,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4941,7 +4424,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4958,7 +4441,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4975,7 +4458,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4992,7 +4475,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5009,7 +4492,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5026,7 +4509,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5043,7 +4526,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5060,7 +4543,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5077,7 +4560,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5094,7 +4577,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5111,7 +4594,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5128,7 +4611,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5148,7 +4631,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5165,7 +4648,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5182,7 +4665,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5199,7 +4682,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5216,7 +4699,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5233,7 +4716,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5250,7 +4733,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5267,7 +4750,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5284,7 +4767,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5301,7 +4784,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5319,7 +4802,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5336,7 +4819,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5353,7 +4836,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5370,7 +4853,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5390,7 +4873,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" spans="1:6">
+    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5407,7 +4890,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5424,7 +4907,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" spans="1:6">
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5441,7 +4924,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5461,7 +4944,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5478,7 +4961,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5495,7 +4978,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:6">
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5512,7 +4995,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5529,7 +5012,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5546,7 +5029,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5563,7 +5046,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5580,7 +5063,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5597,7 +5080,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5614,7 +5097,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5634,7 +5117,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5654,7 +5137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:6">
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5671,7 +5154,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5688,7 +5171,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5705,7 +5188,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5722,7 +5205,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5739,7 +5222,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5756,7 +5239,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5773,7 +5256,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5790,7 +5273,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5807,7 +5290,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5824,7 +5307,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5841,7 +5324,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5861,7 +5344,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5881,7 +5364,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5901,7 +5384,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5921,7 +5404,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5938,7 +5421,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5955,7 +5438,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:6">
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5975,7 +5458,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5995,7 +5478,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6015,7 +5498,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="138" ht="15.75" spans="1:6">
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6035,7 +5518,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="139" ht="15.75" spans="1:6">
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6055,7 +5538,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6073,29 +5556,48 @@
         <v>196</v>
       </c>
     </row>
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>365</v>
+      </c>
+      <c r="E141">
+        <v>140</v>
+      </c>
+      <c r="F141" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6106,7 +5608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6117,7 +5619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6128,7 +5630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6137,7 +5639,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6146,7 +5648,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -6158,21 +5660,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6182,7 +5683,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6193,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6204,7 +5705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6215,7 +5716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6226,7 +5727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6235,7 +5736,7 @@
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -6247,29 +5748,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6280,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6292,21 +5792,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6316,7 +5815,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6327,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6338,7 +5837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6351,22 +5850,21 @@
       <c r="D3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6376,7 +5874,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6387,7 +5885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6398,7 +5896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6407,7 +5905,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6418,7 +5916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6430,22 +5928,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6455,7 +5952,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:5">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6472,7 +5969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6491,7 +5988,7 @@
         <v>快乐礼包</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6514,7 +6011,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6533,7 +6030,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6553,7 +6050,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -6572,7 +6069,7 @@
         <v>新人红包</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -6591,7 +6088,7 @@
         <v>大厅千元赛</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -6610,7 +6107,7 @@
         <v>首充礼包</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -6629,7 +6126,7 @@
         <v>鲸鱼福利</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
@@ -6640,7 +6137,7 @@
         <v>限时福利</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5">
@@ -6652,7 +6149,7 @@
         <v>月卡</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="5">
         <f>'all_enter|所有按钮入口'!E12</f>
         <v>11</v>
@@ -6662,7 +6159,7 @@
         <v>节日扩展活动</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="5">
         <f>'all_enter|所有按钮入口'!E13</f>
         <v>12</v>
@@ -6672,7 +6169,7 @@
         <v>幸运降临</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="5">
         <f>'all_enter|所有按钮入口'!E14</f>
         <v>13</v>
@@ -6682,7 +6179,7 @@
         <v>消消乐水果排行榜</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="5">
         <f>'all_enter|所有按钮入口'!E15</f>
         <v>14</v>
@@ -6692,7 +6189,7 @@
         <v>水浒消消乐每日任务</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="5">
         <f>'all_enter|所有按钮入口'!E16</f>
         <v>15</v>
@@ -6702,7 +6199,7 @@
         <v>水果消消乐每日任务</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="5">
         <f>'all_enter|所有按钮入口'!E17</f>
         <v>16</v>
@@ -6712,7 +6209,7 @@
         <v>新人专属</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="5">
         <f>'all_enter|所有按钮入口'!E18</f>
         <v>17</v>
@@ -6722,7 +6219,7 @@
         <v>捕鱼达人榜</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="5">
         <f>'all_enter|所有按钮入口'!E19</f>
         <v>18</v>
@@ -6732,7 +6229,7 @@
         <v>千元赛提示</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="5">
         <f>'all_enter|所有按钮入口'!E20</f>
         <v>19</v>
@@ -6742,7 +6239,7 @@
         <v>捕鱼比赛提示</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="5">
         <f>'all_enter|所有按钮入口'!E21</f>
         <v>20</v>
@@ -6752,7 +6249,7 @@
         <v>捕鱼门票</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="5">
         <f>'all_enter|所有按钮入口'!E22</f>
         <v>21</v>
@@ -6762,7 +6259,7 @@
         <v>感恩有礼</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="5">
         <f>'all_enter|所有按钮入口'!E23</f>
         <v>22</v>
@@ -6772,7 +6269,7 @@
         <v>雪球大作战</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="5">
         <f>'all_enter|所有按钮入口'!E24</f>
         <v>23</v>
@@ -6782,7 +6279,7 @@
         <v>推广礼包</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="5">
         <f>'all_enter|所有按钮入口'!E25</f>
         <v>24</v>
@@ -6792,7 +6289,7 @@
         <v>疯狂双12</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="5">
         <f>'all_enter|所有按钮入口'!E26</f>
         <v>25</v>
@@ -6802,7 +6299,7 @@
         <v>财神模式</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="5">
         <f>'all_enter|所有按钮入口'!E27</f>
         <v>26</v>
@@ -6812,7 +6309,7 @@
         <v>新版新人红包</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="5">
         <f>'all_enter|所有按钮入口'!E28</f>
         <v>27</v>
@@ -6822,7 +6319,7 @@
         <v>新版1元礼包</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="5">
         <f>'all_enter|所有按钮入口'!E29</f>
         <v>28</v>
@@ -6832,7 +6329,7 @@
         <v>圣诞敲敲乐</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="5">
         <f>'all_enter|所有按钮入口'!E30</f>
         <v>29</v>
@@ -6842,7 +6339,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="5">
         <f>'all_enter|所有按钮入口'!E31</f>
         <v>30</v>
@@ -6852,7 +6349,7 @@
         <v>每日特惠礼包</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="5">
         <f>'all_enter|所有按钮入口'!E32</f>
         <v>31</v>
@@ -6862,7 +6359,7 @@
         <v>欢庆元旦</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="5">
         <f>'all_enter|所有按钮入口'!E33</f>
         <v>32</v>
@@ -6872,7 +6369,7 @@
         <v>水浒图标</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="5">
         <f>'all_enter|所有按钮入口'!E34</f>
         <v>33</v>
@@ -6882,7 +6379,7 @@
         <v>随机鲸币</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="5">
         <f>'all_enter|所有按钮入口'!E35</f>
         <v>34</v>
@@ -6892,7 +6389,7 @@
         <v>飞-红包</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="5">
         <f>'all_enter|所有按钮入口'!E36</f>
         <v>35</v>
@@ -6902,7 +6399,7 @@
         <v>浪漫情人节</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="5">
         <f>'all_enter|所有按钮入口'!E37</f>
         <v>36</v>
@@ -6912,7 +6409,7 @@
         <v>新人七天乐</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="5">
         <f>'all_enter|所有按钮入口'!E38</f>
         <v>37</v>
@@ -6922,7 +6419,7 @@
         <v>分享拉新</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="5">
         <f>'all_enter|所有按钮入口'!E39</f>
         <v>38</v>
@@ -6932,7 +6429,7 @@
         <v>龙腾祈福</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="5">
         <f>'all_enter|所有按钮入口'!E40</f>
         <v>39</v>
@@ -6942,7 +6439,7 @@
         <v>房卡场入口</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="5">
         <f>'all_enter|所有按钮入口'!E41</f>
         <v>40</v>
@@ -6952,7 +6449,7 @@
         <v>幸运彩贝</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D42" s="5">
         <f>'all_enter|所有按钮入口'!E42</f>
         <v>41</v>
@@ -6962,7 +6459,7 @@
         <v>植树礼物</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="5">
         <f>'all_enter|所有按钮入口'!E43</f>
         <v>42</v>
@@ -6972,7 +6469,7 @@
         <v>季卡</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="5">
         <f>'all_enter|所有按钮入口'!E44</f>
         <v>43</v>
@@ -6982,7 +6479,7 @@
         <v>彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="5">
         <f>'all_enter|所有按钮入口'!E45</f>
         <v>44</v>
@@ -6992,7 +6489,7 @@
         <v>0元礼包</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="5">
         <f>'all_enter|所有按钮入口'!E46</f>
         <v>45</v>
@@ -7002,7 +6499,7 @@
         <v>红包分享</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="5">
         <f>'all_enter|所有按钮入口'!E47</f>
         <v>46</v>
@@ -7012,7 +6509,7 @@
         <v>财神消消乐</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="5">
         <f>'all_enter|所有按钮入口'!E48</f>
         <v>47</v>
@@ -7022,7 +6519,7 @@
         <v>随机领红包</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="5">
         <f>'all_enter|所有按钮入口'!E49</f>
         <v>48</v>
@@ -7032,7 +6529,7 @@
         <v>回归惊喜</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="5">
         <f>'all_enter|所有按钮入口'!E50</f>
         <v>49</v>
@@ -7042,7 +6539,7 @@
         <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="5">
         <f>'all_enter|所有按钮入口'!E51</f>
         <v>50</v>
@@ -7052,17 +6549,17 @@
         <v>疯狂返利</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="5">
         <f>'all_enter|所有按钮入口'!E52</f>
         <v>51</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F52</f>
-        <v> 抽空调</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5">
+        <v xml:space="preserve"> 抽空调</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="5">
         <f>'all_enter|所有按钮入口'!E53</f>
         <v>52</v>
@@ -7072,7 +6569,7 @@
         <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="5">
         <f>'all_enter|所有按钮入口'!E54</f>
         <v>53</v>
@@ -7082,7 +6579,7 @@
         <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="5">
         <f>'all_enter|所有按钮入口'!E55</f>
         <v>54</v>
@@ -7092,7 +6589,7 @@
         <v>连购返利</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="5">
         <f>'all_enter|所有按钮入口'!E56</f>
         <v>55</v>
@@ -7102,7 +6599,7 @@
         <v>免费红包</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="5">
         <f>'all_enter|所有按钮入口'!E57</f>
         <v>56</v>
@@ -7112,7 +6609,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="5">
         <f>'all_enter|所有按钮入口'!E58</f>
         <v>57</v>
@@ -7122,7 +6619,7 @@
         <v>消消乐红包任务</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="5">
         <f>'all_enter|所有按钮入口'!E59</f>
         <v>58</v>
@@ -7132,7 +6629,7 @@
         <v>新首充礼包</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="5">
         <f>'all_enter|所有按钮入口'!E60</f>
         <v>59</v>
@@ -7142,7 +6639,7 @@
         <v>母亲节特惠</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="5">
         <f>'all_enter|所有按钮入口'!E61</f>
         <v>60</v>
@@ -7152,7 +6649,7 @@
         <v>水果消消乐</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="5">
         <f>'all_enter|所有按钮入口'!E62</f>
         <v>61</v>
@@ -7162,7 +6659,7 @@
         <v>存钱罐</v>
       </c>
     </row>
-    <row r="63" spans="4:5">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="5">
         <f>'all_enter|所有按钮入口'!E63</f>
         <v>62</v>
@@ -7172,7 +6669,7 @@
         <v>问题反馈</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="5">
         <f>'all_enter|所有按钮入口'!E64</f>
         <v>63</v>
@@ -7182,7 +6679,7 @@
         <v>3D捕鱼测试排行榜</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="5">
         <f>'all_enter|所有按钮入口'!E65</f>
         <v>64</v>
@@ -7192,7 +6689,7 @@
         <v>排名赛</v>
       </c>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="5">
         <f>'all_enter|所有按钮入口'!E66</f>
         <v>65</v>
@@ -7202,7 +6699,7 @@
         <v>3D捕鱼奖池-大厅显示奖池图标</v>
       </c>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="5">
         <f>'all_enter|所有按钮入口'!E67</f>
         <v>66</v>
@@ -7212,7 +6709,7 @@
         <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="5">
         <f>'all_enter|所有按钮入口'!E68</f>
         <v>67</v>
@@ -7222,7 +6719,7 @@
         <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="5">
         <f>'all_enter|所有按钮入口'!E69</f>
         <v>68</v>
@@ -7232,7 +6729,7 @@
         <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="5">
         <f>'all_enter|所有按钮入口'!E70</f>
         <v>69</v>
@@ -7242,7 +6739,7 @@
         <v>3D捕鱼奖池-游戏内显示奖池图标</v>
       </c>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="5">
         <f>'all_enter|所有按钮入口'!E71</f>
         <v>70</v>
@@ -7252,7 +6749,7 @@
         <v>3D捕鱼奖池-显示说明界面</v>
       </c>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" s="5">
         <f>'all_enter|所有按钮入口'!E72</f>
         <v>71</v>
@@ -7262,7 +6759,7 @@
         <v>3D捕鱼开炮送红包-场次2大厅显示</v>
       </c>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" s="5">
         <f>'all_enter|所有按钮入口'!E73</f>
         <v>72</v>
@@ -7272,7 +6769,7 @@
         <v>兑换按钮</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" s="5">
         <f>'all_enter|所有按钮入口'!E74</f>
         <v>73</v>
@@ -7282,7 +6779,7 @@
         <v>boss来袭</v>
       </c>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" s="5">
         <f>'all_enter|所有按钮入口'!E75</f>
         <v>74</v>
@@ -7292,7 +6789,7 @@
         <v>活跃任务</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" s="5">
         <f>'all_enter|所有按钮入口'!E76</f>
         <v>75</v>
@@ -7302,7 +6799,7 @@
         <v>3D捕鱼开炮送红包-场次3大厅显示</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" s="5">
         <f>'all_enter|所有按钮入口'!E77</f>
         <v>76</v>
@@ -7312,7 +6809,7 @@
         <v>3D捕鱼开炮送红包-场次4大厅显示</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" s="5">
         <f>'all_enter|所有按钮入口'!E78</f>
         <v>77</v>
@@ -7322,7 +6819,7 @@
         <v>3D捕鱼开炮送红包-场次5大厅显示</v>
       </c>
     </row>
-    <row r="79" spans="4:5">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" s="5">
         <f>'all_enter|所有按钮入口'!E79</f>
         <v>78</v>
@@ -7332,7 +6829,7 @@
         <v>3D捕鱼开炮送红包-游戏内</v>
       </c>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" s="5">
         <f>'all_enter|所有按钮入口'!E80</f>
         <v>79</v>
@@ -7342,7 +6839,7 @@
         <v>炮台升级按钮</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="5">
         <f>'all_enter|所有按钮入口'!E81</f>
         <v>80</v>
@@ -7352,7 +6849,7 @@
         <v>畅玩卡</v>
       </c>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="5">
         <f>'all_enter|所有按钮入口'!E82</f>
         <v>81</v>
@@ -7362,7 +6859,7 @@
         <v>3D捕鱼挑战任务</v>
       </c>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="5">
         <f>'all_enter|所有按钮入口'!E83</f>
         <v>82</v>
@@ -7372,7 +6869,7 @@
         <v>3D捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="5">
         <f>'all_enter|所有按钮入口'!E84</f>
         <v>83</v>
@@ -7382,7 +6879,7 @@
         <v>师徒系统</v>
       </c>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="5">
         <f>'all_enter|所有按钮入口'!E85</f>
         <v>84</v>
@@ -7392,7 +6889,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="5">
         <f>'all_enter|所有按钮入口'!E86</f>
         <v>85</v>
@@ -7402,7 +6899,7 @@
         <v>签到</v>
       </c>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="5">
         <f>'all_enter|所有按钮入口'!E87</f>
         <v>86</v>
@@ -7412,7 +6909,7 @@
         <v>3D捕鱼自动开炮</v>
       </c>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="5">
         <f>'all_enter|所有按钮入口'!E88</f>
         <v>87</v>
@@ -7422,7 +6919,7 @@
         <v>免费抽奖-广告</v>
       </c>
     </row>
-    <row r="89" spans="4:5">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="5">
         <f>'all_enter|所有按钮入口'!E89</f>
         <v>88</v>
@@ -7432,7 +6929,7 @@
         <v>超值礼包</v>
       </c>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="5">
         <f>'all_enter|所有按钮入口'!E90</f>
         <v>89</v>
@@ -7442,7 +6939,7 @@
         <v>新人抽大奖</v>
       </c>
     </row>
-    <row r="91" spans="4:5">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="5">
         <f>'all_enter|所有按钮入口'!E91</f>
         <v>90</v>
@@ -7452,7 +6949,7 @@
         <v>水果消消乐引导</v>
       </c>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="5">
         <f>'all_enter|所有按钮入口'!E92</f>
         <v>91</v>
@@ -7462,7 +6959,7 @@
         <v>水果消消乐大引导</v>
       </c>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="5">
         <f>'all_enter|所有按钮入口'!E93</f>
         <v>92</v>
@@ -7472,7 +6969,7 @@
         <v>推广系统</v>
       </c>
     </row>
-    <row r="94" spans="4:5">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="5">
         <f>'all_enter|所有按钮入口'!E94</f>
         <v>93</v>
@@ -7482,7 +6979,7 @@
         <v>充值消耗模板</v>
       </c>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="5">
         <f>'all_enter|所有按钮入口'!E95</f>
         <v>94</v>
@@ -7492,7 +6989,7 @@
         <v>免费福利券</v>
       </c>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="5">
         <f>'all_enter|所有按钮入口'!E96</f>
         <v>95</v>
@@ -7502,7 +6999,7 @@
         <v>奖池按钮图标</v>
       </c>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="5">
         <f>'all_enter|所有按钮入口'!E97</f>
         <v>96</v>
@@ -7512,7 +7009,7 @@
         <v>奖池游戏内显示</v>
       </c>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="5">
         <f>'all_enter|所有按钮入口'!E98</f>
         <v>97</v>
@@ -7522,7 +7019,7 @@
         <v>免费话费</v>
       </c>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="5">
         <f>'all_enter|所有按钮入口'!E99</f>
         <v>98</v>
@@ -7532,7 +7029,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="5">
         <f>'all_enter|所有按钮入口'!E100</f>
         <v>99</v>
@@ -7542,7 +7039,7 @@
         <v>街机捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="5">
         <f>'all_enter|所有按钮入口'!E101</f>
         <v>100</v>
@@ -7552,7 +7049,7 @@
         <v>欢乐敲金蛋</v>
       </c>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="5">
         <f>'all_enter|所有按钮入口'!E102</f>
         <v>101</v>
@@ -7562,7 +7059,7 @@
         <v>小游戏累计赢金抽福卡</v>
       </c>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="5">
         <f>'all_enter|所有按钮入口'!E103</f>
         <v>102</v>
@@ -7572,7 +7069,7 @@
         <v>畅玩礼包</v>
       </c>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="5">
         <f>'all_enter|所有按钮入口'!E104</f>
         <v>103</v>
@@ -7582,7 +7079,7 @@
         <v>核弹</v>
       </c>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="5">
         <f>'all_enter|所有按钮入口'!E105</f>
         <v>104</v>
@@ -7592,7 +7089,7 @@
         <v>大额福利券（跳转小游戏入口）</v>
       </c>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="5">
         <f>'all_enter|所有按钮入口'!E106</f>
         <v>105</v>
@@ -7602,7 +7099,7 @@
         <v>金鸡送礼（冲金鸡）</v>
       </c>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="5">
         <f>'all_enter|所有按钮入口'!E107</f>
         <v>106</v>
@@ -7612,7 +7109,7 @@
         <v>万圣幸运礼包</v>
       </c>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5">
         <f>'all_enter|所有按钮入口'!E108</f>
         <v>107</v>
@@ -7622,7 +7119,7 @@
         <v>新人专享</v>
       </c>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5">
         <f>'all_enter|所有按钮入口'!E109</f>
         <v>108</v>
@@ -7632,7 +7129,7 @@
         <v>排行榜总入口</v>
       </c>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5">
         <f>'all_enter|所有按钮入口'!E110</f>
         <v>109</v>
@@ -7642,7 +7139,7 @@
         <v>深海探险</v>
       </c>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5">
         <f>'all_enter|所有按钮入口'!E111</f>
         <v>110</v>
@@ -7652,7 +7149,7 @@
         <v>一本万利</v>
       </c>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D112" s="5">
         <f>'all_enter|所有按钮入口'!E112</f>
         <v>111</v>
@@ -7662,7 +7159,7 @@
         <v>UI-精彩活动</v>
       </c>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="5">
         <f>'all_enter|所有按钮入口'!E113</f>
         <v>112</v>
@@ -7672,7 +7169,7 @@
         <v>UI-获取金币</v>
       </c>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="5">
         <f>'all_enter|所有按钮入口'!E114</f>
         <v>113</v>
@@ -7682,7 +7179,7 @@
         <v>新人七天乐（旧）</v>
       </c>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="5">
         <f>'all_enter|所有按钮入口'!E115</f>
         <v>114</v>
@@ -7692,7 +7189,7 @@
         <v>聚划算</v>
       </c>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="5">
         <f>'all_enter|所有按钮入口'!E116</f>
         <v>115</v>
@@ -7702,7 +7199,7 @@
         <v>免费话费(冲金鸡)</v>
       </c>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="5">
         <f>'all_enter|所有按钮入口'!E117</f>
         <v>116</v>
@@ -7712,7 +7209,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="5">
         <f>'all_enter|所有按钮入口'!E118</f>
         <v>117</v>
@@ -7722,7 +7219,7 @@
         <v>元旦福利</v>
       </c>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="5">
         <f>'all_enter|所有按钮入口'!E119</f>
         <v>118</v>
@@ -7732,7 +7229,7 @@
         <v>充值商城</v>
       </c>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="5">
         <f>'all_enter|所有按钮入口'!E120</f>
         <v>119</v>
@@ -7742,7 +7239,7 @@
         <v>游戏互导向斗地主</v>
       </c>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="5">
         <f>'all_enter|所有按钮入口'!E121</f>
         <v>120</v>
@@ -7752,7 +7249,7 @@
         <v>通用转盘</v>
       </c>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="5">
         <f>'all_enter|所有按钮入口'!E122</f>
         <v>121</v>
@@ -7762,7 +7259,7 @@
         <v>发财礼包</v>
       </c>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="5">
         <f>'all_enter|所有按钮入口'!E123</f>
         <v>122</v>
@@ -7772,7 +7269,7 @@
         <v>赢一把就睡觉</v>
       </c>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="5">
         <f>'all_enter|所有按钮入口'!E124</f>
         <v>123</v>
@@ -7782,7 +7279,7 @@
         <v>疯狂砸金蛋</v>
       </c>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="5">
         <f>'all_enter|所有按钮入口'!E125</f>
         <v>124</v>
@@ -7792,7 +7289,7 @@
         <v>新年送茅台</v>
       </c>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="5">
         <f>'all_enter|所有按钮入口'!E126</f>
         <v>125</v>
@@ -7802,7 +7299,7 @@
         <v>红包鱼来袭提示</v>
       </c>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="5">
         <f>'all_enter|所有按钮入口'!E127</f>
         <v>126</v>
@@ -7812,7 +7309,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="5">
         <f>'all_enter|所有按钮入口'!E128</f>
         <v>127</v>
@@ -7822,7 +7319,7 @@
         <v>小游戏托管</v>
       </c>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D129" s="5">
         <f>'all_enter|所有按钮入口'!E129</f>
         <v>128</v>
@@ -7832,7 +7329,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D130" s="5">
         <f>'all_enter|所有按钮入口'!E130</f>
         <v>129</v>
@@ -7842,7 +7339,7 @@
         <v>水果消消乐爬塔</v>
       </c>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D131" s="5">
         <f>'all_enter|所有按钮入口'!E131</f>
         <v>130</v>
@@ -7852,7 +7349,7 @@
         <v>节日扩展活动（新玩家）</v>
       </c>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D132" s="5">
         <f>'all_enter|所有按钮入口'!E132</f>
         <v>131</v>
@@ -7862,17 +7359,17 @@
         <v>节日扩展活动（非新玩家）</v>
       </c>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D133" s="5">
         <f>'all_enter|所有按钮入口'!E133</f>
         <v>132</v>
       </c>
       <c r="E133" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F133</f>
-        <v>话费礼包</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5">
+        <v>欢乐礼包</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D134" s="5">
         <f>'all_enter|所有按钮入口'!E134</f>
         <v>133</v>
@@ -7882,7 +7379,7 @@
         <v>龙王贡品</v>
       </c>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="5">
         <f>'all_enter|所有按钮入口'!E135</f>
         <v>134</v>
@@ -7892,7 +7389,7 @@
         <v>排行榜（冲金鸡大厅）</v>
       </c>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D136" s="5">
         <f>'all_enter|所有按钮入口'!E136</f>
         <v>135</v>
@@ -7902,7 +7399,7 @@
         <v>欢乐豪礼（新玩家）</v>
       </c>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="5">
         <f>'all_enter|所有按钮入口'!E137</f>
         <v>136</v>
@@ -7912,7 +7409,7 @@
         <v>欢乐豪礼（非新玩家）</v>
       </c>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D138" s="5">
         <f>'all_enter|所有按钮入口'!E138</f>
         <v>137</v>
@@ -7922,7 +7419,7 @@
         <v>秒杀礼包-捕鱼</v>
       </c>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D139" s="5">
         <f>'all_enter|所有按钮入口'!E139</f>
         <v>138</v>
@@ -7932,7 +7429,7 @@
         <v>秒杀礼包-cjj</v>
       </c>
     </row>
-    <row r="140" spans="4:5">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D140" s="5">
         <f>'all_enter|所有按钮入口'!E140</f>
         <v>139</v>
@@ -7942,24 +7439,36 @@
         <v>疯狂返利</v>
       </c>
     </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D141" s="5">
+        <f>'all_enter|所有按钮入口'!E141</f>
+        <v>140</v>
+      </c>
+      <c r="E141" s="5" t="str">
+        <f>'all_enter|所有按钮入口'!F141</f>
+        <v>通行证</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E142" s="5"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -7969,7 +7478,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7980,7 +7489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -7992,8 +7501,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -1,48 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="24"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
     <sheet name="xxlsh_game|水浒消消乐" sheetId="14" r:id="rId2"/>
     <sheet name="xxlcs_game|财神消消乐" sheetId="29" r:id="rId3"/>
-    <sheet name="xxl_game|消消乐" sheetId="13" r:id="rId4"/>
-    <sheet name="zpg_game|种苹果" sheetId="28" r:id="rId5"/>
-    <sheet name="fishing_game|捕鱼游戏按钮配置" sheetId="12" r:id="rId6"/>
-    <sheet name="fishing_hall|捕鱼大厅按钮配置" sheetId="11" r:id="rId7"/>
-    <sheet name="hall_config|大厅按钮配置" sheetId="5" r:id="rId8"/>
-    <sheet name="ddz_free_game|斗地主游戏" sheetId="16" r:id="rId9"/>
-    <sheet name="freehall_config|匹配场大厅按钮配置" sheetId="9" r:id="rId10"/>
-    <sheet name="match_hall|比赛场大厅按钮配置" sheetId="21" r:id="rId11"/>
-    <sheet name="ddz_free_js|斗地主游戏结算" sheetId="17" r:id="rId12"/>
-    <sheet name="mj_free_js|麻将游戏结算" sheetId="23" r:id="rId13"/>
-    <sheet name="pdk_free_js|跑得快游戏结算" sheetId="22" r:id="rId14"/>
-    <sheet name="mj_free_game|麻将游戏" sheetId="18" r:id="rId15"/>
-    <sheet name="qql_game|敲敲乐游戏" sheetId="19" r:id="rId16"/>
-    <sheet name="fishing_match_bm|捕鱼比赛报名" sheetId="20" r:id="rId17"/>
-    <sheet name="fishing3d_game|3D捕鱼" sheetId="24" r:id="rId18"/>
-    <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId19"/>
-    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId20"/>
-    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId21"/>
-    <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId22"/>
-    <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
-    <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId24"/>
-    <sheet name="xxlsg_game|三国消消乐" sheetId="38" r:id="rId25"/>
+    <sheet name="xxlsg_game|三国消消乐" sheetId="37" r:id="rId4"/>
+    <sheet name="xxl_game|消消乐" sheetId="13" r:id="rId5"/>
+    <sheet name="zpg_game|种苹果" sheetId="28" r:id="rId6"/>
+    <sheet name="fishing_game|捕鱼游戏按钮配置" sheetId="12" r:id="rId7"/>
+    <sheet name="fishing_hall|捕鱼大厅按钮配置" sheetId="11" r:id="rId8"/>
+    <sheet name="hall_config|大厅按钮配置" sheetId="5" r:id="rId9"/>
+    <sheet name="ddz_free_game|斗地主游戏" sheetId="16" r:id="rId10"/>
+    <sheet name="freehall_config|匹配场大厅按钮配置" sheetId="9" r:id="rId11"/>
+    <sheet name="match_hall|比赛场大厅按钮配置" sheetId="21" r:id="rId12"/>
+    <sheet name="ddz_free_js|斗地主游戏结算" sheetId="17" r:id="rId13"/>
+    <sheet name="mj_free_js|麻将游戏结算" sheetId="23" r:id="rId14"/>
+    <sheet name="pdk_free_js|跑得快游戏结算" sheetId="22" r:id="rId15"/>
+    <sheet name="mj_free_game|麻将游戏" sheetId="18" r:id="rId16"/>
+    <sheet name="qql_game|敲敲乐游戏" sheetId="19" r:id="rId17"/>
+    <sheet name="fishing_match_bm|捕鱼比赛报名" sheetId="20" r:id="rId18"/>
+    <sheet name="fishing3d_game|3D捕鱼" sheetId="24" r:id="rId19"/>
+    <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId20"/>
+    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId21"/>
+    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId22"/>
+    <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId23"/>
+    <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId24"/>
+    <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId25"/>
     <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId26"/>
     <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId27"/>
     <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId28"/>
     <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -52,7 +47,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="375">
   <si>
     <t>id|行号</t>
   </si>
@@ -218,7 +213,7 @@
     <t>|内容</t>
   </si>
   <si>
-    <t>3;116#2#139#8#122#61#140#137#9#117#134#138#</t>
+    <t>3;116#2#139#8#122#61#140#137#9#117#134#141#138#142#</t>
   </si>
   <si>
     <t>left</t>
@@ -277,6 +272,9 @@
   </si>
   <si>
     <t>124#</t>
+  </si>
+  <si>
+    <t>限时红包</t>
   </si>
   <si>
     <t>26#18#</t>
@@ -1323,12 +1321,30 @@
   <si>
     <t>通行证</t>
   </si>
+  <si>
+    <t>"act_cjdb",</t>
+  </si>
+  <si>
+    <t>超级夺宝</t>
+  </si>
+  <si>
+    <t>"act_042_xshb",</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_txz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,7 +1362,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1358,13 +1374,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1375,16 +1391,145 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1397,15 +1542,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,13 +1552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79989013336588644"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,7 +1570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,8 +1580,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1481,18 +1793,242 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,10 +2038,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1544,6 +2080,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,24 +2113,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="26">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1849,29 +2431,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1882,83 +2464,132 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+    <row r="4" spans="1:3">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+    <row r="6" spans="1:3">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1969,44 +2600,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="C2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2017,42 +2649,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>55</v>
+      <c r="C2" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2063,49 +2696,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="C2" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>57</v>
+      <c r="C3" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2116,37 +2750,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="C2" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2157,53 +2792,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="C2" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>57</v>
+      <c r="C3" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2214,43 +2850,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>58</v>
+      <c r="C2" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2261,38 +2898,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
+      <c r="C2" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2303,39 +2941,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="27" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2346,120 +2985,216 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+    <row r="7" spans="1:3">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="15"/>
+    <row r="18" ht="15.75" spans="10:10">
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" ht="15"/>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2470,31 +3205,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2502,174 +3237,83 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
+    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
+      <c r="B10" s="22"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:3">
       <c r="C11" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J18" s="27"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2680,34 +3324,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>86</v>
+      <c r="C2" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2718,34 +3363,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2756,35 +3402,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2795,37 +3442,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="A1:XFD1048576"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2836,30 +3484,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+    <row r="4" spans="1:3">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2870,85 +3518,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2967,29 +3553,30 @@
         <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3000,40 +3587,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="40.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3044,38 +3632,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F140" sqref="F140"/>
+      <selection pane="bottomRight" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
@@ -3086,32 +3676,32 @@
     <col min="7" max="7" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="34.5" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3121,15 +3711,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3139,35 +3729,35 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3177,15 +3767,15 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3195,15 +3785,15 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3213,15 +3803,15 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3231,15 +3821,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3249,15 +3839,15 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3267,15 +3857,15 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3285,15 +3875,15 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3303,15 +3893,15 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3321,15 +3911,15 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3339,15 +3929,15 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3357,15 +3947,15 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3375,15 +3965,15 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3393,15 +3983,15 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3411,15 +4001,15 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3429,15 +4019,15 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3447,15 +4037,15 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3465,15 +4055,15 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3483,15 +4073,15 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3501,15 +4091,15 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3519,15 +4109,15 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3537,15 +4127,15 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3555,15 +4145,15 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3573,15 +4163,15 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3591,15 +4181,15 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3609,15 +4199,15 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3627,15 +4217,15 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3645,15 +4235,15 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3663,15 +4253,15 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3681,15 +4271,15 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3699,15 +4289,15 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3717,15 +4307,15 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3735,15 +4325,15 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3753,15 +4343,15 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3771,15 +4361,15 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3789,15 +4379,15 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3807,15 +4397,15 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3825,15 +4415,15 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3842,15 +4432,15 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3859,15 +4449,15 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3876,15 +4466,15 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3893,15 +4483,15 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3910,15 +4500,15 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3927,15 +4517,15 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3944,15 +4534,15 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3961,15 +4551,15 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3978,15 +4568,15 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3995,15 +4585,15 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4012,15 +4602,15 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4029,15 +4619,15 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4047,15 +4637,15 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4064,15 +4654,15 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4081,15 +4671,15 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4098,15 +4688,15 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4115,15 +4705,15 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4132,15 +4722,15 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4149,15 +4739,15 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4166,15 +4756,15 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4183,15 +4773,15 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4200,15 +4790,15 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4217,15 +4807,15 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4234,15 +4824,15 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4251,15 +4841,15 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4268,15 +4858,15 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4285,15 +4875,15 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4302,15 +4892,15 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4319,15 +4909,15 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4336,15 +4926,15 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4353,15 +4943,15 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4370,15 +4960,15 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4387,15 +4977,15 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4404,15 +4994,15 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4421,15 +5011,15 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4438,15 +5028,15 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4455,15 +5045,15 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4472,15 +5062,15 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4489,15 +5079,15 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4506,15 +5096,15 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4523,15 +5113,15 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4540,15 +5130,15 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4557,15 +5147,15 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4574,15 +5164,15 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4591,15 +5181,15 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4608,35 +5198,35 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4645,15 +5235,15 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4662,15 +5252,15 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4679,15 +5269,15 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4696,15 +5286,15 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4713,15 +5303,15 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4730,15 +5320,15 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4747,15 +5337,15 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4764,15 +5354,15 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4781,15 +5371,15 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4799,15 +5389,15 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4816,15 +5406,15 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4833,15 +5423,15 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4850,35 +5440,35 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:6">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4887,15 +5477,15 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4904,15 +5494,15 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:6">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4921,35 +5511,35 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4958,15 +5548,15 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4975,15 +5565,15 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="109" ht="16.5" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4992,15 +5582,15 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5009,15 +5599,15 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5026,15 +5616,15 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5043,15 +5633,15 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5060,15 +5650,15 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5077,15 +5667,15 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5094,55 +5684,55 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" ht="16.5" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5151,15 +5741,15 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5168,15 +5758,15 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5185,15 +5775,15 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5202,15 +5792,15 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5219,15 +5809,15 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5236,15 +5826,15 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5253,15 +5843,15 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5270,15 +5860,15 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5287,15 +5877,15 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5304,15 +5894,15 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5321,95 +5911,95 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5418,15 +6008,15 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5435,115 +6025,115 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" ht="16.5" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" spans="1:6">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5553,51 +6143,92 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" spans="1:6">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" spans="1:6">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>326</v>
+      </c>
+      <c r="E142">
+        <v>141</v>
+      </c>
+      <c r="F142" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" spans="1:6">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E143">
+        <v>142</v>
+      </c>
+      <c r="F143" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5608,82 +6239,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+    <row r="4" spans="1:3">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="40.5" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5694,82 +6365,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+    <row r="4" spans="1:3">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5780,7 +6452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5792,30 +6464,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5826,18 +6499,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5850,31 +6523,32 @@
       <c r="D3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5885,74 +6559,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J142"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="35.25" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5969,14 +6644,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -5988,14 +6663,14 @@
         <v>快乐礼包</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:10">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6011,14 +6686,14 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+    <row r="4" spans="1:5">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6030,14 +6705,14 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+    <row r="5" spans="1:7">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6050,14 +6725,14 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+    <row r="6" spans="1:5">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6069,14 +6744,14 @@
         <v>新人红包</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+    <row r="7" spans="1:5">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6088,14 +6763,14 @@
         <v>大厅千元赛</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+    <row r="8" spans="1:5">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6107,14 +6782,14 @@
         <v>首充礼包</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    <row r="9" spans="1:5">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6126,8 +6801,8 @@
         <v>鲸鱼福利</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
+    <row r="10" spans="2:5">
+      <c r="B10" s="19"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6137,9 +6812,9 @@
         <v>限时福利</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+    <row r="11" spans="2:5">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
@@ -6149,7 +6824,7 @@
         <v>月卡</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:5">
       <c r="D12" s="5">
         <f>'all_enter|所有按钮入口'!E12</f>
         <v>11</v>
@@ -6159,7 +6834,7 @@
         <v>节日扩展活动</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:5">
       <c r="D13" s="5">
         <f>'all_enter|所有按钮入口'!E13</f>
         <v>12</v>
@@ -6169,7 +6844,7 @@
         <v>幸运降临</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:5">
       <c r="D14" s="5">
         <f>'all_enter|所有按钮入口'!E14</f>
         <v>13</v>
@@ -6179,7 +6854,7 @@
         <v>消消乐水果排行榜</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:5">
       <c r="D15" s="5">
         <f>'all_enter|所有按钮入口'!E15</f>
         <v>14</v>
@@ -6189,7 +6864,7 @@
         <v>水浒消消乐每日任务</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:5">
       <c r="D16" s="5">
         <f>'all_enter|所有按钮入口'!E16</f>
         <v>15</v>
@@ -6199,7 +6874,7 @@
         <v>水果消消乐每日任务</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5">
       <c r="D17" s="5">
         <f>'all_enter|所有按钮入口'!E17</f>
         <v>16</v>
@@ -6209,7 +6884,7 @@
         <v>新人专属</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5">
       <c r="D18" s="5">
         <f>'all_enter|所有按钮入口'!E18</f>
         <v>17</v>
@@ -6219,7 +6894,7 @@
         <v>捕鱼达人榜</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5">
       <c r="D19" s="5">
         <f>'all_enter|所有按钮入口'!E19</f>
         <v>18</v>
@@ -6229,7 +6904,7 @@
         <v>千元赛提示</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5">
       <c r="D20" s="5">
         <f>'all_enter|所有按钮入口'!E20</f>
         <v>19</v>
@@ -6239,7 +6914,7 @@
         <v>捕鱼比赛提示</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5">
       <c r="D21" s="5">
         <f>'all_enter|所有按钮入口'!E21</f>
         <v>20</v>
@@ -6249,7 +6924,7 @@
         <v>捕鱼门票</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5">
       <c r="D22" s="5">
         <f>'all_enter|所有按钮入口'!E22</f>
         <v>21</v>
@@ -6259,7 +6934,7 @@
         <v>感恩有礼</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5">
       <c r="D23" s="5">
         <f>'all_enter|所有按钮入口'!E23</f>
         <v>22</v>
@@ -6269,7 +6944,7 @@
         <v>雪球大作战</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5">
       <c r="D24" s="5">
         <f>'all_enter|所有按钮入口'!E24</f>
         <v>23</v>
@@ -6279,7 +6954,7 @@
         <v>推广礼包</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5">
       <c r="D25" s="5">
         <f>'all_enter|所有按钮入口'!E25</f>
         <v>24</v>
@@ -6289,7 +6964,7 @@
         <v>疯狂双12</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5">
       <c r="D26" s="5">
         <f>'all_enter|所有按钮入口'!E26</f>
         <v>25</v>
@@ -6299,7 +6974,7 @@
         <v>财神模式</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:5">
       <c r="D27" s="5">
         <f>'all_enter|所有按钮入口'!E27</f>
         <v>26</v>
@@ -6309,7 +6984,7 @@
         <v>新版新人红包</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:5">
       <c r="D28" s="5">
         <f>'all_enter|所有按钮入口'!E28</f>
         <v>27</v>
@@ -6319,7 +6994,7 @@
         <v>新版1元礼包</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:5">
       <c r="D29" s="5">
         <f>'all_enter|所有按钮入口'!E29</f>
         <v>28</v>
@@ -6329,7 +7004,7 @@
         <v>圣诞敲敲乐</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:5">
       <c r="D30" s="5">
         <f>'all_enter|所有按钮入口'!E30</f>
         <v>29</v>
@@ -6339,7 +7014,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:5">
       <c r="D31" s="5">
         <f>'all_enter|所有按钮入口'!E31</f>
         <v>30</v>
@@ -6349,7 +7024,7 @@
         <v>每日特惠礼包</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:5">
       <c r="D32" s="5">
         <f>'all_enter|所有按钮入口'!E32</f>
         <v>31</v>
@@ -6359,7 +7034,7 @@
         <v>欢庆元旦</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="D33" s="5">
         <f>'all_enter|所有按钮入口'!E33</f>
         <v>32</v>
@@ -6369,7 +7044,7 @@
         <v>水浒图标</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="D34" s="5">
         <f>'all_enter|所有按钮入口'!E34</f>
         <v>33</v>
@@ -6379,7 +7054,7 @@
         <v>随机鲸币</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5">
       <c r="D35" s="5">
         <f>'all_enter|所有按钮入口'!E35</f>
         <v>34</v>
@@ -6389,7 +7064,7 @@
         <v>飞-红包</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="D36" s="5">
         <f>'all_enter|所有按钮入口'!E36</f>
         <v>35</v>
@@ -6399,7 +7074,7 @@
         <v>浪漫情人节</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5">
       <c r="D37" s="5">
         <f>'all_enter|所有按钮入口'!E37</f>
         <v>36</v>
@@ -6409,7 +7084,7 @@
         <v>新人七天乐</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5">
       <c r="D38" s="5">
         <f>'all_enter|所有按钮入口'!E38</f>
         <v>37</v>
@@ -6419,7 +7094,7 @@
         <v>分享拉新</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5">
       <c r="D39" s="5">
         <f>'all_enter|所有按钮入口'!E39</f>
         <v>38</v>
@@ -6429,7 +7104,7 @@
         <v>龙腾祈福</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5">
       <c r="D40" s="5">
         <f>'all_enter|所有按钮入口'!E40</f>
         <v>39</v>
@@ -6439,7 +7114,7 @@
         <v>房卡场入口</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5">
       <c r="D41" s="5">
         <f>'all_enter|所有按钮入口'!E41</f>
         <v>40</v>
@@ -6449,7 +7124,7 @@
         <v>幸运彩贝</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5">
       <c r="D42" s="5">
         <f>'all_enter|所有按钮入口'!E42</f>
         <v>41</v>
@@ -6459,7 +7134,7 @@
         <v>植树礼物</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5">
       <c r="D43" s="5">
         <f>'all_enter|所有按钮入口'!E43</f>
         <v>42</v>
@@ -6469,7 +7144,7 @@
         <v>季卡</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5">
       <c r="D44" s="5">
         <f>'all_enter|所有按钮入口'!E44</f>
         <v>43</v>
@@ -6479,7 +7154,7 @@
         <v>彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5">
       <c r="D45" s="5">
         <f>'all_enter|所有按钮入口'!E45</f>
         <v>44</v>
@@ -6489,7 +7164,7 @@
         <v>0元礼包</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5">
       <c r="D46" s="5">
         <f>'all_enter|所有按钮入口'!E46</f>
         <v>45</v>
@@ -6499,7 +7174,7 @@
         <v>红包分享</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5">
       <c r="D47" s="5">
         <f>'all_enter|所有按钮入口'!E47</f>
         <v>46</v>
@@ -6509,7 +7184,7 @@
         <v>财神消消乐</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5">
       <c r="D48" s="5">
         <f>'all_enter|所有按钮入口'!E48</f>
         <v>47</v>
@@ -6519,7 +7194,7 @@
         <v>随机领红包</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5">
       <c r="D49" s="5">
         <f>'all_enter|所有按钮入口'!E49</f>
         <v>48</v>
@@ -6529,7 +7204,7 @@
         <v>回归惊喜</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:5">
       <c r="D50" s="5">
         <f>'all_enter|所有按钮入口'!E50</f>
         <v>49</v>
@@ -6539,7 +7214,7 @@
         <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:5">
       <c r="D51" s="5">
         <f>'all_enter|所有按钮入口'!E51</f>
         <v>50</v>
@@ -6549,17 +7224,17 @@
         <v>疯狂返利</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:5">
       <c r="D52" s="5">
         <f>'all_enter|所有按钮入口'!E52</f>
         <v>51</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F52</f>
-        <v xml:space="preserve"> 抽空调</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+        <v> 抽空调</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
       <c r="D53" s="5">
         <f>'all_enter|所有按钮入口'!E53</f>
         <v>52</v>
@@ -6569,7 +7244,7 @@
         <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:5">
       <c r="D54" s="5">
         <f>'all_enter|所有按钮入口'!E54</f>
         <v>53</v>
@@ -6579,7 +7254,7 @@
         <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:5">
       <c r="D55" s="5">
         <f>'all_enter|所有按钮入口'!E55</f>
         <v>54</v>
@@ -6589,7 +7264,7 @@
         <v>连购返利</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:5">
       <c r="D56" s="5">
         <f>'all_enter|所有按钮入口'!E56</f>
         <v>55</v>
@@ -6599,7 +7274,7 @@
         <v>免费红包</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:5">
       <c r="D57" s="5">
         <f>'all_enter|所有按钮入口'!E57</f>
         <v>56</v>
@@ -6609,7 +7284,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:5">
       <c r="D58" s="5">
         <f>'all_enter|所有按钮入口'!E58</f>
         <v>57</v>
@@ -6619,7 +7294,7 @@
         <v>消消乐红包任务</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:5">
       <c r="D59" s="5">
         <f>'all_enter|所有按钮入口'!E59</f>
         <v>58</v>
@@ -6629,7 +7304,7 @@
         <v>新首充礼包</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:5">
       <c r="D60" s="5">
         <f>'all_enter|所有按钮入口'!E60</f>
         <v>59</v>
@@ -6639,7 +7314,7 @@
         <v>母亲节特惠</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:5">
       <c r="D61" s="5">
         <f>'all_enter|所有按钮入口'!E61</f>
         <v>60</v>
@@ -6649,7 +7324,7 @@
         <v>水果消消乐</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:5">
       <c r="D62" s="5">
         <f>'all_enter|所有按钮入口'!E62</f>
         <v>61</v>
@@ -6659,7 +7334,7 @@
         <v>存钱罐</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:5">
       <c r="D63" s="5">
         <f>'all_enter|所有按钮入口'!E63</f>
         <v>62</v>
@@ -6669,7 +7344,7 @@
         <v>问题反馈</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:5">
       <c r="D64" s="5">
         <f>'all_enter|所有按钮入口'!E64</f>
         <v>63</v>
@@ -6679,7 +7354,7 @@
         <v>3D捕鱼测试排行榜</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:5">
       <c r="D65" s="5">
         <f>'all_enter|所有按钮入口'!E65</f>
         <v>64</v>
@@ -6689,7 +7364,7 @@
         <v>排名赛</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:5">
       <c r="D66" s="5">
         <f>'all_enter|所有按钮入口'!E66</f>
         <v>65</v>
@@ -6699,7 +7374,7 @@
         <v>3D捕鱼奖池-大厅显示奖池图标</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:5">
       <c r="D67" s="5">
         <f>'all_enter|所有按钮入口'!E67</f>
         <v>66</v>
@@ -6709,7 +7384,7 @@
         <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:5">
       <c r="D68" s="5">
         <f>'all_enter|所有按钮入口'!E68</f>
         <v>67</v>
@@ -6719,7 +7394,7 @@
         <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:5">
       <c r="D69" s="5">
         <f>'all_enter|所有按钮入口'!E69</f>
         <v>68</v>
@@ -6729,7 +7404,7 @@
         <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:5">
       <c r="D70" s="5">
         <f>'all_enter|所有按钮入口'!E70</f>
         <v>69</v>
@@ -6739,7 +7414,7 @@
         <v>3D捕鱼奖池-游戏内显示奖池图标</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:5">
       <c r="D71" s="5">
         <f>'all_enter|所有按钮入口'!E71</f>
         <v>70</v>
@@ -6749,7 +7424,7 @@
         <v>3D捕鱼奖池-显示说明界面</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:5">
       <c r="D72" s="5">
         <f>'all_enter|所有按钮入口'!E72</f>
         <v>71</v>
@@ -6759,7 +7434,7 @@
         <v>3D捕鱼开炮送红包-场次2大厅显示</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:5">
       <c r="D73" s="5">
         <f>'all_enter|所有按钮入口'!E73</f>
         <v>72</v>
@@ -6769,7 +7444,7 @@
         <v>兑换按钮</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:5">
       <c r="D74" s="5">
         <f>'all_enter|所有按钮入口'!E74</f>
         <v>73</v>
@@ -6779,7 +7454,7 @@
         <v>boss来袭</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:5">
       <c r="D75" s="5">
         <f>'all_enter|所有按钮入口'!E75</f>
         <v>74</v>
@@ -6789,7 +7464,7 @@
         <v>活跃任务</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:5">
       <c r="D76" s="5">
         <f>'all_enter|所有按钮入口'!E76</f>
         <v>75</v>
@@ -6799,7 +7474,7 @@
         <v>3D捕鱼开炮送红包-场次3大厅显示</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:5">
       <c r="D77" s="5">
         <f>'all_enter|所有按钮入口'!E77</f>
         <v>76</v>
@@ -6809,7 +7484,7 @@
         <v>3D捕鱼开炮送红包-场次4大厅显示</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:5">
       <c r="D78" s="5">
         <f>'all_enter|所有按钮入口'!E78</f>
         <v>77</v>
@@ -6819,7 +7494,7 @@
         <v>3D捕鱼开炮送红包-场次5大厅显示</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:5">
       <c r="D79" s="5">
         <f>'all_enter|所有按钮入口'!E79</f>
         <v>78</v>
@@ -6829,7 +7504,7 @@
         <v>3D捕鱼开炮送红包-游戏内</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:5">
       <c r="D80" s="5">
         <f>'all_enter|所有按钮入口'!E80</f>
         <v>79</v>
@@ -6839,7 +7514,7 @@
         <v>炮台升级按钮</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:5">
       <c r="D81" s="5">
         <f>'all_enter|所有按钮入口'!E81</f>
         <v>80</v>
@@ -6849,7 +7524,7 @@
         <v>畅玩卡</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:5">
       <c r="D82" s="5">
         <f>'all_enter|所有按钮入口'!E82</f>
         <v>81</v>
@@ -6859,7 +7534,7 @@
         <v>3D捕鱼挑战任务</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:5">
       <c r="D83" s="5">
         <f>'all_enter|所有按钮入口'!E83</f>
         <v>82</v>
@@ -6869,7 +7544,7 @@
         <v>3D捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:5">
       <c r="D84" s="5">
         <f>'all_enter|所有按钮入口'!E84</f>
         <v>83</v>
@@ -6879,7 +7554,7 @@
         <v>师徒系统</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:5">
       <c r="D85" s="5">
         <f>'all_enter|所有按钮入口'!E85</f>
         <v>84</v>
@@ -6889,7 +7564,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:5">
       <c r="D86" s="5">
         <f>'all_enter|所有按钮入口'!E86</f>
         <v>85</v>
@@ -6899,7 +7574,7 @@
         <v>签到</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:5">
       <c r="D87" s="5">
         <f>'all_enter|所有按钮入口'!E87</f>
         <v>86</v>
@@ -6909,7 +7584,7 @@
         <v>3D捕鱼自动开炮</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:5">
       <c r="D88" s="5">
         <f>'all_enter|所有按钮入口'!E88</f>
         <v>87</v>
@@ -6919,7 +7594,7 @@
         <v>免费抽奖-广告</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:5">
       <c r="D89" s="5">
         <f>'all_enter|所有按钮入口'!E89</f>
         <v>88</v>
@@ -6929,7 +7604,7 @@
         <v>超值礼包</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:5">
       <c r="D90" s="5">
         <f>'all_enter|所有按钮入口'!E90</f>
         <v>89</v>
@@ -6939,7 +7614,7 @@
         <v>新人抽大奖</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:5">
       <c r="D91" s="5">
         <f>'all_enter|所有按钮入口'!E91</f>
         <v>90</v>
@@ -6949,7 +7624,7 @@
         <v>水果消消乐引导</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:5">
       <c r="D92" s="5">
         <f>'all_enter|所有按钮入口'!E92</f>
         <v>91</v>
@@ -6959,7 +7634,7 @@
         <v>水果消消乐大引导</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:5">
       <c r="D93" s="5">
         <f>'all_enter|所有按钮入口'!E93</f>
         <v>92</v>
@@ -6969,7 +7644,7 @@
         <v>推广系统</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:5">
       <c r="D94" s="5">
         <f>'all_enter|所有按钮入口'!E94</f>
         <v>93</v>
@@ -6979,7 +7654,7 @@
         <v>充值消耗模板</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:5">
       <c r="D95" s="5">
         <f>'all_enter|所有按钮入口'!E95</f>
         <v>94</v>
@@ -6989,7 +7664,7 @@
         <v>免费福利券</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:5">
       <c r="D96" s="5">
         <f>'all_enter|所有按钮入口'!E96</f>
         <v>95</v>
@@ -6999,7 +7674,7 @@
         <v>奖池按钮图标</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:5">
       <c r="D97" s="5">
         <f>'all_enter|所有按钮入口'!E97</f>
         <v>96</v>
@@ -7009,7 +7684,7 @@
         <v>奖池游戏内显示</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:5">
       <c r="D98" s="5">
         <f>'all_enter|所有按钮入口'!E98</f>
         <v>97</v>
@@ -7019,7 +7694,7 @@
         <v>免费话费</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:5">
       <c r="D99" s="5">
         <f>'all_enter|所有按钮入口'!E99</f>
         <v>98</v>
@@ -7029,7 +7704,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:5">
       <c r="D100" s="5">
         <f>'all_enter|所有按钮入口'!E100</f>
         <v>99</v>
@@ -7039,7 +7714,7 @@
         <v>街机捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:5">
       <c r="D101" s="5">
         <f>'all_enter|所有按钮入口'!E101</f>
         <v>100</v>
@@ -7049,7 +7724,7 @@
         <v>欢乐敲金蛋</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:5">
       <c r="D102" s="5">
         <f>'all_enter|所有按钮入口'!E102</f>
         <v>101</v>
@@ -7059,7 +7734,7 @@
         <v>小游戏累计赢金抽福卡</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:5">
       <c r="D103" s="5">
         <f>'all_enter|所有按钮入口'!E103</f>
         <v>102</v>
@@ -7069,7 +7744,7 @@
         <v>畅玩礼包</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:5">
       <c r="D104" s="5">
         <f>'all_enter|所有按钮入口'!E104</f>
         <v>103</v>
@@ -7079,7 +7754,7 @@
         <v>核弹</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:5">
       <c r="D105" s="5">
         <f>'all_enter|所有按钮入口'!E105</f>
         <v>104</v>
@@ -7089,7 +7764,7 @@
         <v>大额福利券（跳转小游戏入口）</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:5">
       <c r="D106" s="5">
         <f>'all_enter|所有按钮入口'!E106</f>
         <v>105</v>
@@ -7099,7 +7774,7 @@
         <v>金鸡送礼（冲金鸡）</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:5">
       <c r="D107" s="5">
         <f>'all_enter|所有按钮入口'!E107</f>
         <v>106</v>
@@ -7109,7 +7784,7 @@
         <v>万圣幸运礼包</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:5">
       <c r="D108" s="5">
         <f>'all_enter|所有按钮入口'!E108</f>
         <v>107</v>
@@ -7119,7 +7794,7 @@
         <v>新人专享</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:5">
       <c r="D109" s="5">
         <f>'all_enter|所有按钮入口'!E109</f>
         <v>108</v>
@@ -7129,7 +7804,7 @@
         <v>排行榜总入口</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:5">
       <c r="D110" s="5">
         <f>'all_enter|所有按钮入口'!E110</f>
         <v>109</v>
@@ -7139,7 +7814,7 @@
         <v>深海探险</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:5">
       <c r="D111" s="5">
         <f>'all_enter|所有按钮入口'!E111</f>
         <v>110</v>
@@ -7149,7 +7824,7 @@
         <v>一本万利</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:5">
       <c r="D112" s="5">
         <f>'all_enter|所有按钮入口'!E112</f>
         <v>111</v>
@@ -7159,7 +7834,7 @@
         <v>UI-精彩活动</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:5">
       <c r="D113" s="5">
         <f>'all_enter|所有按钮入口'!E113</f>
         <v>112</v>
@@ -7169,7 +7844,7 @@
         <v>UI-获取金币</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:5">
       <c r="D114" s="5">
         <f>'all_enter|所有按钮入口'!E114</f>
         <v>113</v>
@@ -7179,7 +7854,7 @@
         <v>新人七天乐（旧）</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:5">
       <c r="D115" s="5">
         <f>'all_enter|所有按钮入口'!E115</f>
         <v>114</v>
@@ -7189,7 +7864,7 @@
         <v>聚划算</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:5">
       <c r="D116" s="5">
         <f>'all_enter|所有按钮入口'!E116</f>
         <v>115</v>
@@ -7199,7 +7874,7 @@
         <v>免费话费(冲金鸡)</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:5">
       <c r="D117" s="5">
         <f>'all_enter|所有按钮入口'!E117</f>
         <v>116</v>
@@ -7209,7 +7884,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:5">
       <c r="D118" s="5">
         <f>'all_enter|所有按钮入口'!E118</f>
         <v>117</v>
@@ -7219,7 +7894,7 @@
         <v>元旦福利</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:5">
       <c r="D119" s="5">
         <f>'all_enter|所有按钮入口'!E119</f>
         <v>118</v>
@@ -7229,7 +7904,7 @@
         <v>充值商城</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:5">
       <c r="D120" s="5">
         <f>'all_enter|所有按钮入口'!E120</f>
         <v>119</v>
@@ -7239,7 +7914,7 @@
         <v>游戏互导向斗地主</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:5">
       <c r="D121" s="5">
         <f>'all_enter|所有按钮入口'!E121</f>
         <v>120</v>
@@ -7249,7 +7924,7 @@
         <v>通用转盘</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:5">
       <c r="D122" s="5">
         <f>'all_enter|所有按钮入口'!E122</f>
         <v>121</v>
@@ -7259,7 +7934,7 @@
         <v>发财礼包</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:5">
       <c r="D123" s="5">
         <f>'all_enter|所有按钮入口'!E123</f>
         <v>122</v>
@@ -7269,7 +7944,7 @@
         <v>赢一把就睡觉</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:5">
       <c r="D124" s="5">
         <f>'all_enter|所有按钮入口'!E124</f>
         <v>123</v>
@@ -7279,7 +7954,7 @@
         <v>疯狂砸金蛋</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:5">
       <c r="D125" s="5">
         <f>'all_enter|所有按钮入口'!E125</f>
         <v>124</v>
@@ -7289,7 +7964,7 @@
         <v>新年送茅台</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:5">
       <c r="D126" s="5">
         <f>'all_enter|所有按钮入口'!E126</f>
         <v>125</v>
@@ -7299,7 +7974,7 @@
         <v>红包鱼来袭提示</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:5">
       <c r="D127" s="5">
         <f>'all_enter|所有按钮入口'!E127</f>
         <v>126</v>
@@ -7309,7 +7984,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:5">
       <c r="D128" s="5">
         <f>'all_enter|所有按钮入口'!E128</f>
         <v>127</v>
@@ -7319,7 +7994,7 @@
         <v>小游戏托管</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:5">
       <c r="D129" s="5">
         <f>'all_enter|所有按钮入口'!E129</f>
         <v>128</v>
@@ -7329,7 +8004,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:5">
       <c r="D130" s="5">
         <f>'all_enter|所有按钮入口'!E130</f>
         <v>129</v>
@@ -7339,7 +8014,7 @@
         <v>水果消消乐爬塔</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:5">
       <c r="D131" s="5">
         <f>'all_enter|所有按钮入口'!E131</f>
         <v>130</v>
@@ -7349,7 +8024,7 @@
         <v>节日扩展活动（新玩家）</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:5">
       <c r="D132" s="5">
         <f>'all_enter|所有按钮入口'!E132</f>
         <v>131</v>
@@ -7359,7 +8034,7 @@
         <v>节日扩展活动（非新玩家）</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:5">
       <c r="D133" s="5">
         <f>'all_enter|所有按钮入口'!E133</f>
         <v>132</v>
@@ -7369,7 +8044,7 @@
         <v>欢乐礼包</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:5">
       <c r="D134" s="5">
         <f>'all_enter|所有按钮入口'!E134</f>
         <v>133</v>
@@ -7379,7 +8054,7 @@
         <v>龙王贡品</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:5">
       <c r="D135" s="5">
         <f>'all_enter|所有按钮入口'!E135</f>
         <v>134</v>
@@ -7389,7 +8064,7 @@
         <v>排行榜（冲金鸡大厅）</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:5">
       <c r="D136" s="5">
         <f>'all_enter|所有按钮入口'!E136</f>
         <v>135</v>
@@ -7399,7 +8074,7 @@
         <v>欢乐豪礼（新玩家）</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:5">
       <c r="D137" s="5">
         <f>'all_enter|所有按钮入口'!E137</f>
         <v>136</v>
@@ -7409,7 +8084,7 @@
         <v>欢乐豪礼（非新玩家）</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:5">
       <c r="D138" s="5">
         <f>'all_enter|所有按钮入口'!E138</f>
         <v>137</v>
@@ -7419,7 +8094,7 @@
         <v>秒杀礼包-捕鱼</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:5">
       <c r="D139" s="5">
         <f>'all_enter|所有按钮入口'!E139</f>
         <v>138</v>
@@ -7429,7 +8104,7 @@
         <v>秒杀礼包-cjj</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:5">
       <c r="D140" s="5">
         <f>'all_enter|所有按钮入口'!E140</f>
         <v>139</v>
@@ -7439,7 +8114,7 @@
         <v>疯狂返利</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:5">
       <c r="D141" s="5">
         <f>'all_enter|所有按钮入口'!E141</f>
         <v>140</v>
@@ -7449,60 +8124,28 @@
         <v>通行证</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E142" s="5"/>
+    <row r="142" spans="4:5">
+      <c r="D142" s="5">
+        <f>'all_enter|所有按钮入口'!E142</f>
+        <v>141</v>
+      </c>
+      <c r="E142" s="5" t="str">
+        <f>'all_enter|所有按钮入口'!F142</f>
+        <v>超级夺宝</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143" s="5">
+        <v>142</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/config_Release/game_enter_btn_config.xlsx
+++ b/config_Release/game_enter_btn_config.xlsx
@@ -10,8 +10,8 @@
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
     <sheet name="xxlsh_game|水浒消消乐" sheetId="14" r:id="rId2"/>
     <sheet name="xxlcs_game|财神消消乐" sheetId="29" r:id="rId3"/>
-    <sheet name="xxlsg_game|三国消消乐" sheetId="37" r:id="rId4"/>
-    <sheet name="xxl_game|消消乐" sheetId="13" r:id="rId5"/>
+    <sheet name="xxl_game|消消乐" sheetId="13" r:id="rId4"/>
+    <sheet name="xxlsg_game|三国消消乐" sheetId="37" r:id="rId5"/>
     <sheet name="zpg_game|种苹果" sheetId="28" r:id="rId6"/>
     <sheet name="fishing_game|捕鱼游戏按钮配置" sheetId="12" r:id="rId7"/>
     <sheet name="fishing_hall|捕鱼大厅按钮配置" sheetId="11" r:id="rId8"/>
@@ -446,7 +446,7 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>120#</t>
+    <t>100#</t>
   </si>
   <si>
     <t>all</t>
@@ -1339,10 +1339,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1391,7 +1391,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1399,23 +1420,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,29 +1436,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,11 +1465,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1498,15 +1503,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1521,23 +1519,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1582,55 +1582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1612,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,7 +1678,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,19 +1714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,37 +1738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,13 +1750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,20 +1796,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1825,21 +1829,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,6 +1852,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1884,10 +1884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1896,19 +1896,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1917,118 +1917,118 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2079,9 +2079,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2445,12 +2442,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2465,57 +2462,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2537,12 +2534,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2557,13 +2554,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2601,25 +2598,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2650,13 +2647,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2677,12 +2674,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2697,24 +2694,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2751,18 +2748,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2793,24 +2790,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2831,12 +2828,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2851,13 +2848,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2879,12 +2876,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2899,13 +2896,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2942,13 +2939,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2989,18 +2986,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3011,7 +3008,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3023,7 +3020,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3034,7 +3031,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -3045,7 +3042,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3056,7 +3053,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3067,7 +3064,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3095,12 +3092,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -3115,61 +3112,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15"/>
     <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="28"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" ht="15"/>
   </sheetData>
@@ -3209,13 +3206,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3289,7 +3286,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="3:3">
@@ -3325,13 +3322,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2"